--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +444,22 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-осный Вагон</t>
+          <t>8-осный</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>8-осный Вагон</t>
+          <t>8-осный</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>8-осный Вагон</t>
+          <t>8-осный</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>8-осный Вагон</t>
+          <t>8-осный</t>
         </is>
       </c>
     </row>
@@ -739,28 +739,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="B11" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="C11" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="D11" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="E11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="12">
@@ -791,28 +791,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16.3</v>
+        <v>17.84</v>
       </c>
       <c r="B15" t="n">
-        <v>16.3</v>
+        <v>17.84</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3</v>
+        <v>17.84</v>
       </c>
       <c r="D15" t="n">
-        <v>16.3</v>
+        <v>17.84</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1067,132 +1067,132 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1890.8</v>
+        <v>2068.98</v>
       </c>
       <c r="B25" t="n">
-        <v>1890.8</v>
+        <v>2068.98</v>
       </c>
       <c r="C25" t="n">
-        <v>1890.8</v>
+        <v>2068.98</v>
       </c>
       <c r="D25" t="n">
-        <v>1890.8</v>
+        <v>2068.98</v>
       </c>
       <c r="E25" t="n">
-        <v>3000</v>
+        <v>3200.5</v>
       </c>
       <c r="F25" t="n">
-        <v>3000</v>
+        <v>3200.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3000</v>
+        <v>3200.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3000</v>
+        <v>3200.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1418.1</v>
+        <v>1551.74</v>
       </c>
       <c r="B26" t="n">
-        <v>1418.1</v>
+        <v>1551.74</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.1</v>
+        <v>1551.74</v>
       </c>
       <c r="D26" t="n">
-        <v>1418.1</v>
+        <v>1551.74</v>
       </c>
       <c r="E26" t="n">
-        <v>2250</v>
+        <v>2400.38</v>
       </c>
       <c r="F26" t="n">
-        <v>2250</v>
+        <v>2400.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2250</v>
+        <v>2400.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2250</v>
+        <v>2400.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12918.1</v>
+        <v>13051.74</v>
       </c>
       <c r="B27" t="n">
-        <v>12918.1</v>
+        <v>13051.74</v>
       </c>
       <c r="C27" t="n">
-        <v>12918.1</v>
+        <v>13051.74</v>
       </c>
       <c r="D27" t="n">
-        <v>12918.1</v>
+        <v>13051.74</v>
       </c>
       <c r="E27" t="n">
-        <v>16250</v>
+        <v>16400.38</v>
       </c>
       <c r="F27" t="n">
-        <v>16250</v>
+        <v>16400.38</v>
       </c>
       <c r="G27" t="n">
-        <v>16250</v>
+        <v>16400.38</v>
       </c>
       <c r="H27" t="n">
-        <v>16250</v>
+        <v>16400.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>151.26</v>
+        <v>165.52</v>
       </c>
       <c r="B28" t="n">
-        <v>151.26</v>
+        <v>165.52</v>
       </c>
       <c r="C28" t="n">
-        <v>151.26</v>
+        <v>165.52</v>
       </c>
       <c r="D28" t="n">
-        <v>151.26</v>
+        <v>165.52</v>
       </c>
       <c r="E28" t="n">
-        <v>240</v>
+        <v>256.04</v>
       </c>
       <c r="F28" t="n">
-        <v>240</v>
+        <v>256.04</v>
       </c>
       <c r="G28" t="n">
-        <v>240</v>
+        <v>256.04</v>
       </c>
       <c r="H28" t="n">
-        <v>240</v>
+        <v>256.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>754.39</v>
+        <v>762.2</v>
       </c>
       <c r="B29" t="n">
-        <v>977.6799999999999</v>
+        <v>987.79</v>
       </c>
       <c r="C29" t="n">
-        <v>728.98</v>
+        <v>736.52</v>
       </c>
       <c r="D29" t="n">
-        <v>970.78</v>
+        <v>980.8200000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>532.5</v>
+        <v>537.4299999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>690.11</v>
+        <v>696.5</v>
       </c>
       <c r="G29" t="n">
-        <v>514.5599999999999</v>
+        <v>519.3200000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>685.24</v>
+        <v>691.58</v>
       </c>
     </row>
     <row r="30">
@@ -1249,54 +1249,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>789.74</v>
+        <v>800.03</v>
       </c>
       <c r="B32" t="n">
-        <v>1024.62</v>
+        <v>1036.45</v>
       </c>
       <c r="C32" t="n">
-        <v>767.99</v>
+        <v>778.05</v>
       </c>
       <c r="D32" t="n">
-        <v>1027.4</v>
+        <v>1039.07</v>
       </c>
       <c r="E32" t="n">
-        <v>623.55</v>
+        <v>634.08</v>
       </c>
       <c r="F32" t="n">
-        <v>812.11</v>
+        <v>822.4</v>
       </c>
       <c r="G32" t="n">
-        <v>614.6799999999999</v>
+        <v>625.0599999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>830.88</v>
+        <v>840.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14892.45</v>
+        <v>15051.81</v>
       </c>
       <c r="B33" t="n">
-        <v>15479.65</v>
+        <v>15642.86</v>
       </c>
       <c r="C33" t="n">
-        <v>14838.08</v>
+        <v>14996.86</v>
       </c>
       <c r="D33" t="n">
-        <v>15486.6</v>
+        <v>15649.41</v>
       </c>
       <c r="E33" t="n">
-        <v>17808.88</v>
+        <v>17985.58</v>
       </c>
       <c r="F33" t="n">
-        <v>18280.28</v>
+        <v>18456.38</v>
       </c>
       <c r="G33" t="n">
-        <v>17786.7</v>
+        <v>17963.03</v>
       </c>
       <c r="H33" t="n">
-        <v>18327.2</v>
+        <v>18502.53</v>
       </c>
     </row>
     <row r="34">
@@ -1405,28 +1405,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14614.35</v>
+        <v>14770.83</v>
       </c>
       <c r="B38" t="n">
-        <v>15481.8</v>
+        <v>15645.03</v>
       </c>
       <c r="C38" t="n">
-        <v>14629.68</v>
+        <v>14786.3</v>
       </c>
       <c r="D38" t="n">
-        <v>15542.58</v>
+        <v>15705.97</v>
       </c>
       <c r="E38" t="n">
-        <v>14958.3</v>
+        <v>15108.62</v>
       </c>
       <c r="F38" t="n">
-        <v>16325.61</v>
+        <v>16483.62</v>
       </c>
       <c r="G38" t="n">
-        <v>15117.86</v>
+        <v>15269.49</v>
       </c>
       <c r="H38" t="n">
-        <v>16653.27</v>
+        <v>16813.11</v>
       </c>
     </row>
     <row r="39">
@@ -1535,28 +1535,28 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14373.53</v>
+        <v>14527.52</v>
       </c>
       <c r="B43" t="n">
-        <v>15121.82</v>
+        <v>15281.33</v>
       </c>
       <c r="C43" t="n">
-        <v>14343.83</v>
+        <v>14497.5</v>
       </c>
       <c r="D43" t="n">
-        <v>15194.01</v>
+        <v>15353.79</v>
       </c>
       <c r="E43" t="n">
-        <v>22232.62</v>
+        <v>22450.26</v>
       </c>
       <c r="F43" t="n">
-        <v>20683.33</v>
+        <v>20881.67</v>
       </c>
       <c r="G43" t="n">
-        <v>21772.18</v>
+        <v>21985.39</v>
       </c>
       <c r="H43" t="n">
-        <v>20162.8</v>
+        <v>20355.12</v>
       </c>
     </row>
     <row r="44">
@@ -1691,80 +1691,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>895.29</v>
+        <v>966.75</v>
       </c>
       <c r="B49" t="n">
-        <v>828.34</v>
+        <v>894.3099999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>939.73</v>
+        <v>1002.55</v>
       </c>
       <c r="D49" t="n">
-        <v>855.74</v>
+        <v>912.78</v>
       </c>
       <c r="E49" t="n">
-        <v>885.03</v>
+        <v>933.48</v>
       </c>
       <c r="F49" t="n">
-        <v>843.62</v>
+        <v>889.48</v>
       </c>
       <c r="G49" t="n">
-        <v>1017.33</v>
+        <v>1066.45</v>
       </c>
       <c r="H49" t="n">
-        <v>960.5599999999999</v>
+        <v>1006.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.74</v>
+        <v>8.83</v>
       </c>
       <c r="B50" t="n">
-        <v>10.52</v>
+        <v>10.64</v>
       </c>
       <c r="C50" t="n">
-        <v>8.300000000000001</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>10.26</v>
+        <v>10.37</v>
       </c>
       <c r="E50" t="n">
-        <v>13.51</v>
+        <v>13.65</v>
       </c>
       <c r="F50" t="n">
-        <v>14.4</v>
+        <v>14.53</v>
       </c>
       <c r="G50" t="n">
-        <v>12.6</v>
+        <v>12.73</v>
       </c>
       <c r="H50" t="n">
-        <v>13.62</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="B51" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="C51" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="D51" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="E51" t="n">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="F51" t="n">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="G51" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="H51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="52">
@@ -1807,13 +1807,13 @@
         <v>1.43</v>
       </c>
       <c r="E55" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="F55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G55" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H55" t="n">
         <v>1.31</v>
@@ -1821,28 +1821,28 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.266</v>
+        <v>0.269</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="C56" t="n">
-        <v>0.253</v>
+        <v>0.257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="E56" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="F56" t="n">
-        <v>0.437</v>
+        <v>0.441</v>
       </c>
       <c r="G56" t="n">
-        <v>0.383</v>
+        <v>0.387</v>
       </c>
       <c r="H56" t="n">
-        <v>0.414</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="57">
@@ -1925,28 +1925,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>108</v>
+      </c>
+      <c r="B67" t="n">
         <v>112</v>
       </c>
-      <c r="B67" t="n">
-        <v>115</v>
-      </c>
       <c r="C67" t="n">
+        <v>107</v>
+      </c>
+      <c r="D67" t="n">
+        <v>111</v>
+      </c>
+      <c r="E67" t="n">
         <v>110</v>
       </c>
-      <c r="D67" t="n">
-        <v>114</v>
-      </c>
-      <c r="E67" t="n">
-        <v>113</v>
-      </c>
       <c r="F67" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G67" t="n">
+        <v>103</v>
+      </c>
+      <c r="H67" t="n">
         <v>106</v>
-      </c>
-      <c r="H67" t="n">
-        <v>109</v>
       </c>
     </row>
     <row r="68">
@@ -2739,184 +2739,184 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11084.15</v>
+        <v>11202.76</v>
       </c>
       <c r="B100" t="n">
-        <v>10622.6</v>
+        <v>10734.6</v>
       </c>
       <c r="C100" t="n">
-        <v>11321.16</v>
+        <v>11442.3</v>
       </c>
       <c r="D100" t="n">
-        <v>10839.07</v>
+        <v>10953.02</v>
       </c>
       <c r="E100" t="n">
-        <v>13254.79</v>
+        <v>13386.31</v>
       </c>
       <c r="F100" t="n">
-        <v>12544.48</v>
+        <v>12665.32</v>
       </c>
       <c r="G100" t="n">
-        <v>13570.9</v>
+        <v>13705.43</v>
       </c>
       <c r="H100" t="n">
-        <v>12827.21</v>
+        <v>12949.92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11084.15</v>
+        <v>11202.76</v>
       </c>
       <c r="B101" t="n">
-        <v>10622.6</v>
+        <v>10734.6</v>
       </c>
       <c r="C101" t="n">
-        <v>11321.16</v>
+        <v>11442.3</v>
       </c>
       <c r="D101" t="n">
-        <v>10839.07</v>
+        <v>10953.02</v>
       </c>
       <c r="E101" t="n">
-        <v>13254.79</v>
+        <v>13386.31</v>
       </c>
       <c r="F101" t="n">
-        <v>12544.48</v>
+        <v>12665.32</v>
       </c>
       <c r="G101" t="n">
-        <v>13570.9</v>
+        <v>13705.43</v>
       </c>
       <c r="H101" t="n">
-        <v>12827.21</v>
+        <v>12949.92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="B102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D102" t="n">
         <v>1.24</v>
       </c>
-      <c r="C102" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.23</v>
-      </c>
       <c r="E102" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F102" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G102" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H102" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0701</v>
+        <v>0.0707</v>
       </c>
       <c r="B103" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="D103" t="n">
         <v>0.0769</v>
       </c>
-      <c r="C103" t="n">
-        <v>0.0682</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.07630000000000001</v>
-      </c>
       <c r="E103" t="n">
-        <v>0.0837</v>
+        <v>0.0843</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0905</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0818</v>
+        <v>0.0825</v>
       </c>
       <c r="H103" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.129</v>
+        <v>1.141</v>
       </c>
       <c r="B104" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D104" t="n">
         <v>1.239</v>
       </c>
-      <c r="C104" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.226</v>
-      </c>
       <c r="E104" t="n">
-        <v>1.35</v>
+        <v>1.363</v>
       </c>
       <c r="F104" t="n">
-        <v>1.463</v>
+        <v>1.477</v>
       </c>
       <c r="G104" t="n">
-        <v>1.316</v>
+        <v>1.329</v>
       </c>
       <c r="H104" t="n">
-        <v>1.451</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0707</v>
       </c>
       <c r="B105" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="D105" t="n">
         <v>0.07679999999999999</v>
       </c>
-      <c r="C105" t="n">
-        <v>0.06809999999999999</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.076</v>
-      </c>
       <c r="E105" t="n">
-        <v>0.0837</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0907</v>
+        <v>0.0916</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0824</v>
       </c>
       <c r="H105" t="n">
-        <v>0.09</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.406</v>
+        <v>0.41</v>
       </c>
       <c r="B106" t="n">
-        <v>0.474</v>
+        <v>0.479</v>
       </c>
       <c r="C106" t="n">
-        <v>0.389</v>
+        <v>0.395</v>
       </c>
       <c r="D106" t="n">
-        <v>0.465</v>
+        <v>0.47</v>
       </c>
       <c r="E106" t="n">
-        <v>0.577</v>
+        <v>0.585</v>
       </c>
       <c r="F106" t="n">
-        <v>0.618</v>
+        <v>0.624</v>
       </c>
       <c r="G106" t="n">
-        <v>0.546</v>
+        <v>0.552</v>
       </c>
       <c r="H106" t="n">
-        <v>0.594</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="107">
@@ -2969,6 +2969,162 @@
       </c>
       <c r="H108" t="n">
         <v>0.365</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="n">
+        <v>112</v>
+      </c>
+      <c r="F113" t="n">
+        <v>112</v>
+      </c>
+      <c r="G113" t="n">
+        <v>112</v>
+      </c>
+      <c r="H113" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4079.175</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3985.003</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4125.715</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4009.014</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4035.924</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3978.724</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4208.785</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4130.863</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>106</v>
+      </c>
+      <c r="B115" t="n">
+        <v>106</v>
+      </c>
+      <c r="C115" t="n">
+        <v>106</v>
+      </c>
+      <c r="D115" t="n">
+        <v>106</v>
+      </c>
+      <c r="E115" t="n">
+        <v>106</v>
+      </c>
+      <c r="F115" t="n">
+        <v>106</v>
+      </c>
+      <c r="G115" t="n">
+        <v>106</v>
+      </c>
+      <c r="H115" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3927.975</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3833.803</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3974.515</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3857.814</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3884.724</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3827.524</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4057.585</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3979.663</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2822.4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2822.4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2671.2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2671.2</v>
       </c>
     </row>
   </sheetData>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3127,6 +3127,370 @@
         <v>2671.2</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3985</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3979.66</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3979.66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="B121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>894.3099999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1006.51</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1006.51</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3161.93</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3161.93</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2016.18</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2016.18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="B125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="C125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="D125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="E125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="F125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="G125" t="n">
+        <v>322427.13</v>
+      </c>
+      <c r="H125" t="n">
+        <v>322427.13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="B126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="D126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="E126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="F126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="G126" t="n">
+        <v>205593.14</v>
+      </c>
+      <c r="H126" t="n">
+        <v>205593.14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="B127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="C127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="D127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="E127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="F127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="G127" t="n">
+        <v>214951.42</v>
+      </c>
+      <c r="H127" t="n">
+        <v>214951.42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="B128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="C128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="D128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="E128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="F128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="G128" t="n">
+        <v>137062.09</v>
+      </c>
+      <c r="H128" t="n">
+        <v>137062.09</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="B129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="B130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="C130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="D130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="E130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="F130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="G130" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="H130" t="n">
+        <v>131.98</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="B131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>65.15000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="B132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="C132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="D132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="E132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="F132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="G132" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="H132" t="n">
+        <v>41.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -2283,16 +2283,16 @@
         <v>55</v>
       </c>
       <c r="E82" t="n">
-        <v>130</v>
+        <v>-130</v>
       </c>
       <c r="F82" t="n">
-        <v>130</v>
+        <v>-130</v>
       </c>
       <c r="G82" t="n">
-        <v>130</v>
+        <v>-130</v>
       </c>
       <c r="H82" t="n">
-        <v>130</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="83">
@@ -2387,16 +2387,16 @@
         <v>0.66465</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2435</v>
+        <v>-4.05125</v>
       </c>
       <c r="F86" t="n">
-        <v>0.15607</v>
+        <v>-6.18038</v>
       </c>
       <c r="G86" t="n">
-        <v>0.22571</v>
+        <v>-4.41491</v>
       </c>
       <c r="H86" t="n">
-        <v>0.12875</v>
+        <v>-7.07391</v>
       </c>
     </row>
     <row r="87">
@@ -2491,16 +2491,16 @@
         <v>-0.00636</v>
       </c>
       <c r="E90" t="n">
-        <v>0.27492</v>
+        <v>-4.01983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.14787</v>
+        <v>-6.18858</v>
       </c>
       <c r="G90" t="n">
-        <v>0.24803</v>
+        <v>-4.39259</v>
       </c>
       <c r="H90" t="n">
-        <v>0.11076</v>
+        <v>-7.0919</v>
       </c>
     </row>
     <row r="91">
@@ -2517,16 +2517,16 @@
         <v>0.66465</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.03459</v>
+        <v>-20.40479</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.04321</v>
+        <v>-23.14016</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0378</v>
+        <v>-21.24494</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.04232</v>
+        <v>-22.55626</v>
       </c>
     </row>
     <row r="92">
@@ -2543,16 +2543,16 @@
         <v>-0.04142</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7442800000000001</v>
+        <v>0.41153</v>
       </c>
       <c r="F92" t="n">
-        <v>0.68623</v>
+        <v>0.18702</v>
       </c>
       <c r="G92" t="n">
-        <v>0.73355</v>
+        <v>0.37306</v>
       </c>
       <c r="H92" t="n">
-        <v>0.66465</v>
+        <v>0.09261999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -2621,16 +2621,16 @@
         <v>-0.04142</v>
       </c>
       <c r="E95" t="n">
-        <v>0.55906</v>
+        <v>-19.81114</v>
       </c>
       <c r="F95" t="n">
-        <v>0.47506</v>
+        <v>-22.62189</v>
       </c>
       <c r="G95" t="n">
-        <v>0.54038</v>
+        <v>-20.66676</v>
       </c>
       <c r="H95" t="n">
-        <v>0.45179</v>
+        <v>-22.06215</v>
       </c>
     </row>
     <row r="96">
@@ -2647,16 +2647,16 @@
         <v>55</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="F96" t="n">
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="G96" t="n">
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="H96" t="n">
-        <v>240</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="97">
@@ -2673,16 +2673,16 @@
         <v>245</v>
       </c>
       <c r="E97" t="n">
-        <v>55</v>
+        <v>-55</v>
       </c>
       <c r="F97" t="n">
-        <v>55</v>
+        <v>-55</v>
       </c>
       <c r="G97" t="n">
-        <v>55</v>
+        <v>-55</v>
       </c>
       <c r="H97" t="n">
-        <v>55</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="98">
@@ -2751,16 +2751,16 @@
         <v>10953.02</v>
       </c>
       <c r="E100" t="n">
-        <v>13386.31</v>
+        <v>-52215.21</v>
       </c>
       <c r="F100" t="n">
-        <v>12665.32</v>
+        <v>-85736.96000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>13705.43</v>
+        <v>-51896.09</v>
       </c>
       <c r="H100" t="n">
-        <v>12949.92</v>
+        <v>-101852.74</v>
       </c>
     </row>
     <row r="101">
@@ -2777,16 +2777,16 @@
         <v>10953.02</v>
       </c>
       <c r="E101" t="n">
-        <v>13386.31</v>
+        <v>-298220.91</v>
       </c>
       <c r="F101" t="n">
-        <v>12665.32</v>
+        <v>-348143.04</v>
       </c>
       <c r="G101" t="n">
-        <v>13705.43</v>
+        <v>-314302.17</v>
       </c>
       <c r="H101" t="n">
-        <v>12949.92</v>
+        <v>-347858.44</v>
       </c>
     </row>
     <row r="102">
@@ -2803,16 +2803,16 @@
         <v>1.24</v>
       </c>
       <c r="E102" t="n">
-        <v>1.36</v>
+        <v>-5.32</v>
       </c>
       <c r="F102" t="n">
-        <v>1.48</v>
+        <v>-10</v>
       </c>
       <c r="G102" t="n">
-        <v>1.33</v>
+        <v>-5.03</v>
       </c>
       <c r="H102" t="n">
-        <v>1.47</v>
+        <v>-11.52</v>
       </c>
     </row>
     <row r="103">
@@ -2829,16 +2829,16 @@
         <v>0.0769</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0843</v>
+        <v>-0.3298</v>
       </c>
       <c r="F103" t="n">
-        <v>0.09180000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0825</v>
+        <v>-0.3119</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0911</v>
+        <v>-0.7141999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -2855,16 +2855,16 @@
         <v>1.239</v>
       </c>
       <c r="E104" t="n">
-        <v>1.363</v>
+        <v>-30.369</v>
       </c>
       <c r="F104" t="n">
-        <v>1.477</v>
+        <v>-40.593</v>
       </c>
       <c r="G104" t="n">
-        <v>1.329</v>
+        <v>-30.483</v>
       </c>
       <c r="H104" t="n">
-        <v>1.465</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="105">
@@ -2881,16 +2881,16 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08450000000000001</v>
+        <v>-1.8829</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0916</v>
+        <v>-2.5168</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0824</v>
+        <v>-1.8899</v>
       </c>
       <c r="H105" t="n">
-        <v>0.09080000000000001</v>
+        <v>-2.4403</v>
       </c>
     </row>
     <row r="106">
@@ -2907,16 +2907,16 @@
         <v>0.47</v>
       </c>
       <c r="E106" t="n">
-        <v>0.585</v>
+        <v>-1.797</v>
       </c>
       <c r="F106" t="n">
-        <v>0.624</v>
+        <v>-2.696</v>
       </c>
       <c r="G106" t="n">
-        <v>0.552</v>
+        <v>-1.815</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6</v>
+        <v>-2.736</v>
       </c>
     </row>
     <row r="107">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -444,22 +444,22 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>8-миосный</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>8-миосный</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>8-миосный</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>8-миосный</t>
         </is>
       </c>
     </row>
@@ -605,16 +605,16 @@
         <v>3160</v>
       </c>
       <c r="E6" t="n">
-        <v>3160</v>
+        <v>995</v>
       </c>
       <c r="F6" t="n">
-        <v>3160</v>
+        <v>995</v>
       </c>
       <c r="G6" t="n">
-        <v>3160</v>
+        <v>995</v>
       </c>
       <c r="H6" t="n">
-        <v>3160</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7">
@@ -657,16 +657,16 @@
         <v>125</v>
       </c>
       <c r="E8" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -683,16 +683,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         <v>1.33</v>
       </c>
       <c r="D11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="E11" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="12">
@@ -777,16 +777,16 @@
         <v>0.047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
       <c r="H12" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="13">
@@ -854,22 +854,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+125+185</t>
         </is>
       </c>
     </row>
@@ -943,54 +943,54 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1840</v>
+        <v>260</v>
       </c>
       <c r="B17" t="n">
-        <v>1840</v>
+        <v>500</v>
       </c>
       <c r="C17" t="n">
+        <v>290</v>
+      </c>
+      <c r="D17" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" t="n">
         <v>260</v>
       </c>
-      <c r="D17" t="n">
-        <v>1840</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1840</v>
-      </c>
       <c r="F17" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>1840</v>
+        <v>290</v>
       </c>
       <c r="H17" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01176</v>
+        <v>0.01145</v>
       </c>
       <c r="B18" t="n">
         <v>0.01311</v>
       </c>
       <c r="C18" t="n">
+        <v>0.01176</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01372</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.01145</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>0.01311</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.01176</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.01311</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.01145</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01311</v>
-      </c>
       <c r="H18" t="n">
-        <v>0.01145</v>
+        <v>0.01372</v>
       </c>
     </row>
     <row r="19">
@@ -1255,288 +1255,288 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7108.12</v>
+        <v>2707.91</v>
       </c>
       <c r="B29" t="n">
-        <v>6732.2</v>
+        <v>3509.4</v>
       </c>
       <c r="C29" t="n">
-        <v>2920.29</v>
+        <v>3043.25</v>
       </c>
       <c r="D29" t="n">
-        <v>7665.62</v>
+        <v>4052.66</v>
       </c>
       <c r="E29" t="n">
-        <v>8459.459999999999</v>
+        <v>1909.36</v>
       </c>
       <c r="F29" t="n">
-        <v>3402.66</v>
+        <v>2474.5</v>
       </c>
       <c r="G29" t="n">
-        <v>9122.950000000001</v>
+        <v>2145.81</v>
       </c>
       <c r="H29" t="n">
-        <v>3669.54</v>
+        <v>2857.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>239.52</v>
+        <v>119.32</v>
       </c>
       <c r="B30" t="n">
-        <v>227.78</v>
+        <v>133.78</v>
       </c>
       <c r="C30" t="n">
-        <v>119.32</v>
+        <v>120.45</v>
       </c>
       <c r="D30" t="n">
-        <v>239.52</v>
+        <v>139.98</v>
       </c>
       <c r="E30" t="n">
-        <v>227.78</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>119.32</v>
+        <v>116.09</v>
       </c>
       <c r="G30" t="n">
-        <v>227.78</v>
+        <v>95.81</v>
       </c>
       <c r="H30" t="n">
-        <v>119.32</v>
+        <v>123.57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4680.73</v>
+        <v>679.3099999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>4198.73</v>
+        <v>1140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>679.3099999999999</v>
+        <v>737.72</v>
       </c>
       <c r="D31" t="n">
-        <v>4680.73</v>
+        <v>1308.28</v>
       </c>
       <c r="E31" t="n">
-        <v>4198.73</v>
+        <v>968.38</v>
       </c>
       <c r="F31" t="n">
-        <v>679.3099999999999</v>
+        <v>1626.47</v>
       </c>
       <c r="G31" t="n">
-        <v>4198.73</v>
+        <v>1051.65</v>
       </c>
       <c r="H31" t="n">
-        <v>679.3099999999999</v>
+        <v>1864.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7190.46</v>
+        <v>2719.7</v>
       </c>
       <c r="B32" t="n">
-        <v>6802.99</v>
+        <v>3524.96</v>
       </c>
       <c r="C32" t="n">
-        <v>2931.23</v>
+        <v>3054.47</v>
       </c>
       <c r="D32" t="n">
-        <v>7742.03</v>
+        <v>4068.86</v>
       </c>
       <c r="E32" t="n">
-        <v>8518.139999999999</v>
+        <v>1940.68</v>
       </c>
       <c r="F32" t="n">
-        <v>3417.64</v>
+        <v>2516.7</v>
       </c>
       <c r="G32" t="n">
-        <v>9177.389999999999</v>
+        <v>2175.79</v>
       </c>
       <c r="H32" t="n">
-        <v>3683.43</v>
+        <v>2901.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31027.89</v>
+        <v>19850.99</v>
       </c>
       <c r="B33" t="n">
-        <v>30059.21</v>
+        <v>21864.14</v>
       </c>
       <c r="C33" t="n">
-        <v>20379.81</v>
+        <v>20687.92</v>
       </c>
       <c r="D33" t="n">
-        <v>32406.82</v>
+        <v>23223.89</v>
       </c>
       <c r="E33" t="n">
-        <v>37695.73</v>
+        <v>21252.08</v>
       </c>
       <c r="F33" t="n">
-        <v>24944.48</v>
+        <v>22692.13</v>
       </c>
       <c r="G33" t="n">
-        <v>39343.85</v>
+        <v>21839.86</v>
       </c>
       <c r="H33" t="n">
-        <v>25608.96</v>
+        <v>23654.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66.75</v>
+        <v>68.56</v>
       </c>
       <c r="B34" t="n">
         <v>59.88</v>
       </c>
       <c r="C34" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>57.22</v>
+      </c>
+      <c r="E34" t="n">
         <v>68.56</v>
       </c>
-      <c r="D34" t="n">
+      <c r="F34" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="G34" t="n">
         <v>66.75</v>
       </c>
-      <c r="E34" t="n">
-        <v>59.88</v>
-      </c>
-      <c r="F34" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="G34" t="n">
-        <v>59.88</v>
-      </c>
       <c r="H34" t="n">
-        <v>68.56</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>333.76</v>
+        <v>342.79</v>
       </c>
       <c r="B35" t="n">
         <v>299.39</v>
       </c>
       <c r="C35" t="n">
+        <v>333.76</v>
+      </c>
+      <c r="D35" t="n">
+        <v>286.08</v>
+      </c>
+      <c r="E35" t="n">
         <v>342.79</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>299.39</v>
+      </c>
+      <c r="G35" t="n">
         <v>333.76</v>
       </c>
-      <c r="E35" t="n">
-        <v>299.39</v>
-      </c>
-      <c r="F35" t="n">
-        <v>342.79</v>
-      </c>
-      <c r="G35" t="n">
-        <v>299.39</v>
-      </c>
       <c r="H35" t="n">
-        <v>342.79</v>
+        <v>286.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>200.26</v>
+        <v>205.68</v>
       </c>
       <c r="B36" t="n">
         <v>179.63</v>
       </c>
       <c r="C36" t="n">
+        <v>200.26</v>
+      </c>
+      <c r="D36" t="n">
+        <v>171.65</v>
+      </c>
+      <c r="E36" t="n">
         <v>205.68</v>
       </c>
-      <c r="D36" t="n">
+      <c r="F36" t="n">
+        <v>179.63</v>
+      </c>
+      <c r="G36" t="n">
         <v>200.26</v>
       </c>
-      <c r="E36" t="n">
-        <v>179.63</v>
-      </c>
-      <c r="F36" t="n">
-        <v>205.68</v>
-      </c>
-      <c r="G36" t="n">
-        <v>179.63</v>
-      </c>
       <c r="H36" t="n">
-        <v>205.68</v>
+        <v>171.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>467.26</v>
+        <v>479.91</v>
       </c>
       <c r="B37" t="n">
         <v>419.15</v>
       </c>
       <c r="C37" t="n">
+        <v>467.26</v>
+      </c>
+      <c r="D37" t="n">
+        <v>400.51</v>
+      </c>
+      <c r="E37" t="n">
         <v>479.91</v>
       </c>
-      <c r="D37" t="n">
+      <c r="F37" t="n">
+        <v>419.15</v>
+      </c>
+      <c r="G37" t="n">
         <v>467.26</v>
       </c>
-      <c r="E37" t="n">
-        <v>419.15</v>
-      </c>
-      <c r="F37" t="n">
-        <v>479.91</v>
-      </c>
-      <c r="G37" t="n">
-        <v>419.15</v>
-      </c>
       <c r="H37" t="n">
-        <v>479.91</v>
+        <v>400.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30817.33</v>
+        <v>19570.01</v>
       </c>
       <c r="B38" t="n">
-        <v>30061.38</v>
+        <v>21866.31</v>
       </c>
       <c r="C38" t="n">
-        <v>20098.83</v>
+        <v>20477.36</v>
       </c>
       <c r="D38" t="n">
-        <v>32196.26</v>
+        <v>23280.45</v>
       </c>
       <c r="E38" t="n">
-        <v>37698.46</v>
+        <v>18375.12</v>
       </c>
       <c r="F38" t="n">
-        <v>24591.41</v>
+        <v>20719.37</v>
       </c>
       <c r="G38" t="n">
-        <v>39346.58</v>
+        <v>19146.32</v>
       </c>
       <c r="H38" t="n">
-        <v>25255.89</v>
+        <v>21965.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.01613</v>
+        <v>-0.02153</v>
       </c>
       <c r="B39" t="n">
         <v>0.00017</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.02153</v>
+        <v>-0.01613</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01613</v>
+        <v>0.00433</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00017</v>
+        <v>-0.16526</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.02153</v>
+        <v>-0.12478</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00017</v>
+        <v>-0.15796</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.02153</v>
+        <v>-0.10989</v>
       </c>
     </row>
     <row r="40">
@@ -1553,16 +1553,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.01498</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.00332</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0.01025</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.00644</v>
       </c>
     </row>
     <row r="41">
@@ -1593,80 +1593,80 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.01613</v>
+        <v>-0.02153</v>
       </c>
       <c r="B42" t="n">
         <v>0.00017</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02153</v>
+        <v>-0.01613</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01613</v>
+        <v>0.00433</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00017</v>
+        <v>-0.18024</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02153</v>
+        <v>-0.12146</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00017</v>
+        <v>-0.16821</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.02153</v>
+        <v>-0.10345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30528.53</v>
+        <v>19326.7</v>
       </c>
       <c r="B43" t="n">
-        <v>29697.68</v>
+        <v>21502.61</v>
       </c>
       <c r="C43" t="n">
-        <v>19855.52</v>
+        <v>20188.56</v>
       </c>
       <c r="D43" t="n">
-        <v>31907.46</v>
+        <v>22928.27</v>
       </c>
       <c r="E43" t="n">
-        <v>37241.44</v>
+        <v>25716.76</v>
       </c>
       <c r="F43" t="n">
-        <v>24285.68</v>
+        <v>25117.42</v>
       </c>
       <c r="G43" t="n">
-        <v>38889.56</v>
+        <v>25862.22</v>
       </c>
       <c r="H43" t="n">
-        <v>24950.16</v>
+        <v>25507.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.03826</v>
+        <v>-0.04017</v>
       </c>
       <c r="B44" t="n">
         <v>-0.0277</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04017</v>
+        <v>-0.03826</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03826</v>
+        <v>-0.02265</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0277</v>
+        <v>0.04008</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.04017</v>
+        <v>-0.00864</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0277</v>
+        <v>0.02884</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.04017</v>
+        <v>-0.02022</v>
       </c>
     </row>
     <row r="45">
@@ -1683,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.26993</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.18059</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.25189</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.15223</v>
       </c>
     </row>
     <row r="46">
@@ -1709,42 +1709,42 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-0.03778</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.02407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.03547</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.01905</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.03826</v>
+        <v>-0.04017</v>
       </c>
       <c r="B47" t="n">
         <v>-0.0277</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.04017</v>
+        <v>-0.03826</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03826</v>
+        <v>-0.02265</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0277</v>
+        <v>0.27223</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.04017</v>
+        <v>0.14788</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0277</v>
+        <v>0.24526</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04017</v>
+        <v>0.11296</v>
       </c>
     </row>
     <row r="48">
@@ -1761,94 +1761,94 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2999.68</v>
+        <v>1956.47</v>
       </c>
       <c r="B49" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="C49" t="n">
-        <v>2137.93</v>
+        <v>2120.78</v>
       </c>
       <c r="D49" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="E49" t="n">
-        <v>3291.61</v>
+        <v>1734.14</v>
       </c>
       <c r="F49" t="n">
-        <v>2615.81</v>
+        <v>1707.78</v>
       </c>
       <c r="G49" t="n">
-        <v>3435.51</v>
+        <v>2042.57</v>
       </c>
       <c r="H49" t="n">
-        <v>2686.5</v>
+        <v>2008.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17.37</v>
+        <v>10.71</v>
       </c>
       <c r="B50" t="n">
-        <v>18.84</v>
+        <v>13.64</v>
       </c>
       <c r="C50" t="n">
-        <v>11.86</v>
+        <v>12.39</v>
       </c>
       <c r="D50" t="n">
-        <v>19.58</v>
+        <v>16.42</v>
       </c>
       <c r="E50" t="n">
-        <v>23.62</v>
+        <v>14.25</v>
       </c>
       <c r="F50" t="n">
-        <v>13.46</v>
+        <v>15.93</v>
       </c>
       <c r="G50" t="n">
-        <v>26.6</v>
+        <v>15.87</v>
       </c>
       <c r="H50" t="n">
-        <v>14.91</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.71</v>
+        <v>2.29</v>
       </c>
       <c r="B51" t="n">
-        <v>4.03</v>
+        <v>2.92</v>
       </c>
       <c r="C51" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="D51" t="n">
-        <v>4.18</v>
+        <v>3.51</v>
       </c>
       <c r="E51" t="n">
-        <v>5.05</v>
+        <v>3.04</v>
       </c>
       <c r="F51" t="n">
-        <v>2.88</v>
+        <v>3.41</v>
       </c>
       <c r="G51" t="n">
-        <v>5.69</v>
+        <v>3.39</v>
       </c>
       <c r="H51" t="n">
-        <v>3.19</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="52">
@@ -1879,54 +1879,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="B55" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="C55" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="F55" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="H55" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.656</v>
+        <v>0.405</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712</v>
+        <v>0.516</v>
       </c>
       <c r="C56" t="n">
-        <v>0.449</v>
+        <v>0.469</v>
       </c>
       <c r="D56" t="n">
-        <v>0.738</v>
+        <v>0.62</v>
       </c>
       <c r="E56" t="n">
-        <v>0.892</v>
+        <v>0.538</v>
       </c>
       <c r="F56" t="n">
-        <v>0.509</v>
+        <v>0.603</v>
       </c>
       <c r="G56" t="n">
-        <v>1.005</v>
+        <v>0.599</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1995,16 +1995,16 @@
         <v>300</v>
       </c>
       <c r="E59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="G59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="H59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60">
@@ -2021,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64">
@@ -2087,28 +2087,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B67" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C67" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="E67" t="n">
-        <v>-11</v>
+        <v>69</v>
       </c>
       <c r="F67" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G67" t="n">
-        <v>-18</v>
+        <v>53</v>
       </c>
       <c r="H67" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
@@ -2211,16 +2211,16 @@
         <v>300</v>
       </c>
       <c r="E72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="G72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="H72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73">
@@ -2237,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74">
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81">
@@ -2289,276 +2289,276 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.01006</v>
+        <v>0.27492</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.04301</v>
+        <v>0.55906</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="B100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="C100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="D100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="E100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="F100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="G100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
       <c r="H100" t="n">
-        <v>26966.14</v>
+        <v>20931.34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="B101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="C101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="D101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="E101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="F101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="G101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
       <c r="H101" t="n">
-        <v>27131.12</v>
+        <v>16422.54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="B102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="C102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="D102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="E102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="F102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="G102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
       <c r="H102" t="n">
-        <v>3.66</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2525</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="B104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="C104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="D104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="E104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="F104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="G104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
       <c r="H104" t="n">
-        <v>3.678</v>
+        <v>1.944</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2538</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="B106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="C106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="D106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="E106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="F106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="G106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
       <c r="H106" t="n">
-        <v>1.398</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="107">
@@ -2615,262 +2615,262 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H113" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4479.184</v>
+        <v>4055.411</v>
       </c>
       <c r="B114" t="n">
-        <v>3991.814</v>
+        <v>3994.012</v>
       </c>
       <c r="C114" t="n">
-        <v>3358.909</v>
+        <v>4269.014000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>4653.67</v>
+        <v>4198.645</v>
       </c>
       <c r="E114" t="n">
-        <v>4858.693000000001</v>
+        <v>3766.382</v>
       </c>
       <c r="F114" t="n">
-        <v>3980.153</v>
+        <v>3732.114</v>
       </c>
       <c r="G114" t="n">
-        <v>5045.763000000001</v>
+        <v>4167.341</v>
       </c>
       <c r="H114" t="n">
-        <v>4072.05</v>
+        <v>4123.076</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="B115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="C115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="D115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="E115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="F115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="G115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
       <c r="H115" t="n">
-        <v>-3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3823.984</v>
+        <v>3853.811</v>
       </c>
       <c r="B116" t="n">
-        <v>3336.614</v>
+        <v>3792.412</v>
       </c>
       <c r="C116" t="n">
-        <v>2703.709</v>
+        <v>4067.414000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>3998.47</v>
+        <v>3997.045</v>
       </c>
       <c r="E116" t="n">
-        <v>4203.493</v>
+        <v>3564.782</v>
       </c>
       <c r="F116" t="n">
-        <v>3324.953</v>
+        <v>3530.514</v>
       </c>
       <c r="G116" t="n">
-        <v>4390.563</v>
+        <v>3965.741</v>
       </c>
       <c r="H116" t="n">
-        <v>3416.85</v>
+        <v>3921.476</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="B117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="C117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="D117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="E117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="F117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="G117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
       <c r="H117" t="n">
-        <v>579.6</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="B118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="C118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="D118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="E118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="F118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="G118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
       <c r="H118" t="n">
-        <v>-75.59999999999999</v>
+        <v>1310.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="B119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="C119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="D119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="E119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="F119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="G119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
       <c r="H119" t="n">
-        <v>3991.81</v>
+        <v>3994.01</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="B120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="C120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="D120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="E120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="F120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="G120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
       <c r="H120" t="n">
-        <v>3998.47</v>
+        <v>3997.04</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="B121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="C121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="D121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="E121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="F121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="G121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
       <c r="H121" t="n">
-        <v>2624.78</v>
+        <v>1909.24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="B122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="C122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="D122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="E122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="F122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="G122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
       <c r="H122" t="n">
-        <v>3133.9</v>
+        <v>2066.65</v>
       </c>
     </row>
     <row r="123">
@@ -3136,120 +3136,153 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; η = -0.0277
+III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; η = 0</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; η = -0.03826
 III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; η = 0
 VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; η = 0</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; η = -0.0277
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; η = 0</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; η = -0.03826
-III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; η = -0.0277
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01145×185 = 2.12; η = 0.04008
+III ось: x = 125 см; kx = 0.01145×125 = 1.43; η = 0.26993
+VI ось: x = 125+185 см; kx = 0.01145×310 = 3.55; η = -0.03778</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01311×185 = 2.43; η = -0.00864
+III ось: x = 125 см; kx = 0.01311×125 = 1.64; η = 0.18059
+VI ось: x = 125+185 см; kx = 0.01311×310 = 4.06; η = -0.02407</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; η = -0.0277
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01176×185 = 2.18; η = 0.02884
+III ось: x = 125 см; kx = 0.01176×125 = 1.47; η = 0.25189
+VI ось: x = 125+185 см; kx = 0.01176×310 = 3.65; η = -0.03547</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01372×185 = 2.54; η = -0.02022
+III ось: x = 125 см; kx = 0.01372×125 = 1.71; η = 0.15223
+VI ось: x = 125+185 см; kx = 0.01372×310 = 4.25; η = -0.01905</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; µ = 0.00017
+III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; µ = 0.00000</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; µ = -0.01613
 III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; µ = 0.00000
 VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; µ = 0.00000</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; µ = 0.00017
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; µ = 0.00000</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; µ = -0.01613
-III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; µ = 0.00017
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01145×185 = 2.12; µ = -0.16526
+III ось: x = 125+185 см; kx = 0.01145×310 = 3.55; µ = -0.01498
+VI ось: x = 185+125+185 см; kx = 0.01145×495 = 5.67; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01311×185 = 2.43; µ = -0.12478
+III ось: x = 125+185 см; kx = 0.01311×310 = 4.06; µ = 0.00332
+VI ось: x = 185+125+185 см; kx = 0.01311×495 = 6.49; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; µ = 0.00017
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01176×185 = 2.18; µ = -0.15796
+III ось: x = 125+185 см; kx = 0.01176×310 = 3.65; µ = -0.01025
+VI ось: x = 185+125+185 см; kx = 0.01176×495 = 5.82; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
-        </is>
-      </c>
-    </row>
-    <row r="135"/>
+          <t>II ось: x = 185 см; kx = 0.01372×185 = 2.54; µ = -0.10989
+III ось: x = 125+185 см; kx = 0.01372×310 = 4.25; µ = 0.00644
+VI ось: x = 185+125+185 см; kx = 0.01372×495 = 6.79; µ = 0.00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01145×130 = 1.49; η = 0.04008
+ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
+ηIII: x = 125+55 см; kx = 0.01145×180 = 56.43; η = 0.05239
+ηIV: x = 125+185+55; kx = 0.01145×365 = 3.61; η = -0.02097</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01311×130 = 1.70; η = -0.00864
+ηII: x = 55 см; kx = 0.01311×55 = 0.72; η = 0.68623
+ηIII: x = 125+55 см; kx = 0.01311×180 = 56.64; η = -0.00048
+ηIV: x = 125+185+55; kx = 0.01311×365 = 4.13; η = -0.00772</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01176×130 = 1.53; η = 0.02884
+ηII: x = 55 см; kx = 0.01176×55 = 0.65; η = 0.73355
+ηIII: x = 125+55 см; kx = 0.01176×180 = 56.47; η = 0.04038
+ηIV: x = 125+185+55; kx = 0.01176×365 = 3.70; η = -0.01806</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01372×130 = 1.78; η = -0.02022
+ηII: x = 55 см; kx = 0.01372×55 = 0.75; η = 0.66465
+ηIII: x = 125+55 см; kx = 0.01372×180 = 56.72; η = -0.01354
+ηIV: x = 125+185+55; kx = 0.01372×365 = 4.32; η = -0.00445</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ВЛ10</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ВЛ10</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ВЛ10</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ВЛ10</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>8-миосный</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>8-миосный</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>8-миосный</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
         <is>
           <t>8-миосный</t>
         </is>
@@ -540,144 +510,82 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11500</v>
-      </c>
       <c r="D4" t="n">
         <v>11500</v>
       </c>
       <c r="E4" t="n">
         <v>14000</v>
       </c>
-      <c r="F4" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14000</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pcт</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>85</v>
       </c>
-      <c r="B5" t="n">
-        <v>85</v>
-      </c>
-      <c r="C5" t="n">
-        <v>85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85</v>
-      </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>85</v>
-      </c>
-      <c r="G5" t="n">
-        <v>85</v>
-      </c>
-      <c r="H5" t="n">
-        <v>85</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Скорость</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>3160</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3160</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3160</v>
-      </c>
       <c r="D6" t="n">
         <v>3160</v>
       </c>
       <c r="E6" t="n">
         <v>995</v>
       </c>
-      <c r="F6" t="n">
-        <v>995</v>
-      </c>
-      <c r="G6" t="n">
-        <v>995</v>
-      </c>
-      <c r="H6" t="n">
-        <v>995</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>116</v>
-      </c>
-      <c r="B7" t="n">
-        <v>116</v>
-      </c>
-      <c r="C7" t="n">
-        <v>116</v>
-      </c>
       <c r="D7" t="n">
         <v>116</v>
       </c>
       <c r="E7" t="n">
         <v>200</v>
       </c>
-      <c r="F7" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200</v>
-      </c>
-      <c r="H7" t="n">
-        <v>200</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>JestcostRessor</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>125</v>
-      </c>
-      <c r="B8" t="n">
-        <v>125</v>
-      </c>
-      <c r="C8" t="n">
-        <v>125</v>
-      </c>
       <c r="D8" t="n">
         <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
       </c>
-      <c r="F8" t="n">
-        <v>95</v>
-      </c>
-      <c r="G8" t="n">
-        <v>95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>95</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -685,14 +593,20 @@
       <c r="E9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -762,54 +676,31 @@
       <c r="H11" t="n">
         <v>1.37</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.047</v>
-      </c>
       <c r="D12" t="n">
         <v>0.047</v>
       </c>
       <c r="E12" t="n">
         <v>0.067</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.067</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Электровоз</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Электровоз</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Электровоз</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Электровоз</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>НЕТУ</t>
@@ -817,17 +708,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>НЕТУ</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>НЕТУ</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>НЕТУ</t>
+          <t>z_max</t>
         </is>
       </c>
     </row>
@@ -874,29 +755,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17.84</v>
-      </c>
       <c r="D15" t="n">
         <v>17.84</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
-      <c r="F15" t="n">
-        <v>16</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>z_max</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -966,6 +834,11 @@
       <c r="H17" t="n">
         <v>600</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -992,31 +865,20 @@
       <c r="H18" t="n">
         <v>0.01372</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2110,6 +1972,11 @@
       <c r="H67" t="n">
         <v>55</v>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[∆t_р]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2275,6 +2142,66 @@
         <v>495</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Loko_[бкр]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Loko_[бш]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Loko_[бб]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vag_[бкр]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>18</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vag_[бш]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vag_[бб]</t>
+        </is>
+      </c>
+    </row>
     <row r="81">
       <c r="A81" t="n">
         <v>0</v>
@@ -2353,32 +2280,6 @@
         <v>0.55906</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.55906</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.55906</v>
-      </c>
-    </row>
     <row r="100">
       <c r="A100" t="n">
         <v>20931.34</v>
@@ -2586,6 +2487,11 @@
       <c r="H107" t="n">
         <v>2950</v>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Параметр А Першин</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2612,6 +2518,11 @@
       <c r="H108" t="n">
         <v>0.365</v>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Параметр µ Першин</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2638,31 +2549,41 @@
       <c r="H113" t="n">
         <v>60</v>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>[∆t_р_min]Прямая</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4055.411</v>
+        <v>3994.01</v>
       </c>
       <c r="B114" t="n">
-        <v>3994.012</v>
+        <v>3994.01</v>
       </c>
       <c r="C114" t="n">
-        <v>4269.014000000001</v>
+        <v>3994.01</v>
       </c>
       <c r="D114" t="n">
-        <v>4198.645</v>
+        <v>3994.01</v>
       </c>
       <c r="E114" t="n">
-        <v>3766.382</v>
+        <v>3994.01</v>
       </c>
       <c r="F114" t="n">
-        <v>3732.114</v>
+        <v>3994.01</v>
       </c>
       <c r="G114" t="n">
-        <v>4167.341</v>
+        <v>3994.01</v>
       </c>
       <c r="H114" t="n">
-        <v>4123.076</v>
+        <v>3994.01</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>нормальные суммарные напряжения(Прямая)</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -2690,31 +2611,41 @@
       <c r="H115" t="n">
         <v>52</v>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>[∆t_р_min]Кривая</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3853.811</v>
+        <v>3997.04</v>
       </c>
       <c r="B116" t="n">
-        <v>3792.412</v>
+        <v>3997.04</v>
       </c>
       <c r="C116" t="n">
-        <v>4067.414000000001</v>
+        <v>3997.04</v>
       </c>
       <c r="D116" t="n">
-        <v>3997.045</v>
+        <v>3997.04</v>
       </c>
       <c r="E116" t="n">
-        <v>3564.782</v>
+        <v>3997.04</v>
       </c>
       <c r="F116" t="n">
-        <v>3530.514</v>
+        <v>3997.04</v>
       </c>
       <c r="G116" t="n">
-        <v>3965.741</v>
+        <v>3997.04</v>
       </c>
       <c r="H116" t="n">
-        <v>3921.476</v>
+        <v>3997.04</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>нормальные суммарные напряжения(Кривая)</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -2742,6 +2673,11 @@
       <c r="H117" t="n">
         <v>1512</v>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>σ_t(Прямая)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2768,57 +2704,10 @@
       <c r="H118" t="n">
         <v>1310.4</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="D119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="E119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="G119" t="n">
-        <v>3994.01</v>
-      </c>
-      <c r="H119" t="n">
-        <v>3994.01</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3997.04</v>
-      </c>
-      <c r="H120" t="n">
-        <v>3997.04</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>σ_t(Кривая)</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -2846,6 +2735,11 @@
       <c r="H121" t="n">
         <v>1909.24</v>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>σ_кп^зима_ПРямая</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2872,6 +2766,11 @@
       <c r="H122" t="n">
         <v>2066.65</v>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>σ_кп^зима_Кривая</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2898,6 +2797,11 @@
       <c r="H123" t="n">
         <v>3161.93</v>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>критическая температурная сила Pк(Прямая)</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2924,6 +2828,11 @@
       <c r="H124" t="n">
         <v>2016.18</v>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>критическая температурная сила Pк(Кривая)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2950,6 +2859,11 @@
       <c r="H125" t="n">
         <v>322427.13</v>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Pк(Прямая)кгс</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2976,6 +2890,11 @@
       <c r="H126" t="n">
         <v>205593.14</v>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Pк(Кривая)кгс</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3002,6 +2921,11 @@
       <c r="H127" t="n">
         <v>214951.42</v>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[P]Прямая</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3028,6 +2952,11 @@
       <c r="H128" t="n">
         <v>137062.09</v>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[P]Кривая</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3054,6 +2983,11 @@
       <c r="H129" t="n">
         <v>65.98999999999999</v>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3080,6 +3014,11 @@
       <c r="H130" t="n">
         <v>131.98</v>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>F * 2</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3106,6 +3045,11 @@
       <c r="H131" t="n">
         <v>65.15000000000001</v>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>[∆t_у0]</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3132,125 +3076,130 @@
       <c r="H132" t="n">
         <v>41.54</v>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>[∆t_у0]</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; η = -0.0277
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; η = 0</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; η = -0.03826
-III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; η = 0</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
         <is>
           <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
 III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
 VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01145×185 = 2.12; η = 0.04008
-III ось: x = 125 см; kx = 0.01145×125 = 1.43; η = 0.26993
-VI ось: x = 125+185 см; kx = 0.01145×310 = 3.55; η = -0.03778</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01311×185 = 2.43; η = -0.00864
-III ось: x = 125 см; kx = 0.01311×125 = 1.64; η = 0.18059
-VI ось: x = 125+185 см; kx = 0.01311×310 = 4.06; η = -0.02407</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01176×185 = 2.18; η = 0.02884
-III ось: x = 125 см; kx = 0.01176×125 = 1.47; η = 0.25189
-VI ось: x = 125+185 см; kx = 0.01176×310 = 3.65; η = -0.03547</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01372×185 = 2.54; η = -0.02022
-III ось: x = 125 см; kx = 0.01372×125 = 1.71; η = 0.15223
-VI ось: x = 125+185 см; kx = 0.01372×310 = 4.25; η = -0.01905</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01311×300 = 3.93; µ = 0.00017
-III ось: x = 0+300 см; kx = 0.01311×300 = 3.93; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01311×300 = 3.93; µ = 0.00000</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; µ = -0.01613
-III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; µ = 0.00000</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
         <is>
           <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
 III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
 VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01145×185 = 2.12; µ = -0.16526
-III ось: x = 125+185 см; kx = 0.01145×310 = 3.55; µ = -0.01498
-VI ось: x = 185+125+185 см; kx = 0.01145×495 = 5.67; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01311×185 = 2.43; µ = -0.12478
-III ось: x = 125+185 см; kx = 0.01311×310 = 4.06; µ = 0.00332
-VI ось: x = 185+125+185 см; kx = 0.01311×495 = 6.49; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01176×185 = 2.18; µ = -0.15796
-III ось: x = 125+185 см; kx = 0.01176×310 = 3.65; µ = -0.01025
-VI ось: x = 185+125+185 см; kx = 0.01176×495 = 5.82; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01372×185 = 2.54; µ = -0.10989
-III ось: x = 125+185 см; kx = 0.01372×310 = 4.25; µ = 0.00644
-VI ось: x = 185+125+185 см; kx = 0.01372×495 = 6.79; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
+III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="E135" t="inlineStr">
+      <c r="A135" t="inlineStr">
         <is>
           <t>ηI: x = 185 - 55 см; kx = 0.01145×130 = 1.49; η = 0.04008
 ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
@@ -3258,28 +3207,9 @@
 ηIV: x = 125+185+55; kx = 0.01145×365 = 3.61; η = -0.02097</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01311×130 = 1.70; η = -0.00864
-ηII: x = 55 см; kx = 0.01311×55 = 0.72; η = 0.68623
-ηIII: x = 125+55 см; kx = 0.01311×180 = 56.64; η = -0.00048
-ηIV: x = 125+185+55; kx = 0.01311×365 = 4.13; η = -0.00772</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01176×130 = 1.53; η = 0.02884
-ηII: x = 55 см; kx = 0.01176×55 = 0.65; η = 0.73355
-ηIII: x = 125+55 см; kx = 0.01176×180 = 56.47; η = 0.04038
-ηIV: x = 125+185+55; kx = 0.01176×365 = 3.70; η = -0.01806</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01372×130 = 1.78; η = -0.02022
-ηII: x = 55 см; kx = 0.01372×55 = 0.75; η = 0.66465
-ηIII: x = 125+55 см; kx = 0.01372×180 = 56.72; η = -0.01354
-ηIV: x = 125+185+55; kx = 0.01372×365 = 4.32; η = -0.00445</t>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Ekv_gruzi_η_shpala_1</t>
         </is>
       </c>
     </row>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,28 +1117,28 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2707.91</v>
+        <v>2920.29</v>
       </c>
       <c r="B29" t="n">
-        <v>3509.4</v>
+        <v>3784.65</v>
       </c>
       <c r="C29" t="n">
-        <v>3043.25</v>
+        <v>2821.92</v>
       </c>
       <c r="D29" t="n">
-        <v>4052.66</v>
+        <v>3757.92</v>
       </c>
       <c r="E29" t="n">
-        <v>1909.36</v>
+        <v>2059.11</v>
       </c>
       <c r="F29" t="n">
-        <v>2474.5</v>
+        <v>2668.57</v>
       </c>
       <c r="G29" t="n">
-        <v>2145.81</v>
+        <v>1989.75</v>
       </c>
       <c r="H29" t="n">
-        <v>2857.55</v>
+        <v>2649.73</v>
       </c>
     </row>
     <row r="30">
@@ -1195,54 +1195,59 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2719.7</v>
+        <v>2931.23</v>
       </c>
       <c r="B32" t="n">
-        <v>3524.96</v>
+        <v>3799.09</v>
       </c>
       <c r="C32" t="n">
-        <v>3054.47</v>
+        <v>2834.01</v>
       </c>
       <c r="D32" t="n">
-        <v>4068.86</v>
+        <v>3775.39</v>
       </c>
       <c r="E32" t="n">
-        <v>1940.68</v>
+        <v>2088.18</v>
       </c>
       <c r="F32" t="n">
-        <v>2516.7</v>
+        <v>2707.75</v>
       </c>
       <c r="G32" t="n">
-        <v>2175.79</v>
+        <v>2022.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2901.65</v>
+        <v>2697.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19850.99</v>
+        <v>20379.81</v>
       </c>
       <c r="B33" t="n">
-        <v>21864.14</v>
+        <v>22549.47</v>
       </c>
       <c r="C33" t="n">
-        <v>20687.92</v>
+        <v>20136.76</v>
       </c>
       <c r="D33" t="n">
-        <v>23223.89</v>
+        <v>22490.22</v>
       </c>
       <c r="E33" t="n">
-        <v>21252.08</v>
+        <v>21620.83</v>
       </c>
       <c r="F33" t="n">
-        <v>22692.13</v>
+        <v>23169.76</v>
       </c>
       <c r="G33" t="n">
-        <v>21839.86</v>
+        <v>21455.51</v>
       </c>
       <c r="H33" t="n">
-        <v>23654.51</v>
+        <v>23143.46</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>p_max_ver</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1351,28 +1356,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19570.01</v>
+        <v>20098.83</v>
       </c>
       <c r="B38" t="n">
-        <v>21866.31</v>
+        <v>22551.64</v>
       </c>
       <c r="C38" t="n">
-        <v>20477.36</v>
+        <v>19926.2</v>
       </c>
       <c r="D38" t="n">
-        <v>23280.45</v>
+        <v>22546.78</v>
       </c>
       <c r="E38" t="n">
-        <v>18375.12</v>
+        <v>18743.87</v>
       </c>
       <c r="F38" t="n">
-        <v>20719.37</v>
+        <v>21197</v>
       </c>
       <c r="G38" t="n">
-        <v>19146.32</v>
+        <v>18761.97</v>
       </c>
       <c r="H38" t="n">
-        <v>21965.09</v>
+        <v>21454.04</v>
       </c>
     </row>
     <row r="39">
@@ -1481,28 +1486,28 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19326.7</v>
+        <v>19855.52</v>
       </c>
       <c r="B43" t="n">
-        <v>21502.61</v>
+        <v>22187.94</v>
       </c>
       <c r="C43" t="n">
-        <v>20188.56</v>
+        <v>19637.4</v>
       </c>
       <c r="D43" t="n">
-        <v>22928.27</v>
+        <v>22194.6</v>
       </c>
       <c r="E43" t="n">
-        <v>25716.76</v>
+        <v>26085.51</v>
       </c>
       <c r="F43" t="n">
-        <v>25117.42</v>
+        <v>25595.05</v>
       </c>
       <c r="G43" t="n">
-        <v>25862.22</v>
+        <v>25477.87</v>
       </c>
       <c r="H43" t="n">
-        <v>25507.1</v>
+        <v>24996.05</v>
       </c>
     </row>
     <row r="44">
@@ -1634,83 +1639,88 @@
       <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>номер оси n</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1956.47</v>
+        <v>2009.34</v>
       </c>
       <c r="B49" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="C49" t="n">
-        <v>2120.78</v>
+        <v>2063.7</v>
       </c>
       <c r="D49" t="n">
-        <v>2066.65</v>
+        <v>2001.52</v>
       </c>
       <c r="E49" t="n">
-        <v>1734.14</v>
+        <v>1768.94</v>
       </c>
       <c r="F49" t="n">
-        <v>1707.78</v>
+        <v>1747.15</v>
       </c>
       <c r="G49" t="n">
-        <v>2042.57</v>
+        <v>2001.56</v>
       </c>
       <c r="H49" t="n">
-        <v>2008.52</v>
+        <v>1961.79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.71</v>
+        <v>11.86</v>
       </c>
       <c r="B50" t="n">
-        <v>13.64</v>
+        <v>15.18</v>
       </c>
       <c r="C50" t="n">
-        <v>12.39</v>
+        <v>11.17</v>
       </c>
       <c r="D50" t="n">
-        <v>16.42</v>
+        <v>14.73</v>
       </c>
       <c r="E50" t="n">
-        <v>14.25</v>
+        <v>15.59</v>
       </c>
       <c r="F50" t="n">
-        <v>15.93</v>
+        <v>17.51</v>
       </c>
       <c r="G50" t="n">
-        <v>15.87</v>
+        <v>14.5</v>
       </c>
       <c r="H50" t="n">
-        <v>18.26</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.29</v>
+        <v>2.54</v>
       </c>
       <c r="B51" t="n">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="C51" t="n">
-        <v>2.65</v>
+        <v>2.39</v>
       </c>
       <c r="D51" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="E51" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="F51" t="n">
-        <v>3.41</v>
+        <v>3.74</v>
       </c>
       <c r="G51" t="n">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="52">
@@ -1739,108 +1749,154 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.7442800000000001</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.68623</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.73355</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.66465</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.7442800000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.68623</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.73355</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.66465</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Тета от длинны шпалы</t>
+        </is>
+      </c>
+    </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="C55" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="D55" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.11</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.405</v>
+        <v>0.527</v>
       </c>
       <c r="B56" t="n">
-        <v>0.516</v>
+        <v>0.671</v>
       </c>
       <c r="C56" t="n">
-        <v>0.469</v>
+        <v>0.496</v>
       </c>
       <c r="D56" t="n">
-        <v>0.62</v>
+        <v>0.652</v>
       </c>
       <c r="E56" t="n">
-        <v>0.538</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.603</v>
+        <v>0.774</v>
       </c>
       <c r="G56" t="n">
-        <v>0.599</v>
+        <v>0.642</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.735</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>sigma_h2()</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="B57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="C57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="D57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="E57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="F57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="H57" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>А, коэффициент расстояния между шпал</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="C58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="D58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="F58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="G58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="H58" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1868,6 +1924,11 @@
       <c r="H59" t="n">
         <v>185</v>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>l_i[0]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1894,6 +1955,11 @@
       <c r="H60" t="n">
         <v>125</v>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>l_i[1]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1920,57 +1986,98 @@
       <c r="H61" t="n">
         <v>185</v>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>l_i[2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[бз_Вагон]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>55</v>
+      </c>
+      <c r="B67" t="n">
+        <v>57</v>
+      </c>
+      <c r="C67" t="n">
+        <v>52</v>
+      </c>
+      <c r="D67" t="n">
+        <v>55</v>
+      </c>
+      <c r="E67" t="n">
+        <v>67</v>
+      </c>
+      <c r="F67" t="n">
+        <v>69</v>
+      </c>
+      <c r="G67" t="n">
+        <v>55</v>
+      </c>
+      <c r="H67" t="n">
         <v>58</v>
-      </c>
-      <c r="B67" t="n">
-        <v>60</v>
-      </c>
-      <c r="C67" t="n">
-        <v>49</v>
-      </c>
-      <c r="D67" t="n">
-        <v>52</v>
-      </c>
-      <c r="E67" t="n">
-        <v>69</v>
-      </c>
-      <c r="F67" t="n">
-        <v>71</v>
-      </c>
-      <c r="G67" t="n">
-        <v>53</v>
-      </c>
-      <c r="H67" t="n">
-        <v>55</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2227,239 +2334,289 @@
       <c r="H81" t="n">
         <v>125</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>xn</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.27492</v>
+        <v>-0.02405</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27492</v>
+        <v>-0.01006</v>
       </c>
       <c r="C82" t="n">
-        <v>0.27492</v>
+        <v>-0.02108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.27492</v>
+        <v>-0.00636</v>
       </c>
       <c r="E82" t="n">
         <v>0.27492</v>
       </c>
       <c r="F82" t="n">
-        <v>0.27492</v>
+        <v>0.14787</v>
       </c>
       <c r="G82" t="n">
-        <v>0.27492</v>
+        <v>0.24803</v>
       </c>
       <c r="H82" t="n">
-        <v>0.27492</v>
+        <v>0.11076</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>сигма тета 1 шпала</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.55906</v>
+        <v>-0.03714</v>
       </c>
       <c r="B95" t="n">
-        <v>0.55906</v>
+        <v>-0.04301</v>
       </c>
       <c r="C95" t="n">
-        <v>0.55906</v>
+        <v>-0.03974</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55906</v>
+        <v>-0.04142</v>
       </c>
       <c r="E95" t="n">
         <v>0.55906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.55906</v>
+        <v>0.47506</v>
       </c>
       <c r="G95" t="n">
-        <v>0.55906</v>
+        <v>0.54038</v>
       </c>
       <c r="H95" t="n">
-        <v>0.55906</v>
+        <v>0.45179</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>сигма тета 3 шпала</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>20931.34</v>
+        <v>14854.39</v>
       </c>
       <c r="B100" t="n">
-        <v>20931.34</v>
+        <v>15342.82</v>
       </c>
       <c r="C100" t="n">
-        <v>20931.34</v>
+        <v>14496.19</v>
       </c>
       <c r="D100" t="n">
-        <v>20931.34</v>
+        <v>14865.12</v>
       </c>
       <c r="E100" t="n">
-        <v>20931.34</v>
+        <v>20600.74</v>
       </c>
       <c r="F100" t="n">
-        <v>20931.34</v>
+        <v>18324.91</v>
       </c>
       <c r="G100" t="n">
-        <v>20931.34</v>
+        <v>19806.48</v>
       </c>
       <c r="H100" t="n">
-        <v>20931.34</v>
+        <v>17198.81</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>P_II_ekvONE</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16422.54</v>
+        <v>14683.54</v>
       </c>
       <c r="B101" t="n">
-        <v>16422.54</v>
+        <v>14912.77</v>
       </c>
       <c r="C101" t="n">
-        <v>16422.54</v>
+        <v>14252.64</v>
       </c>
       <c r="D101" t="n">
-        <v>16422.54</v>
+        <v>14407.52</v>
       </c>
       <c r="E101" t="n">
-        <v>16422.54</v>
+        <v>25260.75</v>
       </c>
       <c r="F101" t="n">
-        <v>16422.54</v>
+        <v>23690.95</v>
       </c>
       <c r="G101" t="n">
-        <v>16422.54</v>
+        <v>24601.13</v>
       </c>
       <c r="H101" t="n">
-        <v>16422.54</v>
+        <v>22791.83</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>P_II_ekvThree</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="B102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="C102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="D102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="E102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="F102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="G102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="H102" t="n">
-        <v>2.48</v>
+        <v>2.63</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>sigma_b1</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1711</v>
+        <v>0.1631</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>sigma_h1</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="B104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="C104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="D104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="E104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="F104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="G104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
       </c>
       <c r="H104" t="n">
-        <v>1.944</v>
+        <v>3.225</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>sigma_b3</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1341</v>
+        <v>0.2</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>sigma_h3</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="B106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="C106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="D106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="E106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="F106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="G106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
       </c>
       <c r="H106" t="n">
-        <v>0.843</v>
+        <v>1.052</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>∑_h</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -2526,28 +2683,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H113" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -2557,28 +2714,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="B114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="C114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="D114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="E114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="F114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="G114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="H114" t="n">
-        <v>3994.01</v>
+        <v>3996.2</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -2588,28 +2745,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H115" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -2619,28 +2776,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="B116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="C116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="D116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="E116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="F116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="G116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="H116" t="n">
-        <v>3997.04</v>
+        <v>3998.14</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -2650,28 +2807,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="B117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="C117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="D117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="E117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="F117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="G117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="H117" t="n">
-        <v>1512</v>
+        <v>1436.4</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -2681,28 +2838,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="B118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="C118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="D118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="E118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="F118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="G118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="H118" t="n">
-        <v>1310.4</v>
+        <v>1386</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -2712,28 +2869,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="B121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="C121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="D121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="E121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="F121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="G121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="H121" t="n">
-        <v>1909.24</v>
+        <v>1969.08</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -2743,28 +2900,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="B122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="C122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="D122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="E122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="F122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="G122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="H122" t="n">
-        <v>2066.65</v>
+        <v>2009.34</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -2805,28 +2962,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="B124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="C124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="D124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="E124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="F124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="G124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="H124" t="n">
-        <v>2016.18</v>
+        <v>2729.44</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -2867,28 +3024,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="B126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="C126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="D126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="E126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="F126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="G126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="H126" t="n">
-        <v>205593.14</v>
+        <v>278325.42</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -2929,28 +3086,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="B128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="C128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="D128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="E128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="F128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="G128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="H128" t="n">
-        <v>137062.09</v>
+        <v>185550.28</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3022,194 +3179,498 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="B131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="C131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="D131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="E131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="F131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="H131" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[∆t_у0]</t>
+          <t>[∆t_уПрямая]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="B132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="C132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="D132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="E132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="F132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="G132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="H132" t="n">
-        <v>41.54</v>
+        <v>56</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[∆t_у0]</t>
+          <t>[∆t_у_curve]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; η = -0.02265
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Ekv_gruzi_η</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01372×300 = 4.12; µ = 0.00433
-III ось: x = 0+300 см; kx = 0.01372×300 = 4.12; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01372×300 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Ekv_gruzi_µ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01145×130 = 1.49; η = 0.04008
+          <t>ηI: x = 185 - 55 см; kx = 0.01145×130 = 1.49; η = 0.24350
 ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
-ηIII: x = 125+55 см; kx = 0.01145×180 = 56.43; η = 0.05239
-ηIV: x = 125+185+55; kx = 0.01145×365 = 3.61; η = -0.02097</t>
+ηIII: x = 125+55 см; kx = 0.01145×180 = 2.06; η = 0.05239
+ηIV: x = 125+185+55; kx = 0.01145×365 = 4.18; η = -0.02097</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
           <t>Ekv_gruzi_η_shpala_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01145×240 = 2.75; η = -0.03459
+ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
+ηIII: x = 125 - 55 см; kx = 0.01145×70 = 0.80; η = 0.63441
+ηIV: x = 125 + 185-55; kx = 0.01145×255 = 3.49; η = -0.04076</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Ekv_gruzi_η_shpala_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>58</v>
+      </c>
+      <c r="B137" t="n">
+        <v>58</v>
+      </c>
+      <c r="C137" t="n">
+        <v>58</v>
+      </c>
+      <c r="D137" t="n">
+        <v>58</v>
+      </c>
+      <c r="E137" t="n">
+        <v>58</v>
+      </c>
+      <c r="F137" t="n">
+        <v>58</v>
+      </c>
+      <c r="G137" t="n">
+        <v>58</v>
+      </c>
+      <c r="H137" t="n">
+        <v>58</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>t_max_max</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-42</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>t_min_min</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>100</v>
+      </c>
+      <c r="B139" t="n">
+        <v>100</v>
+      </c>
+      <c r="C139" t="n">
+        <v>100</v>
+      </c>
+      <c r="D139" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>100</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="n">
+        <v>100</v>
+      </c>
+      <c r="H139" t="n">
+        <v>100</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Tа</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="B140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="C140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="D140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="E140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="F140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="G140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="H140" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>[T] кривая</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="B141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="C141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="D141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="E141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="G141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="H141" t="n">
+        <v>112.15</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>[T] прямая</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>15</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="n">
+        <v>15</v>
+      </c>
+      <c r="H142" t="n">
+        <v>15</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>t_max_zakr</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13</v>
+      </c>
+      <c r="C143" t="n">
+        <v>13</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13</v>
+      </c>
+      <c r="G143" t="n">
+        <v>13</v>
+      </c>
+      <c r="H143" t="n">
+        <v>13</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>t_max_zakr_curve</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>t_min_zakr</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>t_min_zakr_curve</t>
         </is>
       </c>
     </row>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>ВЛ10</t>
+          <t>2ТЭ116</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-миосный</t>
+          <t>8-осный</t>
         </is>
       </c>
     </row>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>11500</v>
       </c>
       <c r="E4" t="n">
-        <v>14000</v>
+        <v>12400</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>3160</v>
+        <v>2230</v>
       </c>
       <c r="E6" t="n">
         <v>995</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
         <v>200</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -612,57 +612,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="B11" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="D11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E11" t="n">
         <v>1.18</v>
@@ -671,10 +671,10 @@
         <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Электровоз</t>
+          <t>Тепловоз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -715,22 +715,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -756,10 +756,10 @@
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>17.84</v>
+        <v>16.3</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>14.56</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -811,28 +811,28 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B17" t="n">
+        <v>480</v>
+      </c>
+      <c r="C17" t="n">
+        <v>295</v>
+      </c>
+      <c r="D17" t="n">
         <v>500</v>
       </c>
-      <c r="C17" t="n">
-        <v>290</v>
-      </c>
-      <c r="D17" t="n">
-        <v>600</v>
-      </c>
       <c r="E17" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F17" t="n">
+        <v>480</v>
+      </c>
+      <c r="G17" t="n">
+        <v>295</v>
+      </c>
+      <c r="H17" t="n">
         <v>500</v>
-      </c>
-      <c r="G17" t="n">
-        <v>290</v>
-      </c>
-      <c r="H17" t="n">
-        <v>600</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -842,28 +842,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01145</v>
+        <v>0.01</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01311</v>
+        <v>0.01127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01176</v>
+        <v>0.01023</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01372</v>
+        <v>0.01138</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01145</v>
+        <v>0.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01311</v>
+        <v>0.01127</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01176</v>
+        <v>0.01023</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01372</v>
+        <v>0.01138</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -883,28 +883,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="B20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="C20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="D20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="E20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="F20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="G20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="H20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21">
@@ -935,314 +935,314 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="B22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="C22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="D22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="E22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="F22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="G22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="H22" t="n">
-        <v>527</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="B23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="C23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="D23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="E23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="F23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="G23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
       <c r="H23" t="n">
-        <v>2466</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2068.98</v>
+        <v>1776.7</v>
       </c>
       <c r="B25" t="n">
-        <v>2068.98</v>
+        <v>1776.7</v>
       </c>
       <c r="C25" t="n">
-        <v>2068.98</v>
+        <v>1776.7</v>
       </c>
       <c r="D25" t="n">
-        <v>2068.98</v>
+        <v>1776.7</v>
       </c>
       <c r="E25" t="n">
-        <v>3200.5</v>
+        <v>2912.5</v>
       </c>
       <c r="F25" t="n">
-        <v>3200.5</v>
+        <v>2912.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3200.5</v>
+        <v>2912.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3200.5</v>
+        <v>2912.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1551.74</v>
+        <v>1332.53</v>
       </c>
       <c r="B26" t="n">
-        <v>1551.74</v>
+        <v>1332.53</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.74</v>
+        <v>1332.53</v>
       </c>
       <c r="D26" t="n">
-        <v>1551.74</v>
+        <v>1332.53</v>
       </c>
       <c r="E26" t="n">
-        <v>2400.38</v>
+        <v>2184.38</v>
       </c>
       <c r="F26" t="n">
-        <v>2400.38</v>
+        <v>2184.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2400.38</v>
+        <v>2184.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2400.38</v>
+        <v>2184.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13051.74</v>
+        <v>12832.52</v>
       </c>
       <c r="B27" t="n">
-        <v>13051.74</v>
+        <v>12832.52</v>
       </c>
       <c r="C27" t="n">
-        <v>13051.74</v>
+        <v>12832.52</v>
       </c>
       <c r="D27" t="n">
-        <v>13051.74</v>
+        <v>12832.52</v>
       </c>
       <c r="E27" t="n">
-        <v>16400.38</v>
+        <v>14584.38</v>
       </c>
       <c r="F27" t="n">
-        <v>16400.38</v>
+        <v>14584.38</v>
       </c>
       <c r="G27" t="n">
-        <v>16400.38</v>
+        <v>14584.38</v>
       </c>
       <c r="H27" t="n">
-        <v>16400.38</v>
+        <v>14584.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>165.52</v>
+        <v>142.14</v>
       </c>
       <c r="B28" t="n">
-        <v>165.52</v>
+        <v>142.14</v>
       </c>
       <c r="C28" t="n">
-        <v>165.52</v>
+        <v>142.14</v>
       </c>
       <c r="D28" t="n">
-        <v>165.52</v>
+        <v>142.14</v>
       </c>
       <c r="E28" t="n">
-        <v>256.04</v>
+        <v>233</v>
       </c>
       <c r="F28" t="n">
-        <v>256.04</v>
+        <v>233</v>
       </c>
       <c r="G28" t="n">
-        <v>256.04</v>
+        <v>233</v>
       </c>
       <c r="H28" t="n">
-        <v>256.04</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2920.29</v>
+        <v>2019.01</v>
       </c>
       <c r="B29" t="n">
-        <v>3784.65</v>
+        <v>2535.8</v>
       </c>
       <c r="C29" t="n">
-        <v>2821.92</v>
+        <v>1934.8</v>
       </c>
       <c r="D29" t="n">
-        <v>3757.92</v>
+        <v>2388.24</v>
       </c>
       <c r="E29" t="n">
-        <v>2059.11</v>
+        <v>1532.76</v>
       </c>
       <c r="F29" t="n">
-        <v>2668.57</v>
+        <v>1925.08</v>
       </c>
       <c r="G29" t="n">
-        <v>1989.75</v>
+        <v>1468.83</v>
       </c>
       <c r="H29" t="n">
-        <v>2649.73</v>
+        <v>1813.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>119.32</v>
+        <v>104.28</v>
       </c>
       <c r="B30" t="n">
-        <v>133.78</v>
+        <v>122.94</v>
       </c>
       <c r="C30" t="n">
-        <v>120.45</v>
+        <v>106.52</v>
       </c>
       <c r="D30" t="n">
-        <v>139.98</v>
+        <v>124.47</v>
       </c>
       <c r="E30" t="n">
-        <v>92.54000000000001</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>116.09</v>
+        <v>95.05</v>
       </c>
       <c r="G30" t="n">
-        <v>95.81</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>123.57</v>
+        <v>96.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>679.3099999999999</v>
+        <v>807.73</v>
       </c>
       <c r="B31" t="n">
-        <v>1140.96</v>
+        <v>1274.15</v>
       </c>
       <c r="C31" t="n">
-        <v>737.72</v>
+        <v>862.6799999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>1308.28</v>
+        <v>1314.41</v>
       </c>
       <c r="E31" t="n">
-        <v>968.38</v>
+        <v>1151.45</v>
       </c>
       <c r="F31" t="n">
-        <v>1626.47</v>
+        <v>1816.34</v>
       </c>
       <c r="G31" t="n">
-        <v>1051.65</v>
+        <v>1229.78</v>
       </c>
       <c r="H31" t="n">
-        <v>1864.99</v>
+        <v>1873.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2931.23</v>
+        <v>2034.59</v>
       </c>
       <c r="B32" t="n">
-        <v>3799.09</v>
+        <v>2558.52</v>
       </c>
       <c r="C32" t="n">
-        <v>2834.01</v>
+        <v>1952.34</v>
       </c>
       <c r="D32" t="n">
-        <v>3775.39</v>
+        <v>2413.5</v>
       </c>
       <c r="E32" t="n">
-        <v>2088.18</v>
+        <v>1573.42</v>
       </c>
       <c r="F32" t="n">
-        <v>2707.75</v>
+        <v>1983.37</v>
       </c>
       <c r="G32" t="n">
-        <v>2022.05</v>
+        <v>1514.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2697.23</v>
+        <v>1877.72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20379.81</v>
+        <v>17918.99</v>
       </c>
       <c r="B33" t="n">
-        <v>22549.47</v>
+        <v>19228.82</v>
       </c>
       <c r="C33" t="n">
-        <v>20136.76</v>
+        <v>17713.37</v>
       </c>
       <c r="D33" t="n">
-        <v>22490.22</v>
+        <v>18866.27</v>
       </c>
       <c r="E33" t="n">
-        <v>21620.83</v>
+        <v>18517.93</v>
       </c>
       <c r="F33" t="n">
-        <v>23169.76</v>
+        <v>19542.81</v>
       </c>
       <c r="G33" t="n">
-        <v>21455.51</v>
+        <v>18370.38</v>
       </c>
       <c r="H33" t="n">
-        <v>23143.46</v>
+        <v>19278.68</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1252,184 +1252,184 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68.56</v>
+        <v>78.5</v>
       </c>
       <c r="B34" t="n">
-        <v>59.88</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>66.75</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>57.22</v>
+        <v>68.98</v>
       </c>
       <c r="E34" t="n">
-        <v>68.56</v>
+        <v>78.5</v>
       </c>
       <c r="F34" t="n">
-        <v>59.88</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>66.75</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>342.79</v>
+        <v>392.5</v>
       </c>
       <c r="B35" t="n">
-        <v>299.39</v>
+        <v>348.27</v>
       </c>
       <c r="C35" t="n">
-        <v>333.76</v>
+        <v>383.68</v>
       </c>
       <c r="D35" t="n">
-        <v>286.08</v>
+        <v>344.9</v>
       </c>
       <c r="E35" t="n">
-        <v>342.79</v>
+        <v>392.5</v>
       </c>
       <c r="F35" t="n">
-        <v>299.39</v>
+        <v>348.27</v>
       </c>
       <c r="G35" t="n">
-        <v>333.76</v>
+        <v>383.68</v>
       </c>
       <c r="H35" t="n">
-        <v>286.08</v>
+        <v>344.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>205.68</v>
+        <v>235.5</v>
       </c>
       <c r="B36" t="n">
-        <v>179.63</v>
+        <v>208.96</v>
       </c>
       <c r="C36" t="n">
-        <v>200.26</v>
+        <v>230.21</v>
       </c>
       <c r="D36" t="n">
-        <v>171.65</v>
+        <v>206.94</v>
       </c>
       <c r="E36" t="n">
-        <v>205.68</v>
+        <v>235.5</v>
       </c>
       <c r="F36" t="n">
-        <v>179.63</v>
+        <v>208.96</v>
       </c>
       <c r="G36" t="n">
-        <v>200.26</v>
+        <v>230.21</v>
       </c>
       <c r="H36" t="n">
-        <v>171.65</v>
+        <v>206.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>479.91</v>
+        <v>549.5</v>
       </c>
       <c r="B37" t="n">
-        <v>419.15</v>
+        <v>487.58</v>
       </c>
       <c r="C37" t="n">
-        <v>467.26</v>
+        <v>537.15</v>
       </c>
       <c r="D37" t="n">
-        <v>400.51</v>
+        <v>482.86</v>
       </c>
       <c r="E37" t="n">
-        <v>479.91</v>
+        <v>549.5</v>
       </c>
       <c r="F37" t="n">
-        <v>419.15</v>
+        <v>487.58</v>
       </c>
       <c r="G37" t="n">
-        <v>467.26</v>
+        <v>537.15</v>
       </c>
       <c r="H37" t="n">
-        <v>400.51</v>
+        <v>482.86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20098.83</v>
+        <v>15322.33</v>
       </c>
       <c r="B38" t="n">
-        <v>22551.64</v>
+        <v>17122.73</v>
       </c>
       <c r="C38" t="n">
-        <v>19926.2</v>
+        <v>15209.14</v>
       </c>
       <c r="D38" t="n">
-        <v>22546.78</v>
+        <v>16800.25</v>
       </c>
       <c r="E38" t="n">
-        <v>18743.87</v>
+        <v>15122.5</v>
       </c>
       <c r="F38" t="n">
-        <v>21197</v>
+        <v>16887.04</v>
       </c>
       <c r="G38" t="n">
-        <v>18761.97</v>
+        <v>15115.44</v>
       </c>
       <c r="H38" t="n">
-        <v>21454.04</v>
+        <v>16682.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.02153</v>
+        <v>-0.19448</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00017</v>
+        <v>-0.16938</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01613</v>
+        <v>-0.19061</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00433</v>
+        <v>-0.16687</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.16526</v>
+        <v>-0.19448</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.12478</v>
+        <v>-0.16938</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.15796</v>
+        <v>-0.19061</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.10989</v>
+        <v>-0.16687</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>-0.00787</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.00526</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-0.00454</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.00587</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.01498</v>
+        <v>-0.04688</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00332</v>
+        <v>-0.01804</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01025</v>
+        <v>-0.04068</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00644</v>
+        <v>-0.01614</v>
       </c>
     </row>
     <row r="41">
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.00855</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1460,106 +1460,106 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.02153</v>
+        <v>-0.20235</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00017</v>
+        <v>-0.16412</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.01613</v>
+        <v>-0.19515</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00433</v>
+        <v>-0.161</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.18024</v>
+        <v>-0.23281</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.12146</v>
+        <v>-0.18742</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.16821</v>
+        <v>-0.22318</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.10345</v>
+        <v>-0.18301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19855.52</v>
+        <v>20686.19</v>
       </c>
       <c r="B43" t="n">
-        <v>22187.94</v>
+        <v>20437.64</v>
       </c>
       <c r="C43" t="n">
-        <v>19637.4</v>
+        <v>20159.25</v>
       </c>
       <c r="D43" t="n">
-        <v>22194.6</v>
+        <v>19963.96</v>
       </c>
       <c r="E43" t="n">
-        <v>26085.51</v>
+        <v>24744.15</v>
       </c>
       <c r="F43" t="n">
-        <v>25595.05</v>
+        <v>23754.63</v>
       </c>
       <c r="G43" t="n">
-        <v>25477.87</v>
+        <v>24187.65</v>
       </c>
       <c r="H43" t="n">
-        <v>24996.05</v>
+        <v>23341.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.04017</v>
+        <v>0.10782</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0277</v>
+        <v>0.0471</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.03826</v>
+        <v>0.0953</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.02265</v>
+        <v>0.04277</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04008</v>
+        <v>0.10782</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.00864</v>
+        <v>0.0471</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02884</v>
+        <v>0.0953</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.02022</v>
+        <v>0.04277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>0.10782</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.0471</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.0953</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.04277</v>
       </c>
       <c r="E45" t="n">
-        <v>0.26993</v>
+        <v>0.36223</v>
       </c>
       <c r="F45" t="n">
-        <v>0.18059</v>
+        <v>0.28069</v>
       </c>
       <c r="G45" t="n">
-        <v>0.25189</v>
+        <v>0.34675</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15223</v>
+        <v>0.27409</v>
       </c>
     </row>
     <row r="46">
@@ -1576,56 +1576,56 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.03778</v>
+        <v>-0.04314</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.02407</v>
+        <v>-0.039</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.03547</v>
+        <v>-0.04318</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01905</v>
+        <v>-0.03827</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.04017</v>
+        <v>0.21564</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0277</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.03826</v>
+        <v>0.1906</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.02265</v>
+        <v>0.08554</v>
       </c>
       <c r="E47" t="n">
-        <v>0.27223</v>
+        <v>0.42691</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14788</v>
+        <v>0.28879</v>
       </c>
       <c r="G47" t="n">
-        <v>0.24526</v>
+        <v>0.39887</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11296</v>
+        <v>0.27859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -1647,80 +1647,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2009.34</v>
+        <v>1010.47</v>
       </c>
       <c r="B49" t="n">
-        <v>1969.08</v>
+        <v>1001.95</v>
       </c>
       <c r="C49" t="n">
-        <v>2063.7</v>
+        <v>1194.37</v>
       </c>
       <c r="D49" t="n">
-        <v>2001.52</v>
+        <v>1185.99</v>
       </c>
       <c r="E49" t="n">
-        <v>1768.94</v>
+        <v>1069.82</v>
       </c>
       <c r="F49" t="n">
-        <v>1747.15</v>
+        <v>1060.02</v>
       </c>
       <c r="G49" t="n">
-        <v>2001.56</v>
+        <v>1178.15</v>
       </c>
       <c r="H49" t="n">
-        <v>1961.79</v>
+        <v>1168.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.86</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B50" t="n">
-        <v>15.18</v>
+        <v>10.35</v>
       </c>
       <c r="C50" t="n">
-        <v>11.17</v>
+        <v>8.59</v>
       </c>
       <c r="D50" t="n">
-        <v>14.73</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>15.59</v>
+        <v>11.12</v>
       </c>
       <c r="F50" t="n">
-        <v>17.51</v>
+        <v>12.03</v>
       </c>
       <c r="G50" t="n">
-        <v>14.5</v>
+        <v>10.31</v>
       </c>
       <c r="H50" t="n">
-        <v>16.59</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.54</v>
+        <v>1.99</v>
       </c>
       <c r="B51" t="n">
-        <v>3.24</v>
+        <v>2.22</v>
       </c>
       <c r="C51" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E51" t="n">
         <v>2.39</v>
       </c>
-      <c r="D51" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.33</v>
-      </c>
       <c r="F51" t="n">
-        <v>3.74</v>
+        <v>2.58</v>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
       <c r="H51" t="n">
-        <v>3.55</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="52">
@@ -1751,28 +1751,28 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7442800000000001</v>
+        <v>0.79343</v>
       </c>
       <c r="B53" t="n">
-        <v>0.68623</v>
+        <v>0.75048</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73355</v>
+        <v>0.78577</v>
       </c>
       <c r="D53" t="n">
-        <v>0.66465</v>
+        <v>0.74669</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7442800000000001</v>
+        <v>0.79343</v>
       </c>
       <c r="F53" t="n">
-        <v>0.68623</v>
+        <v>0.75048</v>
       </c>
       <c r="G53" t="n">
-        <v>0.73355</v>
+        <v>0.78577</v>
       </c>
       <c r="H53" t="n">
-        <v>0.66465</v>
+        <v>0.74669</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -1782,54 +1782,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F55" t="n">
         <v>1.26</v>
       </c>
-      <c r="B55" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.08</v>
-      </c>
       <c r="G55" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="H55" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.527</v>
+        <v>0.447</v>
       </c>
       <c r="B56" t="n">
-        <v>0.671</v>
+        <v>0.498</v>
       </c>
       <c r="C56" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.496</v>
       </c>
-      <c r="D56" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.642</v>
-      </c>
       <c r="H56" t="n">
-        <v>0.735</v>
+        <v>0.532</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1839,28 +1839,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="B57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="C57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="E57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="F57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="G57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="H57" t="n">
-        <v>0.248</v>
+        <v>0.271</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1870,28 +1870,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="B58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="D58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="E58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="F58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="G58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="H58" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="B59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="C59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E59" t="n">
         <v>185</v>
@@ -1932,16 +1932,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E60" t="n">
         <v>125</v>
@@ -1994,28 +1994,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2025,28 +2025,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2056,28 +2056,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B67" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C67" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D67" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E67" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F67" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G67" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H67" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71">
@@ -2173,16 +2173,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="B72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="C72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E72" t="n">
         <v>185</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="E73" t="n">
         <v>310</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2311,16 +2311,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E81" t="n">
         <v>125</v>
@@ -2342,28 +2342,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.02405</v>
+        <v>0.32988</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01006</v>
+        <v>0.22183</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.02108</v>
+        <v>0.30797</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.00636</v>
+        <v>0.21387</v>
       </c>
       <c r="E82" t="n">
-        <v>0.27492</v>
+        <v>0.42356</v>
       </c>
       <c r="F82" t="n">
-        <v>0.14787</v>
+        <v>0.29127</v>
       </c>
       <c r="G82" t="n">
-        <v>0.24803</v>
+        <v>0.39723</v>
       </c>
       <c r="H82" t="n">
-        <v>0.11076</v>
+        <v>0.28121</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2373,28 +2373,28 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.03714</v>
+        <v>0.32988</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.04301</v>
+        <v>0.22183</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03974</v>
+        <v>0.30797</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.04142</v>
+        <v>0.21387</v>
       </c>
       <c r="E95" t="n">
-        <v>0.55906</v>
+        <v>0.67283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.47506</v>
+        <v>0.5707</v>
       </c>
       <c r="G95" t="n">
-        <v>0.54038</v>
+        <v>0.65139</v>
       </c>
       <c r="H95" t="n">
-        <v>0.45179</v>
+        <v>0.56352</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2404,28 +2404,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>14854.39</v>
+        <v>18450.66</v>
       </c>
       <c r="B100" t="n">
-        <v>15342.82</v>
+        <v>17277.48</v>
       </c>
       <c r="C100" t="n">
-        <v>14496.19</v>
+        <v>17870.67</v>
       </c>
       <c r="D100" t="n">
-        <v>14865.12</v>
+        <v>16831.75</v>
       </c>
       <c r="E100" t="n">
-        <v>20600.74</v>
+        <v>20870.04</v>
       </c>
       <c r="F100" t="n">
-        <v>18324.91</v>
+        <v>18914.48</v>
       </c>
       <c r="G100" t="n">
-        <v>19806.48</v>
+        <v>20228.25</v>
       </c>
       <c r="H100" t="n">
-        <v>17198.81</v>
+        <v>18496.47</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2435,28 +2435,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>14683.54</v>
+        <v>18450.66</v>
       </c>
       <c r="B101" t="n">
-        <v>14912.77</v>
+        <v>17277.48</v>
       </c>
       <c r="C101" t="n">
-        <v>14252.64</v>
+        <v>17870.67</v>
       </c>
       <c r="D101" t="n">
-        <v>14407.52</v>
+        <v>16831.75</v>
       </c>
       <c r="E101" t="n">
-        <v>25260.75</v>
+        <v>24505.49</v>
       </c>
       <c r="F101" t="n">
-        <v>23690.95</v>
+        <v>22989.79</v>
       </c>
       <c r="G101" t="n">
-        <v>24601.13</v>
+        <v>23935.01</v>
       </c>
       <c r="H101" t="n">
-        <v>22791.83</v>
+        <v>22613.79</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2466,28 +2466,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="B102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="C102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="D102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="E102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="F102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="G102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="H102" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2497,28 +2497,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1631</v>
+        <v>0.1362</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2528,28 +2528,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="B104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="C104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="D104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="E104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="F104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="G104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="H104" t="n">
-        <v>3.225</v>
+        <v>2.362</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2559,28 +2559,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2590,28 +2590,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="B106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="C106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="D106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="E106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="F106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="G106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="H106" t="n">
-        <v>1.052</v>
+        <v>0.832</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2621,28 +2621,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="B107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>2950</v>
+        <v>3380</v>
       </c>
       <c r="D107" t="n">
-        <v>2950</v>
+        <v>3380</v>
       </c>
       <c r="E107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="F107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="G107" t="n">
-        <v>2950</v>
+        <v>3380</v>
       </c>
       <c r="H107" t="n">
-        <v>2950</v>
+        <v>3380</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2652,28 +2652,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="D108" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="G108" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="H108" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -2683,28 +2683,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="H113" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -2714,28 +2714,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="B114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="C114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="D114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="E114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="F114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="G114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="H114" t="n">
-        <v>3996.2</v>
+        <v>4011.57</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -2745,28 +2745,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H115" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -2776,28 +2776,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="B116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="C116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="D116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="E116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="F116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="G116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="H116" t="n">
-        <v>3998.14</v>
+        <v>4011.39</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -2807,28 +2807,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="B117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="C117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="D117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="E117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="F117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="G117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="H117" t="n">
-        <v>1436.4</v>
+        <v>2620.8</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -2838,28 +2838,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="B118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="C118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="D118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="E118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="F118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="G118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="H118" t="n">
-        <v>1386</v>
+        <v>2469.6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -2869,28 +2869,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="B121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="C121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="D121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="E121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="F121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="G121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="H121" t="n">
-        <v>1969.08</v>
+        <v>1069.82</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -2900,28 +2900,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="B122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="C122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="D122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="E122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="F122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="G122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="H122" t="n">
-        <v>2009.34</v>
+        <v>1185.99</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -2931,28 +2931,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="B123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="C123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="D123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="E123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="F123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="G123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="H123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -2962,28 +2962,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="B124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="C124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="D124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="E124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="F124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="G124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="H124" t="n">
-        <v>2729.44</v>
+        <v>2322.78</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -2993,28 +2993,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="B125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="C125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="D125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="E125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="F125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="G125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="H125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3024,28 +3024,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="B126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="C126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="D126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="E126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="F126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="G126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="H126" t="n">
-        <v>278325.42</v>
+        <v>236857.64</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3055,28 +3055,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="B127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="C127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="D127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="E127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="F127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="G127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="H127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3086,28 +3086,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="B128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="C128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="D128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="E128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="F128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="G128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="H128" t="n">
-        <v>185550.28</v>
+        <v>157905.09</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3117,28 +3117,28 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="B129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="C129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="D129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="E129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="F129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="G129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="H129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -3148,28 +3148,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="B130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="C130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="D130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="E130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="F130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="G130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="H130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -3179,28 +3179,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -3210,28 +3210,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H132" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3242,58 +3242,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
+III ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
+VI ось: x = 185+0 см; kx = 0.01×185 = 1.85; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
+III ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
+VI ось: x = 185+0 см; kx = 0.01127×185 = 2.08; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
+III ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
+VI ось: x = 185+0 см; kx = 0.01023×185 = 1.89; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
+III ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
+VI ось: x = 185+0 см; kx = 0.01138×185 = 2.11; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
+III ось: x = 125 см; kx = 0.01×125 = 1.25; η = 0.36223
+VI ось: x = 125+185 см; kx = 0.01×310 = 3.10; η = -0.04314</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
+III ось: x = 125 см; kx = 0.01127×125 = 1.41; η = 0.28069
+VI ось: x = 125+185 см; kx = 0.01127×310 = 3.49; η = -0.039</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
+III ось: x = 125 см; kx = 0.01023×125 = 1.28; η = 0.34675
+VI ось: x = 125+185 см; kx = 0.01023×310 = 3.17; η = -0.04318</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.04017
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
+III ось: x = 125 см; kx = 0.01138×125 = 1.42; η = 0.27409
+VI ось: x = 125+185 см; kx = 0.01138×310 = 3.53; η = -0.03827</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3305,58 +3305,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01×185 = 1.85; µ = -0.19448
+III ось: x = 185+185 см; kx = 0.01×370 = 3.70; µ = -0.00787
+VI ось: x = 185+185+0 см; kx = 0.01×370 = 3.70; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01127×185 = 2.08; µ = -0.16938
+III ось: x = 185+185 см; kx = 0.01127×370 = 4.17; µ = 0.00526
+VI ось: x = 185+185+0 см; kx = 0.01127×370 = 4.17; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01023×185 = 1.89; µ = -0.19061
+III ось: x = 185+185 см; kx = 0.01023×370 = 3.79; µ = -0.00454
+VI ось: x = 185+185+0 см; kx = 0.01023×370 = 3.79; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01138×185 = 2.11; µ = -0.16687
+III ось: x = 185+185 см; kx = 0.01138×370 = 4.21; µ = 0.00587
+VI ось: x = 185+185+0 см; kx = 0.01138×370 = 4.21; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01×185 = 1.85; µ = -0.19448
+III ось: x = 125+185 см; kx = 0.01×310 = 3.10; µ = -0.04688
+VI ось: x = 185+125+185 см; kx = 0.01×495 = 4.95; µ = 0.00855</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01127×185 = 2.08; µ = -0.16938
+III ось: x = 125+185 см; kx = 0.01127×310 = 3.49; µ = -0.01804
+VI ось: x = 185+125+185 см; kx = 0.01127×495 = 5.58; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01023×185 = 1.89; µ = -0.19061
+III ось: x = 125+185 см; kx = 0.01023×310 = 3.17; µ = -0.04068
+VI ось: x = 185+125+185 см; kx = 0.01023×495 = 5.06; µ = 0.00811</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02153
-III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01138×185 = 2.11; µ = -0.16687
+III ось: x = 125+185 см; kx = 0.01138×310 = 3.53; µ = -0.01614
+VI ось: x = 185+125+185 см; kx = 0.01138×495 = 5.63; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3368,10 +3368,66 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01145×130 = 1.49; η = 0.24350
-ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
-ηIII: x = 125+55 см; kx = 0.01145×180 = 2.06; η = 0.05239
-ηIV: x = 125+185+55; kx = 0.01145×365 = 4.18; η = -0.02097</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
+ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3383,10 +3439,66 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01145×240 = 2.75; η = -0.03459
-ηII: x = 55 см; kx = 0.01145×55 = 0.63; η = 0.74428
-ηIII: x = 125 - 55 см; kx = 0.01145×70 = 0.80; η = 0.63441
-ηIV: x = 125 + 185-55; kx = 0.01145×255 = 3.49; η = -0.04076</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
+ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
+ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
+ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3397,28 +3509,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H137" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3428,28 +3540,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="B138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="C138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="D138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="E138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="F138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="G138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="H138" t="n">
-        <v>-42</v>
+        <v>-51</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3459,28 +3571,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H139" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -3490,28 +3602,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="B140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="C140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="D140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="E140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="F140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="G140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="H140" t="n">
-        <v>101.24</v>
+        <v>126.25</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3521,28 +3633,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="B141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="C141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="D141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="E141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="F141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="G141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="H141" t="n">
-        <v>112.15</v>
+        <v>153.33</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3552,28 +3664,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H142" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -3583,28 +3695,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H143" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -3614,28 +3726,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="B144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="C144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="G144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H144" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -3645,28 +3757,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>2ТЭ116</t>
+          <t>2ТЭ10</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>6-осный</t>
         </is>
       </c>
     </row>
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="E4" t="n">
-        <v>12400</v>
+        <v>14500</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2230</v>
+        <v>2150</v>
       </c>
       <c r="E6" t="n">
-        <v>995</v>
+        <v>1070</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -612,69 +612,69 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>P50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="C11" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -715,51 +715,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>210+210</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>210+210</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>210+210</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>210+210</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>16.3</v>
+        <v>13.68</v>
       </c>
       <c r="E15" t="n">
-        <v>14.56</v>
+        <v>17.56</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -770,69 +770,69 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Дерево</t>
+          <t>Железобетон</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="n">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="C17" t="n">
-        <v>295</v>
+        <v>1100</v>
       </c>
       <c r="D17" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E17" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="F17" t="n">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="G17" t="n">
-        <v>295</v>
+        <v>1100</v>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -842,28 +842,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01127</v>
+        <v>0.01664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01023</v>
+        <v>0.01638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01138</v>
+        <v>0.01695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01127</v>
+        <v>0.01664</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01023</v>
+        <v>0.01638</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01138</v>
+        <v>0.01695</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -883,366 +883,366 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="B20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="C20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="D20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="E20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="F20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="G20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="H20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="C21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="D21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="E21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="F21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="G21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="H21" t="n">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="B22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="C22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="D22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="E22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="F22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="G22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="H22" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="B23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="C23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="D23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="E23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="F23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="G23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="H23" t="n">
-        <v>2853</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1776.7</v>
+        <v>1764.72</v>
       </c>
       <c r="B25" t="n">
-        <v>1776.7</v>
+        <v>1764.72</v>
       </c>
       <c r="C25" t="n">
-        <v>1776.7</v>
+        <v>1764.72</v>
       </c>
       <c r="D25" t="n">
-        <v>1776.7</v>
+        <v>1764.72</v>
       </c>
       <c r="E25" t="n">
-        <v>2912.5</v>
+        <v>3424.2</v>
       </c>
       <c r="F25" t="n">
-        <v>2912.5</v>
+        <v>3424.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2912.5</v>
+        <v>3424.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2912.5</v>
+        <v>3424.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1332.53</v>
+        <v>1323.54</v>
       </c>
       <c r="B26" t="n">
-        <v>1332.53</v>
+        <v>1323.54</v>
       </c>
       <c r="C26" t="n">
-        <v>1332.53</v>
+        <v>1323.54</v>
       </c>
       <c r="D26" t="n">
-        <v>1332.53</v>
+        <v>1323.54</v>
       </c>
       <c r="E26" t="n">
-        <v>2184.38</v>
+        <v>2568.15</v>
       </c>
       <c r="F26" t="n">
-        <v>2184.38</v>
+        <v>2568.15</v>
       </c>
       <c r="G26" t="n">
-        <v>2184.38</v>
+        <v>2568.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2184.38</v>
+        <v>2568.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12832.52</v>
+        <v>12723.54</v>
       </c>
       <c r="B27" t="n">
-        <v>12832.52</v>
+        <v>12723.54</v>
       </c>
       <c r="C27" t="n">
-        <v>12832.52</v>
+        <v>12723.54</v>
       </c>
       <c r="D27" t="n">
-        <v>12832.52</v>
+        <v>12723.54</v>
       </c>
       <c r="E27" t="n">
-        <v>14584.38</v>
+        <v>17068.15</v>
       </c>
       <c r="F27" t="n">
-        <v>14584.38</v>
+        <v>17068.15</v>
       </c>
       <c r="G27" t="n">
-        <v>14584.38</v>
+        <v>17068.15</v>
       </c>
       <c r="H27" t="n">
-        <v>14584.38</v>
+        <v>17068.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>142.14</v>
+        <v>141.18</v>
       </c>
       <c r="B28" t="n">
-        <v>142.14</v>
+        <v>141.18</v>
       </c>
       <c r="C28" t="n">
-        <v>142.14</v>
+        <v>141.18</v>
       </c>
       <c r="D28" t="n">
-        <v>142.14</v>
+        <v>141.18</v>
       </c>
       <c r="E28" t="n">
-        <v>233</v>
+        <v>273.94</v>
       </c>
       <c r="F28" t="n">
-        <v>233</v>
+        <v>273.94</v>
       </c>
       <c r="G28" t="n">
-        <v>233</v>
+        <v>273.94</v>
       </c>
       <c r="H28" t="n">
-        <v>233</v>
+        <v>273.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2019.01</v>
+        <v>1168.74</v>
       </c>
       <c r="B29" t="n">
-        <v>2535.8</v>
+        <v>1306.69</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.8</v>
+        <v>1123.38</v>
       </c>
       <c r="D29" t="n">
-        <v>2388.24</v>
+        <v>1245.85</v>
       </c>
       <c r="E29" t="n">
-        <v>1532.76</v>
+        <v>1106.04</v>
       </c>
       <c r="F29" t="n">
-        <v>1925.08</v>
+        <v>1236.59</v>
       </c>
       <c r="G29" t="n">
-        <v>1468.83</v>
+        <v>1063.11</v>
       </c>
       <c r="H29" t="n">
-        <v>1813.06</v>
+        <v>1179.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104.28</v>
+        <v>168.95</v>
       </c>
       <c r="B30" t="n">
-        <v>122.94</v>
+        <v>186.55</v>
       </c>
       <c r="C30" t="n">
-        <v>106.52</v>
+        <v>174.37</v>
       </c>
       <c r="D30" t="n">
-        <v>124.47</v>
+        <v>191.3</v>
       </c>
       <c r="E30" t="n">
-        <v>77.54000000000001</v>
+        <v>141.19</v>
       </c>
       <c r="F30" t="n">
-        <v>95.05</v>
+        <v>156.93</v>
       </c>
       <c r="G30" t="n">
-        <v>79.79000000000001</v>
+        <v>146.05</v>
       </c>
       <c r="H30" t="n">
-        <v>96.42</v>
+        <v>161.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>807.73</v>
+        <v>1740.2</v>
       </c>
       <c r="B31" t="n">
-        <v>1274.15</v>
+        <v>2175.26</v>
       </c>
       <c r="C31" t="n">
-        <v>862.6799999999999</v>
+        <v>1869.82</v>
       </c>
       <c r="D31" t="n">
-        <v>1314.41</v>
+        <v>2299.74</v>
       </c>
       <c r="E31" t="n">
-        <v>1151.45</v>
+        <v>2480.72</v>
       </c>
       <c r="F31" t="n">
-        <v>1816.34</v>
+        <v>3100.9</v>
       </c>
       <c r="G31" t="n">
-        <v>1229.78</v>
+        <v>2665.48</v>
       </c>
       <c r="H31" t="n">
-        <v>1873.73</v>
+        <v>3278.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2034.59</v>
+        <v>1250.77</v>
       </c>
       <c r="B32" t="n">
-        <v>2558.52</v>
+        <v>1413.16</v>
       </c>
       <c r="C32" t="n">
-        <v>1952.34</v>
+        <v>1218.86</v>
       </c>
       <c r="D32" t="n">
-        <v>2413.5</v>
+        <v>1367.95</v>
       </c>
       <c r="E32" t="n">
-        <v>1573.42</v>
+        <v>1274.76</v>
       </c>
       <c r="F32" t="n">
-        <v>1983.37</v>
+        <v>1452.02</v>
       </c>
       <c r="G32" t="n">
-        <v>1514.4</v>
+        <v>1257.28</v>
       </c>
       <c r="H32" t="n">
-        <v>1877.72</v>
+        <v>1423.78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17918.99</v>
+        <v>15850.47</v>
       </c>
       <c r="B33" t="n">
-        <v>19228.82</v>
+        <v>16256.44</v>
       </c>
       <c r="C33" t="n">
-        <v>17713.37</v>
+        <v>15770.69</v>
       </c>
       <c r="D33" t="n">
-        <v>18866.27</v>
+        <v>16143.42</v>
       </c>
       <c r="E33" t="n">
-        <v>18517.93</v>
+        <v>20255.05</v>
       </c>
       <c r="F33" t="n">
-        <v>19542.81</v>
+        <v>20698.2</v>
       </c>
       <c r="G33" t="n">
-        <v>18370.38</v>
+        <v>20211.35</v>
       </c>
       <c r="H33" t="n">
-        <v>19278.68</v>
+        <v>20627.6</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1252,184 +1252,184 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>78.5</v>
+        <v>49.06</v>
       </c>
       <c r="B34" t="n">
-        <v>69.65000000000001</v>
+        <v>47.18</v>
       </c>
       <c r="C34" t="n">
-        <v>76.73999999999999</v>
+        <v>47.92</v>
       </c>
       <c r="D34" t="n">
-        <v>68.98</v>
+        <v>46.31</v>
       </c>
       <c r="E34" t="n">
-        <v>78.5</v>
+        <v>49.06</v>
       </c>
       <c r="F34" t="n">
-        <v>69.65000000000001</v>
+        <v>47.18</v>
       </c>
       <c r="G34" t="n">
-        <v>76.73999999999999</v>
+        <v>47.92</v>
       </c>
       <c r="H34" t="n">
-        <v>68.98</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>392.5</v>
+        <v>245.31</v>
       </c>
       <c r="B35" t="n">
-        <v>348.27</v>
+        <v>235.88</v>
       </c>
       <c r="C35" t="n">
-        <v>383.68</v>
+        <v>239.62</v>
       </c>
       <c r="D35" t="n">
-        <v>344.9</v>
+        <v>231.56</v>
       </c>
       <c r="E35" t="n">
-        <v>392.5</v>
+        <v>245.31</v>
       </c>
       <c r="F35" t="n">
-        <v>348.27</v>
+        <v>235.88</v>
       </c>
       <c r="G35" t="n">
-        <v>383.68</v>
+        <v>239.62</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9</v>
+        <v>231.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>235.5</v>
+        <v>147.19</v>
       </c>
       <c r="B36" t="n">
-        <v>208.96</v>
+        <v>141.53</v>
       </c>
       <c r="C36" t="n">
-        <v>230.21</v>
+        <v>143.77</v>
       </c>
       <c r="D36" t="n">
-        <v>206.94</v>
+        <v>138.94</v>
       </c>
       <c r="E36" t="n">
-        <v>235.5</v>
+        <v>147.19</v>
       </c>
       <c r="F36" t="n">
-        <v>208.96</v>
+        <v>141.53</v>
       </c>
       <c r="G36" t="n">
-        <v>230.21</v>
+        <v>143.77</v>
       </c>
       <c r="H36" t="n">
-        <v>206.94</v>
+        <v>138.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>549.5</v>
+        <v>343.44</v>
       </c>
       <c r="B37" t="n">
-        <v>487.58</v>
+        <v>330.23</v>
       </c>
       <c r="C37" t="n">
-        <v>537.15</v>
+        <v>335.47</v>
       </c>
       <c r="D37" t="n">
-        <v>482.86</v>
+        <v>324.19</v>
       </c>
       <c r="E37" t="n">
-        <v>549.5</v>
+        <v>343.44</v>
       </c>
       <c r="F37" t="n">
-        <v>487.58</v>
+        <v>330.23</v>
       </c>
       <c r="G37" t="n">
-        <v>537.15</v>
+        <v>335.47</v>
       </c>
       <c r="H37" t="n">
-        <v>482.86</v>
+        <v>324.19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15322.33</v>
+        <v>15522.19</v>
       </c>
       <c r="B38" t="n">
-        <v>17122.73</v>
+        <v>16028.69</v>
       </c>
       <c r="C38" t="n">
-        <v>15209.14</v>
+        <v>15504.01</v>
       </c>
       <c r="D38" t="n">
-        <v>16800.25</v>
+        <v>15958.74</v>
       </c>
       <c r="E38" t="n">
-        <v>15122.5</v>
+        <v>19018.21</v>
       </c>
       <c r="F38" t="n">
-        <v>16887.04</v>
+        <v>19651.01</v>
       </c>
       <c r="G38" t="n">
-        <v>15115.44</v>
+        <v>19088.92</v>
       </c>
       <c r="H38" t="n">
-        <v>16682.65</v>
+        <v>19666.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.19448</v>
+        <v>-0.02638</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.16938</v>
+        <v>-0.018</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.19061</v>
+        <v>-0.02123</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.16687</v>
+        <v>-0.01446</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.19448</v>
+        <v>-0.07767</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.16938</v>
+        <v>-0.06531000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.19061</v>
+        <v>-0.07020999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.16687</v>
+        <v>-0.05969</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.00787</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00526</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.00454</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00587</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.04688</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01804</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.04068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.01614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.008109999999999999</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1460,106 +1460,106 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.20235</v>
+        <v>-0.02638</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.16412</v>
+        <v>-0.018</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.19515</v>
+        <v>-0.02123</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.161</v>
+        <v>-0.01446</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.23281</v>
+        <v>-0.07767</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.18742</v>
+        <v>-0.06531000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.22318</v>
+        <v>-0.07020999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.18301</v>
+        <v>-0.05969</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20686.19</v>
+        <v>15343.56</v>
       </c>
       <c r="B43" t="n">
-        <v>20437.64</v>
+        <v>15776.89</v>
       </c>
       <c r="C43" t="n">
-        <v>20159.25</v>
+        <v>15278.93</v>
       </c>
       <c r="D43" t="n">
-        <v>19963.96</v>
+        <v>15680.16</v>
       </c>
       <c r="E43" t="n">
-        <v>24744.15</v>
+        <v>19633.77</v>
       </c>
       <c r="F43" t="n">
-        <v>23754.63</v>
+        <v>20028.62</v>
       </c>
       <c r="G43" t="n">
-        <v>24187.65</v>
+        <v>19558.83</v>
       </c>
       <c r="H43" t="n">
-        <v>23341.74</v>
+        <v>19942.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.10782</v>
+        <v>-0.04144</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0471</v>
+        <v>-0.03899</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0953</v>
+        <v>-0.04008</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04277</v>
+        <v>-0.03755</v>
       </c>
       <c r="E44" t="n">
-        <v>0.10782</v>
+        <v>-0.03693</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0471</v>
+        <v>-0.04057</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0953</v>
+        <v>-0.0393</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04277</v>
+        <v>-0.04172</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.10782</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0471</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0953</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04277</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.36223</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.28069</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.34675</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.27409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1576,68 +1576,68 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.04314</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.039</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.03827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.21564</v>
+        <v>-0.04144</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09420000000000001</v>
+        <v>-0.03899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1906</v>
+        <v>-0.04008</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08554</v>
+        <v>-0.03755</v>
       </c>
       <c r="E47" t="n">
-        <v>0.42691</v>
+        <v>-0.03693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.28879</v>
+        <v>-0.04057</v>
       </c>
       <c r="G47" t="n">
-        <v>0.39887</v>
+        <v>-0.0393</v>
       </c>
       <c r="H47" t="n">
-        <v>0.27859</v>
+        <v>-0.04172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1647,132 +1647,132 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1010.47</v>
+        <v>1003.9</v>
       </c>
       <c r="B49" t="n">
-        <v>1001.95</v>
+        <v>996.78</v>
       </c>
       <c r="C49" t="n">
-        <v>1194.37</v>
+        <v>1126.81</v>
       </c>
       <c r="D49" t="n">
-        <v>1185.99</v>
+        <v>1120.86</v>
       </c>
       <c r="E49" t="n">
-        <v>1069.82</v>
+        <v>1230</v>
       </c>
       <c r="F49" t="n">
-        <v>1060.02</v>
+        <v>1222.05</v>
       </c>
       <c r="G49" t="n">
-        <v>1178.15</v>
+        <v>1536.76</v>
       </c>
       <c r="H49" t="n">
-        <v>1168.9</v>
+        <v>1530.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.300000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="B50" t="n">
-        <v>10.35</v>
+        <v>13.94</v>
       </c>
       <c r="C50" t="n">
-        <v>8.59</v>
+        <v>12.32</v>
       </c>
       <c r="D50" t="n">
-        <v>9.470000000000001</v>
+        <v>13.08</v>
       </c>
       <c r="E50" t="n">
-        <v>11.12</v>
+        <v>16.68</v>
       </c>
       <c r="F50" t="n">
-        <v>12.03</v>
+        <v>17.69</v>
       </c>
       <c r="G50" t="n">
-        <v>10.31</v>
+        <v>15.77</v>
       </c>
       <c r="H50" t="n">
-        <v>11.07</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="B51" t="n">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="C51" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="D51" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="E51" t="n">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="F51" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="G51" t="n">
-        <v>2.21</v>
+        <v>2.64</v>
       </c>
       <c r="H51" t="n">
-        <v>2.37</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.79343</v>
+        <v>0.58397</v>
       </c>
       <c r="B53" t="n">
-        <v>0.75048</v>
+        <v>0.56154</v>
       </c>
       <c r="C53" t="n">
-        <v>0.78577</v>
+        <v>0.57063</v>
       </c>
       <c r="D53" t="n">
-        <v>0.74669</v>
+        <v>0.55074</v>
       </c>
       <c r="E53" t="n">
-        <v>0.79343</v>
+        <v>0.58397</v>
       </c>
       <c r="F53" t="n">
-        <v>0.75048</v>
+        <v>0.56154</v>
       </c>
       <c r="G53" t="n">
-        <v>0.78577</v>
+        <v>0.57063</v>
       </c>
       <c r="H53" t="n">
-        <v>0.74669</v>
+        <v>0.55074</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -1782,54 +1782,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="B55" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="C55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="D55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="E55" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="F55" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="G55" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H55" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.447</v>
+        <v>0.424</v>
       </c>
       <c r="B56" t="n">
-        <v>0.498</v>
+        <v>0.453</v>
       </c>
       <c r="C56" t="n">
-        <v>0.413</v>
+        <v>0.401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.456</v>
+        <v>0.426</v>
       </c>
       <c r="E56" t="n">
-        <v>0.536</v>
+        <v>0.542</v>
       </c>
       <c r="F56" t="n">
-        <v>0.579</v>
+        <v>0.575</v>
       </c>
       <c r="G56" t="n">
-        <v>0.496</v>
+        <v>0.513</v>
       </c>
       <c r="H56" t="n">
-        <v>0.532</v>
+        <v>0.542</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1839,28 +1839,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="B57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="C57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="D57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="E57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="F57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="G57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="H57" t="n">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1870,28 +1870,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="D58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="E58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="F58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="G58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="H58" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1901,28 +1901,28 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B59" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C59" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D59" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -1932,28 +1932,28 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B60" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C60" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D60" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -1975,16 +1975,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2025,28 +2025,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="C64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="E64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="F64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="G64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="H64" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2062,22 +2062,22 @@
         <v>107</v>
       </c>
       <c r="C67" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F67" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G67" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H67" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2173,54 +2173,54 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B72" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C72" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D72" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B73" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C73" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D73" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="E73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="H73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74">
@@ -2237,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2311,28 +2311,28 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="B81" t="n">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="C81" t="n">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="D81" t="n">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="E81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="F81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="G81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="H81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2342,28 +2342,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.32988</v>
+        <v>-0.01878</v>
       </c>
       <c r="B82" t="n">
-        <v>0.22183</v>
+        <v>-0.01488</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30797</v>
+        <v>-0.01642</v>
       </c>
       <c r="D82" t="n">
-        <v>0.21387</v>
+        <v>-0.01313</v>
       </c>
       <c r="E82" t="n">
-        <v>0.42356</v>
+        <v>-0.03279</v>
       </c>
       <c r="F82" t="n">
-        <v>0.29127</v>
+        <v>-0.02905</v>
       </c>
       <c r="G82" t="n">
-        <v>0.39723</v>
+        <v>-0.03058</v>
       </c>
       <c r="H82" t="n">
-        <v>0.28121</v>
+        <v>-0.02721</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2373,28 +2373,28 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.32988</v>
+        <v>-0.03401</v>
       </c>
       <c r="B95" t="n">
-        <v>0.22183</v>
+        <v>-0.03895</v>
       </c>
       <c r="C95" t="n">
-        <v>0.30797</v>
+        <v>-0.03716</v>
       </c>
       <c r="D95" t="n">
-        <v>0.21387</v>
+        <v>-0.04075</v>
       </c>
       <c r="E95" t="n">
-        <v>0.67283</v>
+        <v>0.05301</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5707</v>
+        <v>0.0369</v>
       </c>
       <c r="G95" t="n">
-        <v>0.65139</v>
+        <v>0.04315</v>
       </c>
       <c r="H95" t="n">
-        <v>0.56352</v>
+        <v>0.02992</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2404,28 +2404,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>18450.66</v>
+        <v>9017.25</v>
       </c>
       <c r="B100" t="n">
-        <v>17277.48</v>
+        <v>8939.32</v>
       </c>
       <c r="C100" t="n">
-        <v>17870.67</v>
+        <v>8790.309999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>16831.75</v>
+        <v>8723.77</v>
       </c>
       <c r="E100" t="n">
-        <v>20870.04</v>
+        <v>11268.68</v>
       </c>
       <c r="F100" t="n">
-        <v>18914.48</v>
+        <v>11127.04</v>
       </c>
       <c r="G100" t="n">
-        <v>20228.25</v>
+        <v>11011.26</v>
       </c>
       <c r="H100" t="n">
-        <v>18496.47</v>
+        <v>10896.02</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2435,28 +2435,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>18450.66</v>
+        <v>8823.469999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>17277.48</v>
+        <v>8633.059999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>17870.67</v>
+        <v>8526.42</v>
       </c>
       <c r="D101" t="n">
-        <v>16831.75</v>
+        <v>8372.34</v>
       </c>
       <c r="E101" t="n">
-        <v>24505.49</v>
+        <v>12733.12</v>
       </c>
       <c r="F101" t="n">
-        <v>22989.79</v>
+        <v>12252.68</v>
       </c>
       <c r="G101" t="n">
-        <v>23935.01</v>
+        <v>12269.69</v>
       </c>
       <c r="H101" t="n">
-        <v>22613.79</v>
+        <v>11871.12</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2466,28 +2466,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="B102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="C102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="D102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="E102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="F102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="G102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2497,28 +2497,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1362</v>
+        <v>0.1248</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2528,28 +2528,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="B104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="C104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="D104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="E104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="F104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="G104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="H104" t="n">
-        <v>2.362</v>
+        <v>1.812</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2559,28 +2559,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="B105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="C105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="D105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="E105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="F105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="G105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="H105" t="n">
-        <v>0.16</v>
+        <v>0.1413</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2590,28 +2590,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0.832</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2621,28 +2621,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="B107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="C107" t="n">
-        <v>3380</v>
+        <v>3135</v>
       </c>
       <c r="D107" t="n">
-        <v>3380</v>
+        <v>3135</v>
       </c>
       <c r="E107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="F107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="G107" t="n">
-        <v>3380</v>
+        <v>3135</v>
       </c>
       <c r="H107" t="n">
-        <v>3380</v>
+        <v>3135</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2652,28 +2652,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="B108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>0.36</v>
+        <v>0.387</v>
       </c>
       <c r="D108" t="n">
-        <v>0.36</v>
+        <v>0.387</v>
       </c>
       <c r="E108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="F108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="G108" t="n">
-        <v>0.36</v>
+        <v>0.387</v>
       </c>
       <c r="H108" t="n">
-        <v>0.36</v>
+        <v>0.387</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -2683,28 +2683,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H113" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -2714,28 +2714,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="B114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="C114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="D114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="E114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="F114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="G114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="H114" t="n">
-        <v>4011.57</v>
+        <v>4007.86</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -2745,28 +2745,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H115" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -2776,28 +2776,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="B116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="C116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="D116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="E116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="F116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="G116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="H116" t="n">
-        <v>4011.39</v>
+        <v>4005.06</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -2807,28 +2807,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="B117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="C117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="D117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="E117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="F117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="G117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="H117" t="n">
-        <v>2620.8</v>
+        <v>2419.2</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -2838,28 +2838,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="B118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="C118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="D118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="E118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="F118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="G118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="H118" t="n">
-        <v>2469.6</v>
+        <v>2016</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -2869,28 +2869,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="B121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="C121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="D121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="E121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="F121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="G121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="H121" t="n">
-        <v>1069.82</v>
+        <v>1222.05</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -2900,28 +2900,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="B122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="C122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="D122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="E122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="F122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="G122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="H122" t="n">
-        <v>1185.99</v>
+        <v>1530.05</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -2931,28 +2931,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="B123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="C123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="D123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="E123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="F123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="G123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="H123" t="n">
-        <v>3602.85</v>
+        <v>3161.93</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -2962,28 +2962,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="B124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="C124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="D124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="E124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="F124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="G124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="H124" t="n">
-        <v>2322.78</v>
+        <v>2091.45</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -2993,28 +2993,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="B125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="C125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="D125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="E125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="F125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="G125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="H125" t="n">
-        <v>367388.46</v>
+        <v>322427.13</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3024,28 +3024,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="B126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="C126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="D126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="E126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="F126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="G126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="H126" t="n">
-        <v>236857.64</v>
+        <v>213268.55</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3055,28 +3055,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="B127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="C127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="D127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="E127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="F127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="G127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="H127" t="n">
-        <v>244925.64</v>
+        <v>214951.42</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3086,28 +3086,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="B128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="C128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="D128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="E128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="F128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="G128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="H128" t="n">
-        <v>157905.09</v>
+        <v>142179.03</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3117,28 +3117,28 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -3148,28 +3148,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="B130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="C130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="D130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="E130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="F130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="G130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="H130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -3179,28 +3179,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H131" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -3210,28 +3210,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H132" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3242,58 +3242,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
-III ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
-VI ось: x = 185+0 см; kx = 0.01×185 = 1.85; η = 0</t>
+          <t>II ось: x = 210 см; kx = 0.016×210 = 3.36; η = -0.04144
+III ось: x = 210+210 см; kx = 0.016×420 = 6.72; η = 0
+VI ось: x = 210+210+0 см; kx = 0.016×420 = 6.72; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
-III ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
-VI ось: x = 185+0 см; kx = 0.01127×185 = 2.08; η = 0</t>
+          <t>II ось: x = 210 см; kx = 0.01664×210 = 3.49; η = -0.03899
+III ось: x = 210+210 см; kx = 0.01664×420 = 6.99; η = 0
+VI ось: x = 210+210+0 см; kx = 0.01664×420 = 6.99; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
-III ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
-VI ось: x = 185+0 см; kx = 0.01023×185 = 1.89; η = 0</t>
+          <t>II ось: x = 210 см; kx = 0.01638×210 = 3.44; η = -0.04008
+III ось: x = 210+210 см; kx = 0.01638×420 = 6.88; η = 0
+VI ось: x = 210+210+0 см; kx = 0.01638×420 = 6.88; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
-III ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
-VI ось: x = 185+0 см; kx = 0.01138×185 = 2.11; η = 0</t>
+          <t>II ось: x = 210 см; kx = 0.01695×210 = 3.56; η = -0.03755
+III ось: x = 210+210 см; kx = 0.01695×420 = 7.12; η = 0
+VI ось: x = 210+210+0 см; kx = 0.01695×420 = 7.12; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01×185 = 1.85; η = 0.10782
-III ось: x = 125 см; kx = 0.01×125 = 1.25; η = 0.36223
-VI ось: x = 125+185 см; kx = 0.01×310 = 3.10; η = -0.04314</t>
+          <t>II ось: x = 175 см; kx = 0.016×175 = 2.80; η = -0.03693
+III ось: x = 175+175 см; kx = 0.016×350 = 5.60; η = 0
+VI ось: x = 175+175+0 см; kx = 0.016×350 = 5.60; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01127×185 = 2.08; η = 0.0471
-III ось: x = 125 см; kx = 0.01127×125 = 1.41; η = 0.28069
-VI ось: x = 125+185 см; kx = 0.01127×310 = 3.49; η = -0.039</t>
+          <t>II ось: x = 175 см; kx = 0.01664×175 = 2.91; η = -0.04057
+III ось: x = 175+175 см; kx = 0.01664×350 = 5.82; η = 0
+VI ось: x = 175+175+0 см; kx = 0.01664×350 = 5.82; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01023×185 = 1.89; η = 0.0953
-III ось: x = 125 см; kx = 0.01023×125 = 1.28; η = 0.34675
-VI ось: x = 125+185 см; kx = 0.01023×310 = 3.17; η = -0.04318</t>
+          <t>II ось: x = 175 см; kx = 0.01638×175 = 2.87; η = -0.0393
+III ось: x = 175+175 см; kx = 0.01638×350 = 5.73; η = 0
+VI ось: x = 175+175+0 см; kx = 0.01638×350 = 5.73; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01138×185 = 2.11; η = 0.04277
-III ось: x = 125 см; kx = 0.01138×125 = 1.42; η = 0.27409
-VI ось: x = 125+185 см; kx = 0.01138×310 = 3.53; η = -0.03827</t>
+          <t>II ось: x = 175 см; kx = 0.01695×175 = 2.97; η = -0.04172
+III ось: x = 175+175 см; kx = 0.01695×350 = 5.93; η = 0
+VI ось: x = 175+175+0 см; kx = 0.01695×350 = 5.93; η = 0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3305,58 +3305,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01×185 = 1.85; µ = -0.19448
-III ось: x = 185+185 см; kx = 0.01×370 = 3.70; µ = -0.00787
-VI ось: x = 185+185+0 см; kx = 0.01×370 = 3.70; µ = 0.00000</t>
+          <t>II ось: x = 210 см; kx = 0.016×210 = 3.36; µ = -0.02638
+III ось: x = 210+210 см; kx = 0.016×420 = 6.72; µ = 0.00000
+VI ось: x = 210+210+0 см; kx = 0.016×420 = 6.72; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01127×185 = 2.08; µ = -0.16938
-III ось: x = 185+185 см; kx = 0.01127×370 = 4.17; µ = 0.00526
-VI ось: x = 185+185+0 см; kx = 0.01127×370 = 4.17; µ = 0.00000</t>
+          <t>II ось: x = 210 см; kx = 0.01664×210 = 3.49; µ = -0.01800
+III ось: x = 210+210 см; kx = 0.01664×420 = 6.99; µ = 0.00000
+VI ось: x = 210+210+0 см; kx = 0.01664×420 = 6.99; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01023×185 = 1.89; µ = -0.19061
-III ось: x = 185+185 см; kx = 0.01023×370 = 3.79; µ = -0.00454
-VI ось: x = 185+185+0 см; kx = 0.01023×370 = 3.79; µ = 0.00000</t>
+          <t>II ось: x = 210 см; kx = 0.01638×210 = 3.44; µ = -0.02123
+III ось: x = 210+210 см; kx = 0.01638×420 = 6.88; µ = 0.00000
+VI ось: x = 210+210+0 см; kx = 0.01638×420 = 6.88; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01138×185 = 2.11; µ = -0.16687
-III ось: x = 185+185 см; kx = 0.01138×370 = 4.21; µ = 0.00587
-VI ось: x = 185+185+0 см; kx = 0.01138×370 = 4.21; µ = 0.00000</t>
+          <t>II ось: x = 210 см; kx = 0.01695×210 = 3.56; µ = -0.01446
+III ось: x = 210+210 см; kx = 0.01695×420 = 7.12; µ = 0.00000
+VI ось: x = 210+210+0 см; kx = 0.01695×420 = 7.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01×185 = 1.85; µ = -0.19448
-III ось: x = 125+185 см; kx = 0.01×310 = 3.10; µ = -0.04688
-VI ось: x = 185+125+185 см; kx = 0.01×495 = 4.95; µ = 0.00855</t>
+          <t>II ось: x = 175 см; kx = 0.016×175 = 2.80; µ = -0.07767
+III ось: x = 175+175 см; kx = 0.016×350 = 5.60; µ = 0.00000
+VI ось: x = 175+175+0 см; kx = 0.016×350 = 5.60; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01127×185 = 2.08; µ = -0.16938
-III ось: x = 125+185 см; kx = 0.01127×310 = 3.49; µ = -0.01804
-VI ось: x = 185+125+185 см; kx = 0.01127×495 = 5.58; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01664×175 = 2.91; µ = -0.06531
+III ось: x = 175+175 см; kx = 0.01664×350 = 5.82; µ = 0.00000
+VI ось: x = 175+175+0 см; kx = 0.01664×350 = 5.82; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01023×185 = 1.89; µ = -0.19061
-III ось: x = 125+185 см; kx = 0.01023×310 = 3.17; µ = -0.04068
-VI ось: x = 185+125+185 см; kx = 0.01023×495 = 5.06; µ = 0.00811</t>
+          <t>II ось: x = 175 см; kx = 0.01638×175 = 2.87; µ = -0.07021
+III ось: x = 175+175 см; kx = 0.01638×350 = 5.73; µ = 0.00000
+VI ось: x = 175+175+0 см; kx = 0.01638×350 = 5.73; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01138×185 = 2.11; µ = -0.16687
-III ось: x = 125+185 см; kx = 0.01138×310 = 3.53; µ = -0.01614
-VI ось: x = 185+125+185 см; kx = 0.01138×495 = 5.63; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01695×175 = 2.97; µ = -0.05969
+III ось: x = 175+175 см; kx = 0.01695×350 = 5.93; µ = 0.00000
+VI ось: x = 175+175+0 см; kx = 0.01695×350 = 5.93; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3368,66 +3368,66 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01×130 = 1.30; η = 0.33550
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125+55 см; kx = 0.01×180 = 1.80; η = 0.12342
-ηIV: x = 125+185+55; kx = 0.01×365 = 3.65; η = -0.03536</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
+ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
+ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
+</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3439,66 +3439,66 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01×240 = 2.40; η = -0.00562
-ηII: x = 55 см; kx = 0.01×55 = 0.55; η = 0.79343
-ηIII: x = 125 - 55 см; kx = 0.01×70 = 0.70; η = 0.69972
-ηIV: x = 125 + 185-55; kx = 0.01×255 = 3.05; η = -0.02127</t>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
+ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
+ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
+</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3540,28 +3540,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="B138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="C138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="D138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="E138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="F138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="G138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="H138" t="n">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3571,28 +3571,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H139" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -3602,28 +3602,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="B140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="C140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="D140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="E140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="F140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="G140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="H140" t="n">
-        <v>126.25</v>
+        <v>113.09</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3633,28 +3633,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="B141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="C141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="D141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="E141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="F141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="G141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="H141" t="n">
-        <v>153.33</v>
+        <v>151.15</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3664,28 +3664,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -3695,28 +3695,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H143" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -3726,28 +3726,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="B144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="C144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="D144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="G144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="H144" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -3757,32 +3757,110 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>t_min_zakr_curve</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Грузонапряженность</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Станция</t>
         </is>
       </c>
     </row>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>2ТЭ10</t>
+          <t>ВЛ60</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6-осный</t>
+          <t>6-тиосный</t>
         </is>
       </c>
     </row>
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E4" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2150</v>
+        <v>3080</v>
       </c>
       <c r="E6" t="n">
         <v>1070</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
         <v>195</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -612,57 +612,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P50</t>
+          <t>P65</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="B11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="C11" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="D11" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="E11" t="n">
         <v>1.13</v>
@@ -698,7 +698,7 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Тепловоз</t>
+          <t>Электровоз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -715,22 +715,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>210+210</t>
+          <t>230+230</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>210+210</t>
+          <t>230+230</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>210+210</t>
+          <t>230+230</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>210+210</t>
+          <t>230+230</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -756,10 +756,10 @@
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>13.68</v>
+        <v>18.68</v>
       </c>
       <c r="E15" t="n">
-        <v>17.56</v>
+        <v>18.96</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -814,25 +814,25 @@
         <v>1000</v>
       </c>
       <c r="B17" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="C17" t="n">
         <v>1100</v>
       </c>
       <c r="D17" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E17" t="n">
         <v>1000</v>
       </c>
       <c r="F17" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G17" t="n">
         <v>1100</v>
       </c>
       <c r="H17" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -845,25 +845,25 @@
         <v>0.016</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01664</v>
+        <v>0.01498</v>
       </c>
       <c r="C18" t="n">
         <v>0.01638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01695</v>
+        <v>0.01522</v>
       </c>
       <c r="E18" t="n">
         <v>0.016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01664</v>
+        <v>0.01498</v>
       </c>
       <c r="G18" t="n">
         <v>0.01638</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01695</v>
+        <v>0.01522</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -987,184 +987,189 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1764.72</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>1764.72</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>1764.72</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1764.72</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>3424.2</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>3424.2</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>3424.2</v>
+        <v>5257.800000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3424.2</v>
+        <v>5257.800000000001</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>p_max_p</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1323.54</v>
+        <v>3943.35</v>
       </c>
       <c r="B26" t="n">
-        <v>1323.54</v>
+        <v>3943.35</v>
       </c>
       <c r="C26" t="n">
-        <v>1323.54</v>
+        <v>3943.35</v>
       </c>
       <c r="D26" t="n">
-        <v>1323.54</v>
+        <v>3943.35</v>
       </c>
       <c r="E26" t="n">
-        <v>2568.15</v>
+        <v>3943.35</v>
       </c>
       <c r="F26" t="n">
-        <v>2568.15</v>
+        <v>3943.35</v>
       </c>
       <c r="G26" t="n">
-        <v>2568.15</v>
+        <v>3943.35</v>
       </c>
       <c r="H26" t="n">
-        <v>2568.15</v>
+        <v>3943.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12723.54</v>
+        <v>15443.35</v>
       </c>
       <c r="B27" t="n">
-        <v>12723.54</v>
+        <v>15443.35</v>
       </c>
       <c r="C27" t="n">
-        <v>12723.54</v>
+        <v>15443.35</v>
       </c>
       <c r="D27" t="n">
-        <v>12723.54</v>
+        <v>15443.35</v>
       </c>
       <c r="E27" t="n">
-        <v>17068.15</v>
+        <v>16443.35</v>
       </c>
       <c r="F27" t="n">
-        <v>17068.15</v>
+        <v>16443.35</v>
       </c>
       <c r="G27" t="n">
-        <v>17068.15</v>
+        <v>16443.35</v>
       </c>
       <c r="H27" t="n">
-        <v>17068.15</v>
+        <v>16443.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>141.18</v>
+        <v>420.62</v>
       </c>
       <c r="B28" t="n">
-        <v>141.18</v>
+        <v>420.62</v>
       </c>
       <c r="C28" t="n">
-        <v>141.18</v>
+        <v>420.62</v>
       </c>
       <c r="D28" t="n">
-        <v>141.18</v>
+        <v>420.62</v>
       </c>
       <c r="E28" t="n">
-        <v>273.94</v>
+        <v>420.62</v>
       </c>
       <c r="F28" t="n">
-        <v>273.94</v>
+        <v>420.62</v>
       </c>
       <c r="G28" t="n">
-        <v>273.94</v>
+        <v>420.62</v>
       </c>
       <c r="H28" t="n">
-        <v>273.94</v>
+        <v>420.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1168.74</v>
+        <v>1797.76</v>
       </c>
       <c r="B29" t="n">
-        <v>1306.69</v>
+        <v>2275.52</v>
       </c>
       <c r="C29" t="n">
-        <v>1123.38</v>
+        <v>1727.98</v>
       </c>
       <c r="D29" t="n">
-        <v>1245.85</v>
+        <v>2161.98</v>
       </c>
       <c r="E29" t="n">
-        <v>1106.04</v>
+        <v>1128.23</v>
       </c>
       <c r="F29" t="n">
-        <v>1236.59</v>
+        <v>1428.06</v>
       </c>
       <c r="G29" t="n">
-        <v>1063.11</v>
+        <v>1084.44</v>
       </c>
       <c r="H29" t="n">
-        <v>1179.01</v>
+        <v>1356.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>168.95</v>
+        <v>164.52</v>
       </c>
       <c r="B30" t="n">
-        <v>186.55</v>
+        <v>201.13</v>
       </c>
       <c r="C30" t="n">
-        <v>174.37</v>
+        <v>169.42</v>
       </c>
       <c r="D30" t="n">
-        <v>191.3</v>
+        <v>205.54</v>
       </c>
       <c r="E30" t="n">
-        <v>141.19</v>
+        <v>158.29</v>
       </c>
       <c r="F30" t="n">
-        <v>156.93</v>
+        <v>198.17</v>
       </c>
       <c r="G30" t="n">
-        <v>146.05</v>
+        <v>163.74</v>
       </c>
       <c r="H30" t="n">
-        <v>161.15</v>
+        <v>202.87</v>
       </c>
     </row>
     <row r="31">
@@ -1172,77 +1177,77 @@
         <v>1740.2</v>
       </c>
       <c r="B31" t="n">
-        <v>2175.26</v>
+        <v>2788.04</v>
       </c>
       <c r="C31" t="n">
         <v>1869.82</v>
       </c>
       <c r="D31" t="n">
-        <v>2299.74</v>
+        <v>2927.02</v>
       </c>
       <c r="E31" t="n">
         <v>2480.72</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.9</v>
+        <v>3974.45</v>
       </c>
       <c r="G31" t="n">
         <v>2665.48</v>
       </c>
       <c r="H31" t="n">
-        <v>3278.35</v>
+        <v>4172.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1250.77</v>
+        <v>1893.67</v>
       </c>
       <c r="B32" t="n">
-        <v>1413.16</v>
+        <v>2404.58</v>
       </c>
       <c r="C32" t="n">
-        <v>1218.86</v>
+        <v>1834.37</v>
       </c>
       <c r="D32" t="n">
-        <v>1367.95</v>
+        <v>2306.42</v>
       </c>
       <c r="E32" t="n">
-        <v>1274.76</v>
+        <v>1334.66</v>
       </c>
       <c r="F32" t="n">
-        <v>1452.02</v>
+        <v>1744.53</v>
       </c>
       <c r="G32" t="n">
-        <v>1257.28</v>
+        <v>1316.68</v>
       </c>
       <c r="H32" t="n">
-        <v>1423.78</v>
+        <v>1710.98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15850.47</v>
+        <v>20177.53</v>
       </c>
       <c r="B33" t="n">
-        <v>16256.44</v>
+        <v>21454.8</v>
       </c>
       <c r="C33" t="n">
-        <v>15770.69</v>
+        <v>20029.28</v>
       </c>
       <c r="D33" t="n">
-        <v>16143.42</v>
+        <v>21209.4</v>
       </c>
       <c r="E33" t="n">
-        <v>20255.05</v>
+        <v>19780</v>
       </c>
       <c r="F33" t="n">
-        <v>20698.2</v>
+        <v>20804.67</v>
       </c>
       <c r="G33" t="n">
-        <v>20211.35</v>
+        <v>19735.05</v>
       </c>
       <c r="H33" t="n">
-        <v>20627.6</v>
+        <v>20720.8</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1255,25 +1260,25 @@
         <v>49.06</v>
       </c>
       <c r="B34" t="n">
-        <v>47.18</v>
+        <v>52.4</v>
       </c>
       <c r="C34" t="n">
         <v>47.92</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31</v>
+        <v>51.58</v>
       </c>
       <c r="E34" t="n">
         <v>49.06</v>
       </c>
       <c r="F34" t="n">
-        <v>47.18</v>
+        <v>52.4</v>
       </c>
       <c r="G34" t="n">
         <v>47.92</v>
       </c>
       <c r="H34" t="n">
-        <v>46.31</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="35">
@@ -1281,25 +1286,25 @@
         <v>245.31</v>
       </c>
       <c r="B35" t="n">
-        <v>235.88</v>
+        <v>262.02</v>
       </c>
       <c r="C35" t="n">
         <v>239.62</v>
       </c>
       <c r="D35" t="n">
-        <v>231.56</v>
+        <v>257.88</v>
       </c>
       <c r="E35" t="n">
         <v>245.31</v>
       </c>
       <c r="F35" t="n">
-        <v>235.88</v>
+        <v>262.02</v>
       </c>
       <c r="G35" t="n">
         <v>239.62</v>
       </c>
       <c r="H35" t="n">
-        <v>231.56</v>
+        <v>257.88</v>
       </c>
     </row>
     <row r="36">
@@ -1307,25 +1312,25 @@
         <v>147.19</v>
       </c>
       <c r="B36" t="n">
-        <v>141.53</v>
+        <v>157.21</v>
       </c>
       <c r="C36" t="n">
         <v>143.77</v>
       </c>
       <c r="D36" t="n">
-        <v>138.94</v>
+        <v>154.73</v>
       </c>
       <c r="E36" t="n">
         <v>147.19</v>
       </c>
       <c r="F36" t="n">
-        <v>141.53</v>
+        <v>157.21</v>
       </c>
       <c r="G36" t="n">
         <v>143.77</v>
       </c>
       <c r="H36" t="n">
-        <v>138.94</v>
+        <v>154.73</v>
       </c>
     </row>
     <row r="37">
@@ -1333,77 +1338,77 @@
         <v>343.44</v>
       </c>
       <c r="B37" t="n">
-        <v>330.23</v>
+        <v>366.82</v>
       </c>
       <c r="C37" t="n">
         <v>335.47</v>
       </c>
       <c r="D37" t="n">
-        <v>324.19</v>
+        <v>361.04</v>
       </c>
       <c r="E37" t="n">
         <v>343.44</v>
       </c>
       <c r="F37" t="n">
-        <v>330.23</v>
+        <v>366.82</v>
       </c>
       <c r="G37" t="n">
         <v>335.47</v>
       </c>
       <c r="H37" t="n">
-        <v>324.19</v>
+        <v>361.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15522.19</v>
+        <v>20038.86</v>
       </c>
       <c r="B38" t="n">
-        <v>16028.69</v>
+        <v>21136.1</v>
       </c>
       <c r="C38" t="n">
-        <v>15504.01</v>
+        <v>19943.82</v>
       </c>
       <c r="D38" t="n">
-        <v>15958.74</v>
+        <v>20938.14</v>
       </c>
       <c r="E38" t="n">
-        <v>19018.21</v>
+        <v>18588.43</v>
       </c>
       <c r="F38" t="n">
-        <v>19651.01</v>
+        <v>19292.28</v>
       </c>
       <c r="G38" t="n">
-        <v>19088.92</v>
+        <v>18653.71</v>
       </c>
       <c r="H38" t="n">
-        <v>19666.86</v>
+        <v>19287.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.02638</v>
+        <v>-0.00872</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.018</v>
+        <v>-0.02089</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.02123</v>
+        <v>-0.00519</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01446</v>
+        <v>-0.01765</v>
       </c>
       <c r="E39" t="n">
         <v>-0.07767</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.06531000000000001</v>
+        <v>-0.09921000000000001</v>
       </c>
       <c r="G39" t="n">
         <v>-0.07020999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.05969</v>
+        <v>-0.09396</v>
       </c>
     </row>
     <row r="40">
@@ -1423,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.00723</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.00677</v>
       </c>
     </row>
     <row r="41">
@@ -1460,80 +1465,80 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.02638</v>
+        <v>-0.00872</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.018</v>
+        <v>-0.02089</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.02123</v>
+        <v>-0.00519</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01446</v>
+        <v>-0.01765</v>
       </c>
       <c r="E42" t="n">
         <v>-0.07767</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.06531000000000001</v>
+        <v>-0.09198000000000001</v>
       </c>
       <c r="G42" t="n">
         <v>-0.07020999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.05969</v>
+        <v>-0.08719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15343.56</v>
+        <v>19656.63</v>
       </c>
       <c r="B43" t="n">
-        <v>15776.89</v>
+        <v>20859.46</v>
       </c>
       <c r="C43" t="n">
-        <v>15278.93</v>
+        <v>19541.27</v>
       </c>
       <c r="D43" t="n">
-        <v>15680.16</v>
+        <v>20629.19</v>
       </c>
       <c r="E43" t="n">
-        <v>19633.77</v>
+        <v>19181.46</v>
       </c>
       <c r="F43" t="n">
-        <v>20028.62</v>
+        <v>20330.44</v>
       </c>
       <c r="G43" t="n">
-        <v>19558.83</v>
+        <v>19106.42</v>
       </c>
       <c r="H43" t="n">
-        <v>19942.48</v>
+        <v>20211.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.04144</v>
+        <v>-0.03459</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.03899</v>
+        <v>-0.03997</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04008</v>
+        <v>-0.03227</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03755</v>
+        <v>-0.03886</v>
       </c>
       <c r="E44" t="n">
         <v>-0.03693</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.04057</v>
+        <v>-0.02696</v>
       </c>
       <c r="G44" t="n">
         <v>-0.0393</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.04172</v>
+        <v>-0.02982</v>
       </c>
     </row>
     <row r="45">
@@ -1553,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>-0.00188</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-0.00117</v>
       </c>
     </row>
     <row r="46">
@@ -1590,28 +1595,28 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.04144</v>
+        <v>-0.03459</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.03899</v>
+        <v>-0.03997</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.04008</v>
+        <v>-0.03227</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03755</v>
+        <v>-0.03886</v>
       </c>
       <c r="E47" t="n">
         <v>-0.03693</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.04057</v>
+        <v>-0.02884</v>
       </c>
       <c r="G47" t="n">
         <v>-0.0393</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04172</v>
+        <v>-0.03099</v>
       </c>
     </row>
     <row r="48">
@@ -1647,80 +1652,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1003.9</v>
+        <v>1318.95</v>
       </c>
       <c r="B49" t="n">
-        <v>996.78</v>
+        <v>1485.9</v>
       </c>
       <c r="C49" t="n">
-        <v>1126.81</v>
+        <v>1717.09</v>
       </c>
       <c r="D49" t="n">
-        <v>1120.86</v>
+        <v>1940.09</v>
       </c>
       <c r="E49" t="n">
-        <v>1230</v>
+        <v>1202.21</v>
       </c>
       <c r="F49" t="n">
-        <v>1222.05</v>
+        <v>1332.69</v>
       </c>
       <c r="G49" t="n">
-        <v>1536.76</v>
+        <v>1501.73</v>
       </c>
       <c r="H49" t="n">
-        <v>1530.05</v>
+        <v>1671.07</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13.03</v>
+        <v>16.7</v>
       </c>
       <c r="B50" t="n">
-        <v>13.94</v>
+        <v>16.59</v>
       </c>
       <c r="C50" t="n">
-        <v>12.32</v>
+        <v>15.76</v>
       </c>
       <c r="D50" t="n">
-        <v>13.08</v>
+        <v>15.46</v>
       </c>
       <c r="E50" t="n">
-        <v>16.68</v>
+        <v>16.29</v>
       </c>
       <c r="F50" t="n">
-        <v>17.69</v>
+        <v>16.17</v>
       </c>
       <c r="G50" t="n">
-        <v>15.77</v>
+        <v>15.41</v>
       </c>
       <c r="H50" t="n">
-        <v>16.64</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="B51" t="n">
-        <v>2.33</v>
+        <v>2.78</v>
       </c>
       <c r="C51" t="n">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="D51" t="n">
-        <v>2.19</v>
+        <v>2.59</v>
       </c>
       <c r="E51" t="n">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="F51" t="n">
-        <v>2.96</v>
+        <v>2.71</v>
       </c>
       <c r="G51" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H51" t="n">
-        <v>2.79</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="52">
@@ -1754,25 +1759,25 @@
         <v>0.58397</v>
       </c>
       <c r="B53" t="n">
-        <v>0.56154</v>
+        <v>0.61998</v>
       </c>
       <c r="C53" t="n">
         <v>0.57063</v>
       </c>
       <c r="D53" t="n">
-        <v>0.55074</v>
+        <v>0.61149</v>
       </c>
       <c r="E53" t="n">
         <v>0.58397</v>
       </c>
       <c r="F53" t="n">
-        <v>0.56154</v>
+        <v>0.61998</v>
       </c>
       <c r="G53" t="n">
         <v>0.57063</v>
       </c>
       <c r="H53" t="n">
-        <v>0.55074</v>
+        <v>0.61149</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -1782,54 +1787,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="C55" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="D55" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="E55" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F55" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="G55" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H55" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.424</v>
+        <v>0.506</v>
       </c>
       <c r="B56" t="n">
-        <v>0.453</v>
+        <v>0.503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.401</v>
+        <v>0.477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.426</v>
+        <v>0.468</v>
       </c>
       <c r="E56" t="n">
-        <v>0.542</v>
+        <v>0.494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.575</v>
+        <v>0.49</v>
       </c>
       <c r="G56" t="n">
-        <v>0.513</v>
+        <v>0.467</v>
       </c>
       <c r="H56" t="n">
-        <v>0.542</v>
+        <v>0.459</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1839,28 +1844,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="B57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="E57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="F57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="G57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="H57" t="n">
-        <v>0.312</v>
+        <v>0.325</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1870,28 +1875,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="B58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="E58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="F58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="G58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="H58" t="n">
-        <v>0.221</v>
+        <v>0.205</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1901,16 +1906,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B59" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C59" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D59" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E59" t="n">
         <v>175</v>
@@ -1932,16 +1937,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B60" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C60" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D60" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E60" t="n">
         <v>175</v>
@@ -2025,28 +2030,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="B64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2056,28 +2061,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B67" t="n">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C67" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D67" t="n">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E67" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G67" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H67" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2173,16 +2178,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B72" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C72" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D72" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E72" t="n">
         <v>175</v>
@@ -2199,16 +2204,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B73" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C73" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D73" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="E73" t="n">
         <v>350</v>
@@ -2311,16 +2316,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B81" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C81" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D81" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="E81" t="n">
         <v>350</v>
@@ -2342,59 +2347,369 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.01878</v>
+        <v>-0.01178</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01488</v>
+        <v>-0.01814</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01642</v>
+        <v>-0.009730000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01313</v>
+        <v>-0.01654</v>
       </c>
       <c r="E82" t="n">
         <v>-0.03279</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.02905</v>
+        <v>-0.0382</v>
       </c>
       <c r="G82" t="n">
         <v>-0.03058</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.02721</v>
+        <v>-0.03702</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>сигма тета 1 шпала</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60</v>
+      </c>
+      <c r="B83" t="n">
+        <v>60</v>
+      </c>
+      <c r="C83" t="n">
+        <v>60</v>
+      </c>
+      <c r="D83" t="n">
+        <v>60</v>
+      </c>
+      <c r="E83" t="n">
+        <v>60</v>
+      </c>
+      <c r="F83" t="n">
+        <v>60</v>
+      </c>
+      <c r="G83" t="n">
+        <v>60</v>
+      </c>
+      <c r="H83" t="n">
+        <v>60</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>fcr_loc</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>50</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="n">
+        <v>50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" t="n">
+        <v>50</v>
+      </c>
+      <c r="G84" t="n">
+        <v>50</v>
+      </c>
+      <c r="H84" t="n">
+        <v>50</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>fcr_vag</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>alfa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Beta</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Gamma</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Epsiland</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>kd_loc</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>kd_vag</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2189.2</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Pmax_p_loc</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5257.800000000001</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Pmax_p_vag</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.03401</v>
+        <v>-0.04886</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.03895</v>
+        <v>-0.0456</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03716</v>
+        <v>-0.04909</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.04075</v>
+        <v>-0.04676</v>
       </c>
       <c r="E95" t="n">
         <v>0.05301</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0369</v>
+        <v>0.08422</v>
       </c>
       <c r="G95" t="n">
         <v>0.04315</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02992</v>
+        <v>0.0762</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2404,28 +2719,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9017.25</v>
+        <v>11601.15</v>
       </c>
       <c r="B100" t="n">
-        <v>8939.32</v>
+        <v>13021.4</v>
       </c>
       <c r="C100" t="n">
-        <v>8790.309999999999</v>
+        <v>11279.04</v>
       </c>
       <c r="D100" t="n">
-        <v>8723.77</v>
+        <v>12713.9</v>
       </c>
       <c r="E100" t="n">
-        <v>11268.68</v>
+        <v>11011.75</v>
       </c>
       <c r="F100" t="n">
-        <v>11127.04</v>
+        <v>12270.34</v>
       </c>
       <c r="G100" t="n">
-        <v>11011.26</v>
+        <v>10758.57</v>
       </c>
       <c r="H100" t="n">
-        <v>10896.02</v>
+        <v>12061.83</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2435,28 +2750,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8823.469999999999</v>
+        <v>11028.51</v>
       </c>
       <c r="B101" t="n">
-        <v>8633.059999999999</v>
+        <v>12597.33</v>
       </c>
       <c r="C101" t="n">
-        <v>8526.42</v>
+        <v>10671.19</v>
       </c>
       <c r="D101" t="n">
-        <v>8372.34</v>
+        <v>12247.2</v>
       </c>
       <c r="E101" t="n">
-        <v>12733.12</v>
+        <v>12422.59</v>
       </c>
       <c r="F101" t="n">
-        <v>12252.68</v>
+        <v>14283.34</v>
       </c>
       <c r="G101" t="n">
-        <v>12269.69</v>
+        <v>11970.94</v>
       </c>
       <c r="H101" t="n">
-        <v>11871.12</v>
+        <v>13923.55</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2466,28 +2781,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="B102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="C102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="D102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="E102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="F102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2497,28 +2812,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1248</v>
+        <v>0.1276</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2528,28 +2843,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="B104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="C104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="D104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="E104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="F104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="G104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="H104" t="n">
-        <v>1.812</v>
+        <v>1.768</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2559,28 +2874,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1413</v>
+        <v>0.1436</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2590,28 +2905,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2621,28 +2936,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="B107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>3135</v>
+        <v>3380</v>
       </c>
       <c r="D107" t="n">
-        <v>3135</v>
+        <v>3380</v>
       </c>
       <c r="E107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="F107" t="n">
-        <v>5170</v>
+        <v>5830</v>
       </c>
       <c r="G107" t="n">
-        <v>3135</v>
+        <v>3380</v>
       </c>
       <c r="H107" t="n">
-        <v>3135</v>
+        <v>3380</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2652,28 +2967,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.387</v>
+        <v>0.36</v>
       </c>
       <c r="D108" t="n">
-        <v>0.387</v>
+        <v>0.36</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="G108" t="n">
-        <v>0.387</v>
+        <v>0.36</v>
       </c>
       <c r="H108" t="n">
-        <v>0.387</v>
+        <v>0.36</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -2683,28 +2998,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H113" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -2714,28 +3029,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="B114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="C114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="D114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="E114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="F114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="G114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="H114" t="n">
-        <v>4007.86</v>
+        <v>3998.07</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -2745,28 +3060,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H115" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -2776,28 +3091,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="B116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="C116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="D116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="E116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="F116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="G116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="H116" t="n">
-        <v>4005.06</v>
+        <v>4008.92</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -2807,28 +3122,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="B117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="C117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="D117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="E117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="F117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="G117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="H117" t="n">
-        <v>2419.2</v>
+        <v>2066.4</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -2838,28 +3153,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="B118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="C118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="D118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="E118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="F118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="G118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="H118" t="n">
-        <v>2016</v>
+        <v>1486.8</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -2869,28 +3184,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="B121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="C121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="D121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="E121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="F121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="G121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="H121" t="n">
-        <v>1222.05</v>
+        <v>1485.9</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -2900,28 +3215,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="B122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="C122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="D122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="E122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="F122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="G122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="H122" t="n">
-        <v>1530.05</v>
+        <v>1940.09</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -2931,28 +3246,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="B123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="C123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="D123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="E123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="F123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="G123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="H123" t="n">
-        <v>3161.93</v>
+        <v>3602.85</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -2962,28 +3277,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="B124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="C124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="D124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="E124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="F124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="G124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="H124" t="n">
-        <v>2091.45</v>
+        <v>2322.78</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -2993,28 +3308,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="B125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="C125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="D125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="E125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="F125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="G125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="H125" t="n">
-        <v>322427.13</v>
+        <v>367388.46</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3024,28 +3339,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="B126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="C126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="D126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="E126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="F126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="G126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="H126" t="n">
-        <v>213268.55</v>
+        <v>236857.64</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3055,28 +3370,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="B127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="C127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="D127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="E127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="F127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="G127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="H127" t="n">
-        <v>214951.42</v>
+        <v>244925.64</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3086,28 +3401,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="B128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="C128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="D128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="E128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="F128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="G128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="H128" t="n">
-        <v>142179.03</v>
+        <v>157905.09</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3117,28 +3432,28 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="B129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="C129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="D129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="E129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="F129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="G129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="H129" t="n">
-        <v>65.98999999999999</v>
+        <v>82.56</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -3148,28 +3463,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="B130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="C130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="D130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="E130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="F130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="G130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="H130" t="n">
-        <v>131.98</v>
+        <v>165.12</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -3179,28 +3494,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H131" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -3210,28 +3525,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H132" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3242,30 +3557,30 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.016×210 = 3.36; η = -0.04144
-III ось: x = 210+210 см; kx = 0.016×420 = 6.72; η = 0
-VI ось: x = 210+210+0 см; kx = 0.016×420 = 6.72; η = 0</t>
+          <t>II ось: x = 230 см; kx = 0.016×230 = 3.68; η = -0.03459
+III ось: x = 230+230 см; kx = 0.016×460 = 7.36; η = 0
+VI ось: x = 230+230+0 см; kx = 0.016×460 = 7.36; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01664×210 = 3.49; η = -0.03899
-III ось: x = 210+210 см; kx = 0.01664×420 = 6.99; η = 0
-VI ось: x = 210+210+0 см; kx = 0.01664×420 = 6.99; η = 0</t>
+          <t>II ось: x = 230 см; kx = 0.01498×230 = 3.45; η = -0.03997
+III ось: x = 230+230 см; kx = 0.01498×460 = 6.89; η = 0
+VI ось: x = 230+230+0 см; kx = 0.01498×460 = 6.89; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01638×210 = 3.44; η = -0.04008
-III ось: x = 210+210 см; kx = 0.01638×420 = 6.88; η = 0
-VI ось: x = 210+210+0 см; kx = 0.01638×420 = 6.88; η = 0</t>
+          <t>II ось: x = 230 см; kx = 0.01638×230 = 3.77; η = -0.03227
+III ось: x = 230+230 см; kx = 0.01638×460 = 7.53; η = 0
+VI ось: x = 230+230+0 см; kx = 0.01638×460 = 7.53; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01695×210 = 3.56; η = -0.03755
-III ось: x = 210+210 см; kx = 0.01695×420 = 7.12; η = 0
-VI ось: x = 210+210+0 см; kx = 0.01695×420 = 7.12; η = 0</t>
+          <t>II ось: x = 230 см; kx = 0.01522×230 = 3.50; η = -0.03886
+III ось: x = 230+230 см; kx = 0.01522×460 = 7.00; η = 0
+VI ось: x = 230+230+0 см; kx = 0.01522×460 = 7.00; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3277,9 +3592,9 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01664×175 = 2.91; η = -0.04057
-III ось: x = 175+175 см; kx = 0.01664×350 = 5.82; η = 0
-VI ось: x = 175+175+0 см; kx = 0.01664×350 = 5.82; η = 0</t>
+          <t>II ось: x = 175 см; kx = 0.01498×175 = 2.62; η = -0.02696
+III ось: x = 175+175 см; kx = 0.01498×350 = 5.24; η = -0.00188
+VI ось: x = 175+175+0 см; kx = 0.01498×350 = 5.24; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -3291,9 +3606,9 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01695×175 = 2.97; η = -0.04172
-III ось: x = 175+175 см; kx = 0.01695×350 = 5.93; η = 0
-VI ось: x = 175+175+0 см; kx = 0.01695×350 = 5.93; η = 0</t>
+          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; η = -0.02982
+III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; η = -0.00117
+VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; η = 0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3305,30 +3620,30 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.016×210 = 3.36; µ = -0.02638
-III ось: x = 210+210 см; kx = 0.016×420 = 6.72; µ = 0.00000
-VI ось: x = 210+210+0 см; kx = 0.016×420 = 6.72; µ = 0.00000</t>
+          <t>II ось: x = 230 см; kx = 0.016×230 = 3.68; µ = -0.00872
+III ось: x = 230+230 см; kx = 0.016×460 = 7.36; µ = 0.00000
+VI ось: x = 230+230+0 см; kx = 0.016×460 = 7.36; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01664×210 = 3.49; µ = -0.01800
-III ось: x = 210+210 см; kx = 0.01664×420 = 6.99; µ = 0.00000
-VI ось: x = 210+210+0 см; kx = 0.01664×420 = 6.99; µ = 0.00000</t>
+          <t>II ось: x = 230 см; kx = 0.01498×230 = 3.45; µ = -0.02089
+III ось: x = 230+230 см; kx = 0.01498×460 = 6.89; µ = 0.00000
+VI ось: x = 230+230+0 см; kx = 0.01498×460 = 6.89; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01638×210 = 3.44; µ = -0.02123
-III ось: x = 210+210 см; kx = 0.01638×420 = 6.88; µ = 0.00000
-VI ось: x = 210+210+0 см; kx = 0.01638×420 = 6.88; µ = 0.00000</t>
+          <t>II ось: x = 230 см; kx = 0.01638×230 = 3.77; µ = -0.00519
+III ось: x = 230+230 см; kx = 0.01638×460 = 7.53; µ = 0.00000
+VI ось: x = 230+230+0 см; kx = 0.01638×460 = 7.53; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 210 см; kx = 0.01695×210 = 3.56; µ = -0.01446
-III ось: x = 210+210 см; kx = 0.01695×420 = 7.12; µ = 0.00000
-VI ось: x = 210+210+0 см; kx = 0.01695×420 = 7.12; µ = 0.00000</t>
+          <t>II ось: x = 230 см; kx = 0.01522×230 = 3.50; µ = -0.01765
+III ось: x = 230+230 см; kx = 0.01522×460 = 7.00; µ = 0.00000
+VI ось: x = 230+230+0 см; kx = 0.01522×460 = 7.00; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3340,9 +3655,9 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01664×175 = 2.91; µ = -0.06531
-III ось: x = 175+175 см; kx = 0.01664×350 = 5.82; µ = 0.00000
-VI ось: x = 175+175+0 см; kx = 0.01664×350 = 5.82; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01498×175 = 2.62; µ = -0.09921
+III ось: x = 175+175 см; kx = 0.01498×350 = 5.24; µ = 0.00723
+VI ось: x = 175+175+0 см; kx = 0.01498×350 = 5.24; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -3354,9 +3669,9 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01695×175 = 2.97; µ = -0.05969
-III ось: x = 175+175 см; kx = 0.01695×350 = 5.93; µ = 0.00000
-VI ось: x = 175+175+0 см; kx = 0.01695×350 = 5.93; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; µ = -0.09396
+III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; µ = 0.00677
+VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3509,28 +3824,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H137" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3540,28 +3855,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="B138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="C138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="D138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="E138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="F138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="G138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="H138" t="n">
-        <v>-42</v>
+        <v>-33</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3571,28 +3886,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H139" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -3602,28 +3917,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="B140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="C140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="D140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="E140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="F140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="G140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="H140" t="n">
-        <v>113.09</v>
+        <v>87.25</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3633,28 +3948,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="B141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="C141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="D141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="E141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="F141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="G141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="H141" t="n">
-        <v>151.15</v>
+        <v>131.33</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3664,28 +3979,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H142" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -3695,28 +4010,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H143" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -3726,28 +4041,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="B144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="C144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="D144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="F144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="G144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="H144" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -3757,28 +4072,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -3788,28 +4103,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="B146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="C146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="D146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="E146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="F146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="G146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="H146" t="n">
-        <v>29.9</v>
+        <v>26.4</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -3820,42 +4135,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>ВЛ60</t>
+          <t>ВЛ80</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6-тиосный</t>
+          <t>8-осный</t>
         </is>
       </c>
     </row>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="D2" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="H2" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="E4" t="n">
-        <v>12500</v>
+        <v>14800</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>3080</v>
+        <v>2760</v>
       </c>
       <c r="E6" t="n">
-        <v>1070</v>
+        <v>995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -653,28 +653,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="B11" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="C11" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="D11" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="E11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -715,51 +715,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>230+230</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>230+230</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>230+230</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>230+230</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+125+185</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+125+185</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>18.68</v>
+        <v>17.04</v>
       </c>
       <c r="E15" t="n">
-        <v>18.96</v>
+        <v>15.26</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -842,25 +842,25 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.016</v>
+        <v>0.01338</v>
       </c>
       <c r="B18" t="n">
         <v>0.01498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01638</v>
+        <v>0.01421</v>
       </c>
       <c r="D18" t="n">
         <v>0.01522</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016</v>
+        <v>0.01338</v>
       </c>
       <c r="F18" t="n">
         <v>0.01498</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01638</v>
+        <v>0.01421</v>
       </c>
       <c r="H18" t="n">
         <v>0.01522</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3</v>
+        <v>0.261</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -883,28 +883,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="B20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="C20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="D20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="E20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="F20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="G20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="H20" t="n">
-        <v>273</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21">
@@ -1013,28 +1013,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5257.800000000001</v>
+        <v>1977</v>
       </c>
       <c r="B25" t="n">
-        <v>5257.800000000001</v>
+        <v>1977</v>
       </c>
       <c r="C25" t="n">
-        <v>5257.800000000001</v>
+        <v>1977</v>
       </c>
       <c r="D25" t="n">
-        <v>5257.800000000001</v>
+        <v>1977</v>
       </c>
       <c r="E25" t="n">
-        <v>5257.800000000001</v>
+        <v>3052</v>
       </c>
       <c r="F25" t="n">
-        <v>5257.800000000001</v>
+        <v>3052</v>
       </c>
       <c r="G25" t="n">
-        <v>5257.800000000001</v>
+        <v>3052</v>
       </c>
       <c r="H25" t="n">
-        <v>5257.800000000001</v>
+        <v>3052</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1044,155 +1044,155 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3943.35</v>
+        <v>1483</v>
       </c>
       <c r="B26" t="n">
-        <v>3943.35</v>
+        <v>1483</v>
       </c>
       <c r="C26" t="n">
-        <v>3943.35</v>
+        <v>1483</v>
       </c>
       <c r="D26" t="n">
-        <v>3943.35</v>
+        <v>1483</v>
       </c>
       <c r="E26" t="n">
-        <v>3943.35</v>
+        <v>2289</v>
       </c>
       <c r="F26" t="n">
-        <v>3943.35</v>
+        <v>2289</v>
       </c>
       <c r="G26" t="n">
-        <v>3943.35</v>
+        <v>2289</v>
       </c>
       <c r="H26" t="n">
-        <v>3943.35</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15443.35</v>
+        <v>13482.75</v>
       </c>
       <c r="B27" t="n">
-        <v>15443.35</v>
+        <v>13482.75</v>
       </c>
       <c r="C27" t="n">
-        <v>15443.35</v>
+        <v>13482.75</v>
       </c>
       <c r="D27" t="n">
-        <v>15443.35</v>
+        <v>13482.75</v>
       </c>
       <c r="E27" t="n">
-        <v>16443.35</v>
+        <v>17089</v>
       </c>
       <c r="F27" t="n">
-        <v>16443.35</v>
+        <v>17089</v>
       </c>
       <c r="G27" t="n">
-        <v>16443.35</v>
+        <v>17089</v>
       </c>
       <c r="H27" t="n">
-        <v>16443.35</v>
+        <v>17089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>420.62</v>
+        <v>158.16</v>
       </c>
       <c r="B28" t="n">
-        <v>420.62</v>
+        <v>158.16</v>
       </c>
       <c r="C28" t="n">
-        <v>420.62</v>
+        <v>158.16</v>
       </c>
       <c r="D28" t="n">
-        <v>420.62</v>
+        <v>158.16</v>
       </c>
       <c r="E28" t="n">
-        <v>420.62</v>
+        <v>244.16</v>
       </c>
       <c r="F28" t="n">
-        <v>420.62</v>
+        <v>244.16</v>
       </c>
       <c r="G28" t="n">
-        <v>420.62</v>
+        <v>244.16</v>
       </c>
       <c r="H28" t="n">
-        <v>420.62</v>
+        <v>244.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1797.76</v>
+        <v>1256.45</v>
       </c>
       <c r="B29" t="n">
-        <v>2275.52</v>
+        <v>1454.33</v>
       </c>
       <c r="C29" t="n">
-        <v>1727.98</v>
+        <v>1185.72</v>
       </c>
       <c r="D29" t="n">
-        <v>2161.98</v>
+        <v>1381.77</v>
       </c>
       <c r="E29" t="n">
-        <v>1128.23</v>
+        <v>956.1799999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1428.06</v>
+        <v>1106.78</v>
       </c>
       <c r="G29" t="n">
-        <v>1084.44</v>
+        <v>902.35</v>
       </c>
       <c r="H29" t="n">
-        <v>1356.8</v>
+        <v>1051.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>164.52</v>
+        <v>131.45</v>
       </c>
       <c r="B30" t="n">
-        <v>201.13</v>
+        <v>149.57</v>
       </c>
       <c r="C30" t="n">
-        <v>169.42</v>
+        <v>133.46</v>
       </c>
       <c r="D30" t="n">
-        <v>205.54</v>
+        <v>152.9</v>
       </c>
       <c r="E30" t="n">
-        <v>158.29</v>
+        <v>131.03</v>
       </c>
       <c r="F30" t="n">
-        <v>198.17</v>
+        <v>150.8</v>
       </c>
       <c r="G30" t="n">
-        <v>163.74</v>
+        <v>133.24</v>
       </c>
       <c r="H30" t="n">
-        <v>202.87</v>
+        <v>154.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1740.2</v>
+        <v>2080.96</v>
       </c>
       <c r="B31" t="n">
         <v>2788.04</v>
       </c>
       <c r="C31" t="n">
-        <v>1869.82</v>
+        <v>2155.36</v>
       </c>
       <c r="D31" t="n">
         <v>2927.02</v>
       </c>
       <c r="E31" t="n">
-        <v>2480.72</v>
+        <v>2966.48</v>
       </c>
       <c r="F31" t="n">
         <v>3974.45</v>
       </c>
       <c r="G31" t="n">
-        <v>2665.48</v>
+        <v>3072.53</v>
       </c>
       <c r="H31" t="n">
         <v>4172.56</v>
@@ -1200,54 +1200,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1893.67</v>
+        <v>1355.22</v>
       </c>
       <c r="B32" t="n">
-        <v>2404.58</v>
+        <v>1596.87</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.37</v>
+        <v>1296.2</v>
       </c>
       <c r="D32" t="n">
-        <v>2306.42</v>
+        <v>1544.31</v>
       </c>
       <c r="E32" t="n">
-        <v>1334.66</v>
+        <v>1195.91</v>
       </c>
       <c r="F32" t="n">
-        <v>1744.53</v>
+        <v>1447.75</v>
       </c>
       <c r="G32" t="n">
-        <v>1316.68</v>
+        <v>1167.36</v>
       </c>
       <c r="H32" t="n">
-        <v>1710.98</v>
+        <v>1434.76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20177.53</v>
+        <v>16870.8</v>
       </c>
       <c r="B33" t="n">
-        <v>21454.8</v>
+        <v>17474.92</v>
       </c>
       <c r="C33" t="n">
-        <v>20029.28</v>
+        <v>16723.25</v>
       </c>
       <c r="D33" t="n">
-        <v>21209.4</v>
+        <v>17343.53</v>
       </c>
       <c r="E33" t="n">
-        <v>19780</v>
+        <v>20078.78</v>
       </c>
       <c r="F33" t="n">
-        <v>20804.67</v>
+        <v>20708.38</v>
       </c>
       <c r="G33" t="n">
-        <v>19735.05</v>
+        <v>20007.4</v>
       </c>
       <c r="H33" t="n">
-        <v>20720.8</v>
+        <v>20675.9</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>49.06</v>
+        <v>58.67</v>
       </c>
       <c r="B34" t="n">
         <v>52.4</v>
       </c>
       <c r="C34" t="n">
-        <v>47.92</v>
+        <v>55.24</v>
       </c>
       <c r="D34" t="n">
         <v>51.58</v>
       </c>
       <c r="E34" t="n">
-        <v>49.06</v>
+        <v>58.67</v>
       </c>
       <c r="F34" t="n">
         <v>52.4</v>
       </c>
       <c r="G34" t="n">
-        <v>47.92</v>
+        <v>55.24</v>
       </c>
       <c r="H34" t="n">
         <v>51.58</v>
@@ -1283,25 +1283,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245.31</v>
+        <v>293.35</v>
       </c>
       <c r="B35" t="n">
         <v>262.02</v>
       </c>
       <c r="C35" t="n">
-        <v>239.62</v>
+        <v>276.21</v>
       </c>
       <c r="D35" t="n">
         <v>257.88</v>
       </c>
       <c r="E35" t="n">
-        <v>245.31</v>
+        <v>293.35</v>
       </c>
       <c r="F35" t="n">
         <v>262.02</v>
       </c>
       <c r="G35" t="n">
-        <v>239.62</v>
+        <v>276.21</v>
       </c>
       <c r="H35" t="n">
         <v>257.88</v>
@@ -1309,25 +1309,25 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>147.19</v>
+        <v>176.01</v>
       </c>
       <c r="B36" t="n">
         <v>157.21</v>
       </c>
       <c r="C36" t="n">
-        <v>143.77</v>
+        <v>165.73</v>
       </c>
       <c r="D36" t="n">
         <v>154.73</v>
       </c>
       <c r="E36" t="n">
-        <v>147.19</v>
+        <v>176.01</v>
       </c>
       <c r="F36" t="n">
         <v>157.21</v>
       </c>
       <c r="G36" t="n">
-        <v>143.77</v>
+        <v>165.73</v>
       </c>
       <c r="H36" t="n">
         <v>154.73</v>
@@ -1335,25 +1335,25 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>343.44</v>
+        <v>410.69</v>
       </c>
       <c r="B37" t="n">
         <v>366.82</v>
       </c>
       <c r="C37" t="n">
-        <v>335.47</v>
+        <v>386.7</v>
       </c>
       <c r="D37" t="n">
         <v>361.04</v>
       </c>
       <c r="E37" t="n">
-        <v>343.44</v>
+        <v>410.69</v>
       </c>
       <c r="F37" t="n">
         <v>366.82</v>
       </c>
       <c r="G37" t="n">
-        <v>335.47</v>
+        <v>386.7</v>
       </c>
       <c r="H37" t="n">
         <v>361.04</v>
@@ -1361,54 +1361,54 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20038.86</v>
+        <v>16901</v>
       </c>
       <c r="B38" t="n">
-        <v>21136.1</v>
+        <v>17589</v>
       </c>
       <c r="C38" t="n">
-        <v>19943.82</v>
+        <v>16812</v>
       </c>
       <c r="D38" t="n">
-        <v>20938.14</v>
+        <v>17462</v>
       </c>
       <c r="E38" t="n">
-        <v>18588.43</v>
+        <v>18157</v>
       </c>
       <c r="F38" t="n">
-        <v>19292.28</v>
+        <v>19472</v>
       </c>
       <c r="G38" t="n">
-        <v>18653.71</v>
+        <v>18464</v>
       </c>
       <c r="H38" t="n">
-        <v>19287.16</v>
+        <v>19527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.00872</v>
+        <v>0.00222</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.02089</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.00519</v>
+        <v>0.00657</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01765</v>
+        <v>0.00877</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.07767</v>
+        <v>-0.11815</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.09921000000000001</v>
+        <v>-0.08099000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.07020999999999999</v>
+        <v>-0.09828000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.09396</v>
+        <v>-0.07588</v>
       </c>
     </row>
     <row r="40">
@@ -1425,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.00489</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00723</v>
+        <v>0.00894</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.00795</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00677</v>
+        <v>0.00898</v>
       </c>
     </row>
     <row r="41">
@@ -1465,80 +1465,80 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.00872</v>
+        <v>0.00222</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.02089</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00519</v>
+        <v>0.00657</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01765</v>
+        <v>0.00877</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.07767</v>
+        <v>-0.11326</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.09198000000000001</v>
+        <v>-0.07205</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.07020999999999999</v>
+        <v>-0.09033000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.08719</v>
+        <v>-0.0669</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19656.63</v>
+        <v>16528</v>
       </c>
       <c r="B43" t="n">
-        <v>20859.46</v>
+        <v>17295</v>
       </c>
       <c r="C43" t="n">
-        <v>19541.27</v>
+        <v>16470</v>
       </c>
       <c r="D43" t="n">
-        <v>20629.19</v>
+        <v>17184</v>
       </c>
       <c r="E43" t="n">
-        <v>19181.46</v>
+        <v>22331</v>
       </c>
       <c r="F43" t="n">
-        <v>20330.44</v>
+        <v>21651</v>
       </c>
       <c r="G43" t="n">
-        <v>19106.42</v>
+        <v>21517</v>
       </c>
       <c r="H43" t="n">
-        <v>20211.22</v>
+        <v>21463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.03459</v>
+        <v>-0.02545</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.03997</v>
+        <v>-0.01333</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.03227</v>
+        <v>-0.0188</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03886</v>
+        <v>-0.01181</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.03693</v>
+        <v>-0.01414</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02696</v>
+        <v>-0.03569</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0393</v>
+        <v>-0.02748</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.02982</v>
+        <v>-0.03755</v>
       </c>
     </row>
     <row r="45">
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.16774</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.00188</v>
+        <v>0.10111</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.13118</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.00117</v>
+        <v>0.09248000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-0.0218</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.01026</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.01534</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.008880000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.03459</v>
+        <v>-0.02545</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.03997</v>
+        <v>-0.01333</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.03227</v>
+        <v>-0.0188</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03886</v>
+        <v>-0.01181</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.03693</v>
+        <v>0.1318</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.02884</v>
+        <v>0.05516000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0393</v>
+        <v>0.08835999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.03099</v>
+        <v>0.04605000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1633,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1652,80 +1652,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1318.95</v>
+        <v>817.86</v>
       </c>
       <c r="B49" t="n">
-        <v>1485.9</v>
+        <v>760.27</v>
       </c>
       <c r="C49" t="n">
-        <v>1717.09</v>
+        <v>985.91</v>
       </c>
       <c r="D49" t="n">
-        <v>1940.09</v>
+        <v>956.08</v>
       </c>
       <c r="E49" t="n">
-        <v>1202.21</v>
+        <v>960.02</v>
       </c>
       <c r="F49" t="n">
-        <v>1332.69</v>
+        <v>919.58</v>
       </c>
       <c r="G49" t="n">
-        <v>1501.73</v>
+        <v>1086.73</v>
       </c>
       <c r="H49" t="n">
-        <v>1671.07</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16.7</v>
+        <v>11.74</v>
       </c>
       <c r="B50" t="n">
-        <v>16.59</v>
+        <v>13.75</v>
       </c>
       <c r="C50" t="n">
-        <v>15.76</v>
+        <v>11.52</v>
       </c>
       <c r="D50" t="n">
-        <v>15.46</v>
+        <v>12.88</v>
       </c>
       <c r="E50" t="n">
-        <v>16.29</v>
+        <v>15.86</v>
       </c>
       <c r="F50" t="n">
-        <v>16.17</v>
+        <v>17.22</v>
       </c>
       <c r="G50" t="n">
-        <v>15.41</v>
+        <v>15.05</v>
       </c>
       <c r="H50" t="n">
-        <v>15.14</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="B51" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="C51" t="n">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="D51" t="n">
-        <v>2.59</v>
+        <v>2.16</v>
       </c>
       <c r="E51" t="n">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="F51" t="n">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="G51" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H51" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="52">
@@ -1756,25 +1756,25 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.58397</v>
+        <v>0.6766799999999999</v>
       </c>
       <c r="B53" t="n">
         <v>0.61998</v>
       </c>
       <c r="C53" t="n">
-        <v>0.57063</v>
+        <v>0.64728</v>
       </c>
       <c r="D53" t="n">
         <v>0.61149</v>
       </c>
       <c r="E53" t="n">
-        <v>0.58397</v>
+        <v>0.6766799999999999</v>
       </c>
       <c r="F53" t="n">
         <v>0.61998</v>
       </c>
       <c r="G53" t="n">
-        <v>0.57063</v>
+        <v>0.64728</v>
       </c>
       <c r="H53" t="n">
         <v>0.61149</v>
@@ -1785,56 +1785,87 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3547</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Момент инерции рельса</t>
+        </is>
+      </c>
+    </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="B55" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="C55" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="D55" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="E55" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F55" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G55" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H55" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.506</v>
+        <v>0.455</v>
       </c>
       <c r="B56" t="n">
-        <v>0.503</v>
+        <v>0.531</v>
       </c>
       <c r="C56" t="n">
-        <v>0.477</v>
+        <v>0.446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.468</v>
+        <v>0.499</v>
       </c>
       <c r="E56" t="n">
-        <v>0.494</v>
+        <v>0.613</v>
       </c>
       <c r="F56" t="n">
-        <v>0.49</v>
+        <v>0.663</v>
       </c>
       <c r="G56" t="n">
-        <v>0.467</v>
+        <v>0.581</v>
       </c>
       <c r="H56" t="n">
-        <v>0.459</v>
+        <v>0.62</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1844,28 +1875,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="C57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="E57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="F57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="G57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="H57" t="n">
-        <v>0.325</v>
+        <v>0.272</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1875,28 +1906,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="B58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="D58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="E58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="G58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="H58" t="n">
-        <v>0.205</v>
+        <v>0.263</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1906,28 +1937,28 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="E59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -1937,28 +1968,28 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="F60" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G60" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="H60" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -1980,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -1999,59 +2030,69 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>[бз_Вагон]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" t="n">
+        <v>50</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>высота насыпи</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2061,28 +2102,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B67" t="n">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C67" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D67" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E67" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F67" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G67" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H67" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2128,10 +2169,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="D70" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2144,10 +2185,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="H70" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71">
@@ -2178,54 +2219,54 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="B72" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C72" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D72" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="E72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="G73" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="H73" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74">
@@ -2242,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2266,7 +2307,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2276,7 +2317,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2286,7 +2327,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2296,7 +2337,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2306,7 +2347,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2316,28 +2357,28 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="F81" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="G81" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="H81" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2347,28 +2388,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.01178</v>
+        <v>-0.008319999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.01814</v>
+        <v>-0.00124</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.009730000000000001</v>
+        <v>-0.00399</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01654</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.03279</v>
+        <v>0.13085</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0382</v>
+        <v>0.04818</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.03058</v>
+        <v>0.08427</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.03702</v>
+        <v>0.03823</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2378,28 +2419,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="H83" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -2409,28 +2450,28 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -2471,28 +2512,28 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -2564,28 +2605,28 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="B89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="C89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="D89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="E89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="G89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="H89" t="n">
-        <v>0.26</v>
+        <v/>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -2595,152 +2636,128 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>kd_vag</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2189.2</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Pmax_p_loc</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="G92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>5257.800000000001</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Pmax_p_vag</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.04886</v>
+        <v>-0.04248</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.0456</v>
+        <v>-0.03484</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04909</v>
+        <v>-0.03926</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.04676</v>
+        <v>-0.0333</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05301</v>
+        <v>0.46439</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08422</v>
+        <v>0.41096</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04315</v>
+        <v>0.43498</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0762</v>
+        <v>0.40392</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>сигма тета 3 шпала</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3052</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3052</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3052</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Pmax_p_zmax</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Pmax_p_kd</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11601.15</v>
+        <v>11303.96</v>
       </c>
       <c r="B100" t="n">
-        <v>13021.4</v>
+        <v>10817.38</v>
       </c>
       <c r="C100" t="n">
-        <v>11279.04</v>
+        <v>10770.83</v>
       </c>
       <c r="D100" t="n">
-        <v>12713.9</v>
+        <v>10597.31</v>
       </c>
       <c r="E100" t="n">
-        <v>11011.75</v>
+        <v>15823</v>
       </c>
       <c r="F100" t="n">
-        <v>12270.34</v>
+        <v>13662.13</v>
       </c>
       <c r="G100" t="n">
-        <v>10758.57</v>
+        <v>14390.48</v>
       </c>
       <c r="H100" t="n">
-        <v>12061.83</v>
+        <v>13296.42</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2750,28 +2767,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11028.51</v>
+        <v>10843.39</v>
       </c>
       <c r="B101" t="n">
-        <v>12597.33</v>
+        <v>10364.36</v>
       </c>
       <c r="C101" t="n">
-        <v>10671.19</v>
+        <v>10295.29</v>
       </c>
       <c r="D101" t="n">
-        <v>12247.2</v>
+        <v>10156.42</v>
       </c>
       <c r="E101" t="n">
-        <v>12422.59</v>
+        <v>21522.87</v>
       </c>
       <c r="F101" t="n">
-        <v>14283.34</v>
+        <v>19861.68</v>
       </c>
       <c r="G101" t="n">
-        <v>11970.94</v>
+        <v>20383.76</v>
       </c>
       <c r="H101" t="n">
-        <v>13923.55</v>
+        <v>19545.69</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2781,28 +2798,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="B102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="C102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="E102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="F102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="G102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="H102" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2812,28 +2829,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2843,28 +2860,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="B104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="C104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="D104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="E104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="F104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="G104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="H104" t="n">
-        <v>1.768</v>
+        <v>2.561</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2874,28 +2891,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1436</v>
+        <v>0.1741</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2905,28 +2922,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="B106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="C106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="D106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="E106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="F106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="G106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="H106" t="n">
-        <v>0.765</v>
+        <v>0.915</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2942,10 +2959,10 @@
         <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>3380</v>
+        <v>2982</v>
       </c>
       <c r="D107" t="n">
-        <v>3380</v>
+        <v>2982</v>
       </c>
       <c r="E107" t="n">
         <v>5830</v>
@@ -2954,10 +2971,10 @@
         <v>5830</v>
       </c>
       <c r="G107" t="n">
-        <v>3380</v>
+        <v>2982</v>
       </c>
       <c r="H107" t="n">
-        <v>3380</v>
+        <v>2982</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2973,10 +2990,10 @@
         <v>0.585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
       <c r="D108" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
       <c r="E108" t="n">
         <v>0.585</v>
@@ -2985,10 +3002,10 @@
         <v>0.585</v>
       </c>
       <c r="G108" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
       <c r="H108" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -2998,28 +3015,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H113" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3029,28 +3046,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="B114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="C114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="D114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="E114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="F114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="G114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="H114" t="n">
-        <v>3998.07</v>
+        <v>3992.65</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3060,28 +3077,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H115" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3091,28 +3108,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="B116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="C116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="D116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="E116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="F116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="G116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="H116" t="n">
-        <v>4008.92</v>
+        <v>4008.35</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -3122,28 +3139,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="B117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="C117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="D117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="E117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="F117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="G117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="H117" t="n">
-        <v>2066.4</v>
+        <v>2797.2</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -3153,28 +3170,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="B118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="C118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="D118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="E118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="F118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="G118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="H118" t="n">
-        <v>1486.8</v>
+        <v>2595.6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -3184,28 +3201,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="B121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="C121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="D121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="E121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="F121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="G121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="H121" t="n">
-        <v>1485.9</v>
+        <v>919.58</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -3215,28 +3232,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="B122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="C122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="D122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="E122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="F122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="G122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="H122" t="n">
-        <v>1940.09</v>
+        <v>1086.73</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -3277,28 +3294,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="B124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="C124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="D124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="E124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="F124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="G124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="H124" t="n">
-        <v>2322.78</v>
+        <v>2167.37</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -3339,28 +3356,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="B126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="C126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="D126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="E126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="F126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="G126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="H126" t="n">
-        <v>236857.64</v>
+        <v>221010.23</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3401,28 +3418,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="B128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="C128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="D128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="E128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="F128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="G128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="H128" t="n">
-        <v>157905.09</v>
+        <v>147340.15</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3525,28 +3542,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H132" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3557,58 +3574,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.016×230 = 3.68; η = -0.03459
-III ось: x = 230+230 см; kx = 0.016×460 = 7.36; η = 0
-VI ось: x = 230+230+0 см; kx = 0.016×460 = 7.36; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; η = -0.02545
+III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01498×230 = 3.45; η = -0.03997
-III ось: x = 230+230 см; kx = 0.01498×460 = 6.89; η = 0
-VI ось: x = 230+230+0 см; kx = 0.01498×460 = 6.89; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01498×300 = 4.49; η = -0.01333
+III ось: x = 0+300 см; kx = 0.01498×300 = 4.49; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01498×300 = 4.49; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01638×230 = 3.77; η = -0.03227
-III ось: x = 230+230 см; kx = 0.01638×460 = 7.53; η = 0
-VI ось: x = 230+230+0 см; kx = 0.01638×460 = 7.53; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; η = -0.0188
+III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01522×230 = 3.50; η = -0.03886
-III ось: x = 230+230 см; kx = 0.01522×460 = 7.00; η = 0
-VI ось: x = 230+230+0 см; kx = 0.01522×460 = 7.00; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; η = -0.01181
+III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.016×175 = 2.80; η = -0.03693
-III ось: x = 175+175 см; kx = 0.016×350 = 5.60; η = 0
-VI ось: x = 175+175+0 см; kx = 0.016×350 = 5.60; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01338×185 = 2.48; η = -0.01414
+III ось: x = 125 см; kx = 0.01338×125 = 1.67; η = 0.16774
+VI ось: x = 125+185 см; kx = 0.01338×310 = 4.15; η = -0.0218</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01498×175 = 2.62; η = -0.02696
-III ось: x = 175+175 см; kx = 0.01498×350 = 5.24; η = -0.00188
-VI ось: x = 175+175+0 см; kx = 0.01498×350 = 5.24; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01498×185 = 2.77; η = -0.03569
+III ось: x = 125 см; kx = 0.01498×125 = 1.87; η = 0.10111
+VI ось: x = 125+185 см; kx = 0.01498×310 = 4.64; η = -0.01026</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01638×175 = 2.87; η = -0.0393
-III ось: x = 175+175 см; kx = 0.01638×350 = 5.73; η = 0
-VI ось: x = 175+175+0 см; kx = 0.01638×350 = 5.73; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01421×185 = 2.63; η = -0.02748
+III ось: x = 125 см; kx = 0.01421×125 = 1.78; η = 0.13118
+VI ось: x = 125+185 см; kx = 0.01421×310 = 4.41; η = -0.01534</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; η = -0.02982
-III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; η = -0.00117
-VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01522×185 = 2.82; η = -0.03755
+III ось: x = 125 см; kx = 0.01522×125 = 1.90; η = 0.09248
+VI ось: x = 125+185 см; kx = 0.01522×310 = 4.72; η = -0.00888</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3620,58 +3637,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.016×230 = 3.68; µ = -0.00872
-III ось: x = 230+230 см; kx = 0.016×460 = 7.36; µ = 0.00000
-VI ось: x = 230+230+0 см; kx = 0.016×460 = 7.36; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; µ = 0.00222
+III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01498×230 = 3.45; µ = -0.02089
-III ось: x = 230+230 см; kx = 0.01498×460 = 6.89; µ = 0.00000
-VI ось: x = 230+230+0 см; kx = 0.01498×460 = 6.89; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01498×300 = 4.49; µ = 0.00849
+III ось: x = 0+300 см; kx = 0.01498×300 = 4.49; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01498×300 = 4.49; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01638×230 = 3.77; µ = -0.00519
-III ось: x = 230+230 см; kx = 0.01638×460 = 7.53; µ = 0.00000
-VI ось: x = 230+230+0 см; kx = 0.01638×460 = 7.53; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; µ = 0.00657
+III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 230 см; kx = 0.01522×230 = 3.50; µ = -0.01765
-III ось: x = 230+230 см; kx = 0.01522×460 = 7.00; µ = 0.00000
-VI ось: x = 230+230+0 см; kx = 0.01522×460 = 7.00; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; µ = 0.00877
+III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.016×175 = 2.80; µ = -0.07767
-III ось: x = 175+175 см; kx = 0.016×350 = 5.60; µ = 0.00000
-VI ось: x = 175+175+0 см; kx = 0.016×350 = 5.60; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01338×185 = 2.48; µ = -0.11815
+III ось: x = 125+185 см; kx = 0.01338×310 = 4.15; µ = 0.00489
+VI ось: x = 185+125+185 см; kx = 0.01338×495 = 6.62; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01498×175 = 2.62; µ = -0.09921
-III ось: x = 175+175 см; kx = 0.01498×350 = 5.24; µ = 0.00723
-VI ось: x = 175+175+0 см; kx = 0.01498×350 = 5.24; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01498×185 = 2.77; µ = -0.08099
+III ось: x = 125+185 см; kx = 0.01498×310 = 4.64; µ = 0.00894
+VI ось: x = 185+125+185 см; kx = 0.01498×495 = 7.42; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01638×175 = 2.87; µ = -0.07021
-III ось: x = 175+175 см; kx = 0.01638×350 = 5.73; µ = 0.00000
-VI ось: x = 175+175+0 см; kx = 0.01638×350 = 5.73; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01421×185 = 2.63; µ = -0.09828
+III ось: x = 125+185 см; kx = 0.01421×310 = 4.41; µ = 0.00795
+VI ось: x = 185+125+185 см; kx = 0.01421×495 = 7.03; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; µ = -0.09396
-III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; µ = 0.00677
-VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01522×185 = 2.82; µ = -0.07588
+III ось: x = 125+185 см; kx = 0.01522×310 = 4.72; µ = 0.00898
+VI ось: x = 185+125+185 см; kx = 0.01522×495 = 7.53; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3683,66 +3700,66 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016×55 = 0.88; η = 0.58397
-ηII: x = 175 + 55 см; kx = 0.016×230 = 3.68; η = -0.03459
-ηIII: x = 350 + 55 см; kx = 0.016 × 405 = 6.48; η = 0.00180
-</t>
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
+ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3754,66 +3771,66 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58397
-ηII: x = 175 - 55 см; kx = 0.016 × 120 = 1.92; η = 0.08760
-ηIII: x = 350 - 55 см; kx = 0.016 × 295 = 4.72; η = -0.00885
-</t>
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
+ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
+ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3824,28 +3841,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H137" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3855,28 +3872,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="B138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="C138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="D138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="E138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="F138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="G138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="H138" t="n">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3886,28 +3903,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H139" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -3917,28 +3934,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="B140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="C140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="D140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="E140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="F140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="G140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="H140" t="n">
-        <v>87.25</v>
+        <v>128.69</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3948,28 +3965,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="B141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="C141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="D141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="E141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="F141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="G141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="H141" t="n">
-        <v>131.33</v>
+        <v>160.33</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3979,28 +3996,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H142" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4010,28 +4027,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H143" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4041,28 +4058,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4072,28 +4089,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4103,28 +4120,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="B146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="C146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="D146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="E146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="F146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="G146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="H146" t="n">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4135,42 +4152,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -2605,28 +2605,28 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -2636,28 +2636,28 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3872,28 +3872,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="B138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="C138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="D138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="E138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="F138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="G138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="H138" t="n">
-        <v>-14</v>
+        <v>-47</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3903,28 +3903,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="H139" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -4027,28 +4027,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H143" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>ВЛ80</t>
+          <t>ВЛ15</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>6-осный</t>
         </is>
       </c>
     </row>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="H2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E4" t="n">
-        <v>14800</v>
+        <v>13100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2760</v>
+        <v>3050</v>
       </c>
       <c r="E6" t="n">
-        <v>995</v>
+        <v>1070</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -612,69 +612,69 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P65</t>
+          <t>Р65</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="B11" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="C11" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="D11" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="E11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>НЕТУ</t>
+          <t>Вагон</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -715,51 +715,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>185+125+185</t>
+          <t>175+175</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>17.04</v>
+        <v>17.84</v>
       </c>
       <c r="E15" t="n">
-        <v>15.26</v>
+        <v>17.56</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -845,10 +845,10 @@
         <v>0.01338</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01498</v>
+        <v>0.01421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01421</v>
+        <v>0.01386</v>
       </c>
       <c r="D18" t="n">
         <v>0.01522</v>
@@ -857,10 +857,10 @@
         <v>0.01338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01498</v>
+        <v>0.01421</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01421</v>
+        <v>0.01386</v>
       </c>
       <c r="H18" t="n">
         <v>0.01522</v>
@@ -1013,28 +1013,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="B25" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="C25" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="D25" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="E25" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="F25" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="G25" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="H25" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1044,132 +1044,132 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1483</v>
+        <v>2033</v>
       </c>
       <c r="B26" t="n">
-        <v>1483</v>
+        <v>2033</v>
       </c>
       <c r="C26" t="n">
-        <v>1483</v>
+        <v>2033</v>
       </c>
       <c r="D26" t="n">
-        <v>1483</v>
+        <v>2033</v>
       </c>
       <c r="E26" t="n">
-        <v>2289</v>
+        <v>2568</v>
       </c>
       <c r="F26" t="n">
-        <v>2289</v>
+        <v>2568</v>
       </c>
       <c r="G26" t="n">
-        <v>2289</v>
+        <v>2568</v>
       </c>
       <c r="H26" t="n">
-        <v>2289</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13482.75</v>
+        <v>13533.25</v>
       </c>
       <c r="B27" t="n">
-        <v>13482.75</v>
+        <v>13533.25</v>
       </c>
       <c r="C27" t="n">
-        <v>13482.75</v>
+        <v>13533.25</v>
       </c>
       <c r="D27" t="n">
-        <v>13482.75</v>
+        <v>13533.25</v>
       </c>
       <c r="E27" t="n">
-        <v>17089</v>
+        <v>15668</v>
       </c>
       <c r="F27" t="n">
-        <v>17089</v>
+        <v>15668</v>
       </c>
       <c r="G27" t="n">
-        <v>17089</v>
+        <v>15668</v>
       </c>
       <c r="H27" t="n">
-        <v>17089</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>158.16</v>
+        <v>216.88</v>
       </c>
       <c r="B28" t="n">
-        <v>158.16</v>
+        <v>216.88</v>
       </c>
       <c r="C28" t="n">
-        <v>158.16</v>
+        <v>216.88</v>
       </c>
       <c r="D28" t="n">
-        <v>158.16</v>
+        <v>216.88</v>
       </c>
       <c r="E28" t="n">
-        <v>244.16</v>
+        <v>273.92</v>
       </c>
       <c r="F28" t="n">
-        <v>244.16</v>
+        <v>273.92</v>
       </c>
       <c r="G28" t="n">
-        <v>244.16</v>
+        <v>273.92</v>
       </c>
       <c r="H28" t="n">
-        <v>244.16</v>
+        <v>273.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1256.45</v>
+        <v>1408.62</v>
       </c>
       <c r="B29" t="n">
-        <v>1454.33</v>
+        <v>1674.06</v>
       </c>
       <c r="C29" t="n">
-        <v>1185.72</v>
+        <v>1346</v>
       </c>
       <c r="D29" t="n">
-        <v>1381.77</v>
+        <v>1549.11</v>
       </c>
       <c r="E29" t="n">
-        <v>956.1799999999999</v>
+        <v>965.9400000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>1106.78</v>
+        <v>1147.95</v>
       </c>
       <c r="G29" t="n">
-        <v>902.35</v>
+        <v>922.99</v>
       </c>
       <c r="H29" t="n">
-        <v>1051.55</v>
+        <v>1062.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131.45</v>
+        <v>157.13</v>
       </c>
       <c r="B30" t="n">
-        <v>149.57</v>
+        <v>182.69</v>
       </c>
       <c r="C30" t="n">
-        <v>133.46</v>
+        <v>161.2</v>
       </c>
       <c r="D30" t="n">
-        <v>152.9</v>
+        <v>182.35</v>
       </c>
       <c r="E30" t="n">
-        <v>131.03</v>
+        <v>153.65</v>
       </c>
       <c r="F30" t="n">
-        <v>150.8</v>
+        <v>181.32</v>
       </c>
       <c r="G30" t="n">
-        <v>133.24</v>
+        <v>158.11</v>
       </c>
       <c r="H30" t="n">
-        <v>154.39</v>
+        <v>180.96</v>
       </c>
     </row>
     <row r="31">
@@ -1177,10 +1177,10 @@
         <v>2080.96</v>
       </c>
       <c r="B31" t="n">
-        <v>2788.04</v>
+        <v>2939.12</v>
       </c>
       <c r="C31" t="n">
-        <v>2155.36</v>
+        <v>2209.78</v>
       </c>
       <c r="D31" t="n">
         <v>2927.02</v>
@@ -1189,10 +1189,10 @@
         <v>2966.48</v>
       </c>
       <c r="F31" t="n">
-        <v>3974.45</v>
+        <v>4189.81</v>
       </c>
       <c r="G31" t="n">
-        <v>3072.53</v>
+        <v>3150.12</v>
       </c>
       <c r="H31" t="n">
         <v>4172.56</v>
@@ -1200,54 +1200,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1355.22</v>
+        <v>1507.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1596.87</v>
+        <v>1820.2</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.2</v>
+        <v>1458.63</v>
       </c>
       <c r="D32" t="n">
-        <v>1544.31</v>
+        <v>1704.92</v>
       </c>
       <c r="E32" t="n">
-        <v>1195.91</v>
+        <v>1212.64</v>
       </c>
       <c r="F32" t="n">
-        <v>1447.75</v>
+        <v>1517.16</v>
       </c>
       <c r="G32" t="n">
-        <v>1167.36</v>
+        <v>1202.85</v>
       </c>
       <c r="H32" t="n">
-        <v>1434.76</v>
+        <v>1450.89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16870.8</v>
+        <v>17300.9</v>
       </c>
       <c r="B33" t="n">
-        <v>17474.92</v>
+        <v>18083.75</v>
       </c>
       <c r="C33" t="n">
-        <v>16723.25</v>
+        <v>17179.82</v>
       </c>
       <c r="D33" t="n">
-        <v>17343.53</v>
+        <v>17795.55</v>
       </c>
       <c r="E33" t="n">
-        <v>20078.78</v>
+        <v>18699.6</v>
       </c>
       <c r="F33" t="n">
-        <v>20708.38</v>
+        <v>19460.9</v>
       </c>
       <c r="G33" t="n">
-        <v>20007.4</v>
+        <v>18675.12</v>
       </c>
       <c r="H33" t="n">
-        <v>20675.9</v>
+        <v>19295.22</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1260,10 +1260,10 @@
         <v>58.67</v>
       </c>
       <c r="B34" t="n">
-        <v>52.4</v>
+        <v>55.24</v>
       </c>
       <c r="C34" t="n">
-        <v>55.24</v>
+        <v>56.64</v>
       </c>
       <c r="D34" t="n">
         <v>51.58</v>
@@ -1272,10 +1272,10 @@
         <v>58.67</v>
       </c>
       <c r="F34" t="n">
-        <v>52.4</v>
+        <v>55.24</v>
       </c>
       <c r="G34" t="n">
-        <v>55.24</v>
+        <v>56.64</v>
       </c>
       <c r="H34" t="n">
         <v>51.58</v>
@@ -1286,10 +1286,10 @@
         <v>293.35</v>
       </c>
       <c r="B35" t="n">
-        <v>262.02</v>
+        <v>276.21</v>
       </c>
       <c r="C35" t="n">
-        <v>276.21</v>
+        <v>283.19</v>
       </c>
       <c r="D35" t="n">
         <v>257.88</v>
@@ -1298,10 +1298,10 @@
         <v>293.35</v>
       </c>
       <c r="F35" t="n">
-        <v>262.02</v>
+        <v>276.21</v>
       </c>
       <c r="G35" t="n">
-        <v>276.21</v>
+        <v>283.19</v>
       </c>
       <c r="H35" t="n">
         <v>257.88</v>
@@ -1312,10 +1312,10 @@
         <v>176.01</v>
       </c>
       <c r="B36" t="n">
-        <v>157.21</v>
+        <v>165.73</v>
       </c>
       <c r="C36" t="n">
-        <v>165.73</v>
+        <v>169.91</v>
       </c>
       <c r="D36" t="n">
         <v>154.73</v>
@@ -1324,10 +1324,10 @@
         <v>176.01</v>
       </c>
       <c r="F36" t="n">
-        <v>157.21</v>
+        <v>165.73</v>
       </c>
       <c r="G36" t="n">
-        <v>165.73</v>
+        <v>169.91</v>
       </c>
       <c r="H36" t="n">
         <v>154.73</v>
@@ -1338,10 +1338,10 @@
         <v>410.69</v>
       </c>
       <c r="B37" t="n">
-        <v>366.82</v>
+        <v>386.7</v>
       </c>
       <c r="C37" t="n">
-        <v>386.7</v>
+        <v>396.46</v>
       </c>
       <c r="D37" t="n">
         <v>361.04</v>
@@ -1350,10 +1350,10 @@
         <v>410.69</v>
       </c>
       <c r="F37" t="n">
-        <v>366.82</v>
+        <v>386.7</v>
       </c>
       <c r="G37" t="n">
-        <v>386.7</v>
+        <v>396.46</v>
       </c>
       <c r="H37" t="n">
         <v>361.04</v>
@@ -1361,54 +1361,54 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16901</v>
+        <v>17282</v>
       </c>
       <c r="B38" t="n">
-        <v>17589</v>
+        <v>18144</v>
       </c>
       <c r="C38" t="n">
-        <v>16812</v>
+        <v>17212</v>
       </c>
       <c r="D38" t="n">
-        <v>17462</v>
+        <v>17904</v>
       </c>
       <c r="E38" t="n">
-        <v>18157</v>
+        <v>16709</v>
       </c>
       <c r="F38" t="n">
-        <v>19472</v>
+        <v>17766</v>
       </c>
       <c r="G38" t="n">
-        <v>18464</v>
+        <v>16859</v>
       </c>
       <c r="H38" t="n">
-        <v>19527</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.00222</v>
+        <v>-0.00137</v>
       </c>
       <c r="B39" t="n">
-        <v>0.008489999999999999</v>
+        <v>0.00442</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00657</v>
+        <v>0.00234</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00877</v>
+        <v>0.00801</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.11815</v>
+        <v>-0.13601</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.08099000000000001</v>
+        <v>-0.11663</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.09828000000000001</v>
+        <v>-0.12476</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.07588</v>
+        <v>-0.09396</v>
       </c>
     </row>
     <row r="40">
@@ -1425,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00489</v>
+        <v>0.00898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00894</v>
+        <v>0.00847</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00795</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00898</v>
+        <v>0.00677</v>
       </c>
     </row>
     <row r="41">
@@ -1465,80 +1465,80 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.00222</v>
+        <v>-0.00137</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008489999999999999</v>
+        <v>0.00442</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00657</v>
+        <v>0.00234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00877</v>
+        <v>0.00801</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.11326</v>
+        <v>-0.12703</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.07205</v>
+        <v>-0.10816</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.09033000000000001</v>
+        <v>-0.11593</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0669</v>
+        <v>-0.08719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16528</v>
+        <v>16906</v>
       </c>
       <c r="B43" t="n">
-        <v>17295</v>
+        <v>17779</v>
       </c>
       <c r="C43" t="n">
-        <v>16470</v>
+        <v>16837</v>
       </c>
       <c r="D43" t="n">
-        <v>17184</v>
+        <v>17591</v>
       </c>
       <c r="E43" t="n">
-        <v>22331</v>
+        <v>18762</v>
       </c>
       <c r="F43" t="n">
-        <v>21651</v>
+        <v>19144</v>
       </c>
       <c r="G43" t="n">
-        <v>21517</v>
+        <v>18435</v>
       </c>
       <c r="H43" t="n">
-        <v>21463</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.02545</v>
+        <v>-0.02917</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.01333</v>
+        <v>-0.02252</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0188</v>
+        <v>-0.0253</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01181</v>
+        <v>-0.01514</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.01414</v>
+        <v>0.002</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03569</v>
+        <v>-0.01531</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02748</v>
+        <v>-0.008659999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03755</v>
+        <v>-0.02982</v>
       </c>
     </row>
     <row r="45">
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.16774</v>
+        <v>0.002</v>
       </c>
       <c r="F45" t="n">
-        <v>0.10111</v>
+        <v>-0.0049</v>
       </c>
       <c r="G45" t="n">
-        <v>0.13118</v>
+        <v>-0.00666</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09248000000000001</v>
+        <v>-0.00117</v>
       </c>
     </row>
     <row r="46">
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0218</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01026</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01534</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.008880000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.02545</v>
+        <v>-0.02917</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.01333</v>
+        <v>-0.02252</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0188</v>
+        <v>-0.0253</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01181</v>
+        <v>-0.01514</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1318</v>
+        <v>0.004</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05516000000000001</v>
+        <v>-0.02021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.08835999999999999</v>
+        <v>-0.01532</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04605000000000001</v>
+        <v>-0.03099</v>
       </c>
     </row>
     <row r="48">
@@ -1636,13 +1636,13 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1652,80 +1652,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>817.86</v>
+        <v>898.28</v>
       </c>
       <c r="B49" t="n">
-        <v>760.27</v>
+        <v>887.96</v>
       </c>
       <c r="C49" t="n">
-        <v>985.91</v>
+        <v>975.29</v>
       </c>
       <c r="D49" t="n">
-        <v>956.08</v>
+        <v>923.87</v>
       </c>
       <c r="E49" t="n">
-        <v>960.02</v>
+        <v>846.02</v>
       </c>
       <c r="F49" t="n">
-        <v>919.58</v>
+        <v>847</v>
       </c>
       <c r="G49" t="n">
-        <v>1086.73</v>
+        <v>1028.21</v>
       </c>
       <c r="H49" t="n">
-        <v>1073</v>
+        <v>995.79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.74</v>
+        <v>12.01</v>
       </c>
       <c r="B50" t="n">
-        <v>13.75</v>
+        <v>13.41</v>
       </c>
       <c r="C50" t="n">
-        <v>11.52</v>
+        <v>11.49</v>
       </c>
       <c r="D50" t="n">
-        <v>12.88</v>
+        <v>13.18</v>
       </c>
       <c r="E50" t="n">
-        <v>15.86</v>
+        <v>13.33</v>
       </c>
       <c r="F50" t="n">
-        <v>17.22</v>
+        <v>14.44</v>
       </c>
       <c r="G50" t="n">
-        <v>15.05</v>
+        <v>12.58</v>
       </c>
       <c r="H50" t="n">
-        <v>16.08</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="B51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="C51" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="D51" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="E51" t="n">
-        <v>2.66</v>
+        <v>2.23</v>
       </c>
       <c r="F51" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="G51" t="n">
-        <v>2.52</v>
+        <v>2.11</v>
       </c>
       <c r="H51" t="n">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="52">
@@ -1759,10 +1759,10 @@
         <v>0.6766799999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>0.61998</v>
+        <v>0.64728</v>
       </c>
       <c r="C53" t="n">
-        <v>0.64728</v>
+        <v>0.65968</v>
       </c>
       <c r="D53" t="n">
         <v>0.61149</v>
@@ -1771,10 +1771,10 @@
         <v>0.6766799999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.61998</v>
+        <v>0.64728</v>
       </c>
       <c r="G53" t="n">
-        <v>0.64728</v>
+        <v>0.65968</v>
       </c>
       <c r="H53" t="n">
         <v>0.61149</v>
@@ -1818,54 +1818,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C55" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="D55" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E55" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="F55" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="G55" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="H55" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.455</v>
+        <v>0.464</v>
       </c>
       <c r="B56" t="n">
-        <v>0.531</v>
+        <v>0.519</v>
       </c>
       <c r="C56" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="D56" t="n">
-        <v>0.499</v>
+        <v>0.51</v>
       </c>
       <c r="E56" t="n">
-        <v>0.613</v>
+        <v>0.515</v>
       </c>
       <c r="F56" t="n">
-        <v>0.663</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.581</v>
+        <v>0.487</v>
       </c>
       <c r="H56" t="n">
-        <v>0.62</v>
+        <v>0.544</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1937,28 +1937,28 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C59" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H59" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="G60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H60" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2030,28 +2030,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2102,28 +2102,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B67" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C67" t="n">
         <v>108</v>
       </c>
       <c r="D67" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F67" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G67" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H67" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D70" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="H70" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71">
@@ -2219,28 +2219,28 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B72" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C72" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D72" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H72" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73">
@@ -2257,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="G73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="H73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74">
@@ -2283,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="G81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="H81" t="n">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2388,28 +2388,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.008319999999999999</v>
+        <v>-0.0108</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.00124</v>
+        <v>-0.00589</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.00399</v>
+        <v>-0.00778</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.00181</v>
       </c>
       <c r="E82" t="n">
-        <v>0.13085</v>
+        <v>0.15063</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04818</v>
+        <v>-0.04144</v>
       </c>
       <c r="G82" t="n">
-        <v>0.08427</v>
+        <v>-0.04253</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03823</v>
+        <v>-0.03702</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2419,28 +2419,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -2450,28 +2450,28 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H84" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -2667,28 +2667,28 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.04248</v>
+        <v>-0.04321</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.03484</v>
+        <v>-0.04174</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03926</v>
+        <v>-0.04268</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0333</v>
+        <v>-0.03715</v>
       </c>
       <c r="E95" t="n">
-        <v>0.46439</v>
+        <v>0.15063</v>
       </c>
       <c r="F95" t="n">
-        <v>0.41096</v>
+        <v>0.11316</v>
       </c>
       <c r="G95" t="n">
-        <v>0.43498</v>
+        <v>0.12811</v>
       </c>
       <c r="H95" t="n">
-        <v>0.40392</v>
+        <v>0.0762</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2698,28 +2698,28 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="B96" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="C96" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="D96" t="n">
-        <v>1977</v>
+        <v>2711</v>
       </c>
       <c r="E96" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="F96" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="G96" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="H96" t="n">
-        <v>3052</v>
+        <v>3424</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -2736,28 +2736,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11303.96</v>
+        <v>11561.01</v>
       </c>
       <c r="B100" t="n">
-        <v>10817.38</v>
+        <v>11625.54</v>
       </c>
       <c r="C100" t="n">
-        <v>10770.83</v>
+        <v>11227.89</v>
       </c>
       <c r="D100" t="n">
-        <v>10597.31</v>
+        <v>10857.31</v>
       </c>
       <c r="E100" t="n">
-        <v>15823</v>
+        <v>15013.72</v>
       </c>
       <c r="F100" t="n">
-        <v>13662.13</v>
+        <v>11947.37</v>
       </c>
       <c r="G100" t="n">
-        <v>14390.48</v>
+        <v>11653.24</v>
       </c>
       <c r="H100" t="n">
-        <v>13296.42</v>
+        <v>11218.8</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2767,28 +2767,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10843.39</v>
+        <v>11122.4</v>
       </c>
       <c r="B101" t="n">
-        <v>10364.36</v>
+        <v>11140.37</v>
       </c>
       <c r="C101" t="n">
-        <v>10295.29</v>
+        <v>10755.58</v>
       </c>
       <c r="D101" t="n">
-        <v>10156.42</v>
+        <v>10379.04</v>
       </c>
       <c r="E101" t="n">
-        <v>21522.87</v>
+        <v>15013.72</v>
       </c>
       <c r="F101" t="n">
-        <v>19861.68</v>
+        <v>14369.64</v>
       </c>
       <c r="G101" t="n">
-        <v>20383.76</v>
+        <v>14326.83</v>
       </c>
       <c r="H101" t="n">
-        <v>19545.69</v>
+        <v>12992.74</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2798,28 +2798,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="B102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="C102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="D102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="E102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="F102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="G102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="H102" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2829,28 +2829,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1278</v>
+        <v>0.1217</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2860,28 +2860,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="B104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="C104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="D104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="E104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="F104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="G104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="H104" t="n">
-        <v>2.561</v>
+        <v>1.787</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2891,28 +2891,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1741</v>
+        <v>0.1215</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2922,28 +2922,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="B106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="C106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="D106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="E106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="F106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="G106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="H106" t="n">
-        <v>0.915</v>
+        <v>0.758</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2959,10 +2959,10 @@
         <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>2982</v>
+        <v>3610</v>
       </c>
       <c r="D107" t="n">
-        <v>2982</v>
+        <v>3610</v>
       </c>
       <c r="E107" t="n">
         <v>5830</v>
@@ -2971,10 +2971,10 @@
         <v>5830</v>
       </c>
       <c r="G107" t="n">
-        <v>2982</v>
+        <v>3610</v>
       </c>
       <c r="H107" t="n">
-        <v>2982</v>
+        <v>3610</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2990,10 +2990,10 @@
         <v>0.585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.309</v>
+        <v>0.385</v>
       </c>
       <c r="D108" t="n">
-        <v>0.309</v>
+        <v>0.385</v>
       </c>
       <c r="E108" t="n">
         <v>0.585</v>
@@ -3002,10 +3002,10 @@
         <v>0.585</v>
       </c>
       <c r="G108" t="n">
-        <v>0.309</v>
+        <v>0.385</v>
       </c>
       <c r="H108" t="n">
-        <v>0.309</v>
+        <v>0.385</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3015,28 +3015,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3046,28 +3046,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="B114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="C114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="D114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="E114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="F114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="G114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="H114" t="n">
-        <v>3992.65</v>
+        <v>4001.95</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3077,28 +3077,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H115" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3108,28 +3108,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="B116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="C116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="D116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="E116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="F116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="G116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="H116" t="n">
-        <v>4008.35</v>
+        <v>3990.93</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -3139,28 +3139,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="B117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="C117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="D117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="E117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="F117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="G117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="H117" t="n">
-        <v>2797.2</v>
+        <v>2847.6</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -3170,28 +3170,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="B118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="C118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="D118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="E118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="F118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="G118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="H118" t="n">
-        <v>2595.6</v>
+        <v>2696.4</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -3201,28 +3201,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="B121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="C121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="D121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="E121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="F121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="G121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="H121" t="n">
-        <v>919.58</v>
+        <v>887.96</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -3232,28 +3232,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="B122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="C122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="D122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="E122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="F122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="G122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="H122" t="n">
-        <v>1086.73</v>
+        <v>995.79</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -3294,28 +3294,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="B124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="C124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="D124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="E124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="F124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="G124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="H124" t="n">
-        <v>2167.37</v>
+        <v>2413.63</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -3356,28 +3356,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="B126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="C126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="D126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="E126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="F126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="G126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="H126" t="n">
-        <v>221010.23</v>
+        <v>246121.76</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3418,28 +3418,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="B128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="C128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="D128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="E128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="F128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="G128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="H128" t="n">
-        <v>147340.15</v>
+        <v>164081.17</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3542,28 +3542,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H132" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3574,58 +3574,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; η = -0.02545
-III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; η = 0</t>
+          <t>II ось: x = 290 см; kx = 0.01338×290 = 3.88; η = -0.02917
+III ось: x = 0+290 см; kx = 0.01338×290 = 3.88; η = 0
+VI ось: x = 290+0+0 см; kx = 0.01338×290 = 3.88; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01498×300 = 4.49; η = -0.01333
-III ось: x = 0+300 см; kx = 0.01498×300 = 4.49; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01498×300 = 4.49; η = 0</t>
+          <t>II ось: x = 290 см; kx = 0.01421×290 = 4.12; η = -0.02252
+III ось: x = 0+290 см; kx = 0.01421×290 = 4.12; η = 0
+VI ось: x = 290+0+0 см; kx = 0.01421×290 = 4.12; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; η = -0.0188
-III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; η = 0</t>
+          <t>II ось: x = 290 см; kx = 0.01386×290 = 4.02; η = -0.0253
+III ось: x = 0+290 см; kx = 0.01386×290 = 4.02; η = 0
+VI ось: x = 290+0+0 см; kx = 0.01386×290 = 4.02; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; η = -0.01181
-III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; η = 0</t>
+          <t>II ось: x = 290 см; kx = 0.01522×290 = 4.41; η = -0.01514
+III ось: x = 0+290 см; kx = 0.01522×290 = 4.41; η = 0
+VI ось: x = 290+0+0 см; kx = 0.01522×290 = 4.41; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01338×185 = 2.48; η = -0.01414
-III ось: x = 125 см; kx = 0.01338×125 = 1.67; η = 0.16774
-VI ось: x = 125+185 см; kx = 0.01338×310 = 4.15; η = -0.0218</t>
+          <t>I ось: x = 175 см; kx = 0.01338×175 = 2.34; η = 0.002
+III ось: x = 175 см; kx = 0.01338×175 = 2.34; η = 0.002
+VI ось: x = 175+0 см; kx = 0.01338×175 = 2.34; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01498×185 = 2.77; η = -0.03569
-III ось: x = 125 см; kx = 0.01498×125 = 1.87; η = 0.10111
-VI ось: x = 125+185 см; kx = 0.01498×310 = 4.64; η = -0.01026</t>
+          <t>II ось: x = 175 см; kx = 0.01421×175 = 2.49; η = -0.01531
+III ось: x = 175+175 см; kx = 0.01421×350 = 4.97; η = -0.0049
+VI ось: x = 175+175+0 см; kx = 0.01421×350 = 4.97; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01421×185 = 2.63; η = -0.02748
-III ось: x = 125 см; kx = 0.01421×125 = 1.78; η = 0.13118
-VI ось: x = 125+185 см; kx = 0.01421×310 = 4.41; η = -0.01534</t>
+          <t>II ось: x = 175 см; kx = 0.01386×175 = 2.43; η = -0.00866
+III ось: x = 175+175 см; kx = 0.01386×350 = 4.85; η = -0.00666
+VI ось: x = 175+175+0 см; kx = 0.01386×350 = 4.85; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01522×185 = 2.82; η = -0.03755
-III ось: x = 125 см; kx = 0.01522×125 = 1.90; η = 0.09248
-VI ось: x = 125+185 см; kx = 0.01522×310 = 4.72; η = -0.00888</t>
+          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; η = -0.02982
+III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; η = -0.00117
+VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; η = 0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3637,58 +3637,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; µ = 0.00222
-III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; µ = 0.00000</t>
+          <t>II ось: x = 290 см; kx = 0.01338×290 = 3.88; µ = -0.00137
+III ось: x = 0+290 см; kx = 0.01338×290 = 3.88; µ = 0.00000
+VI ось: x = 290+0+0 см; kx = 0.01338×290 = 3.88; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01498×300 = 4.49; µ = 0.00849
-III ось: x = 0+300 см; kx = 0.01498×300 = 4.49; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01498×300 = 4.49; µ = 0.00000</t>
+          <t>II ось: x = 290 см; kx = 0.01421×290 = 4.12; µ = 0.00442
+III ось: x = 0+290 см; kx = 0.01421×290 = 4.12; µ = 0.00000
+VI ось: x = 290+0+0 см; kx = 0.01421×290 = 4.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; µ = 0.00657
-III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; µ = 0.00000</t>
+          <t>II ось: x = 290 см; kx = 0.01386×290 = 4.02; µ = 0.00234
+III ось: x = 0+290 см; kx = 0.01386×290 = 4.02; µ = 0.00000
+VI ось: x = 290+0+0 см; kx = 0.01386×290 = 4.02; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; µ = 0.00877
-III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; µ = 0.00000</t>
+          <t>II ось: x = 290 см; kx = 0.01522×290 = 4.41; µ = 0.00801
+III ось: x = 0+290 см; kx = 0.01522×290 = 4.41; µ = 0.00000
+VI ось: x = 290+0+0 см; kx = 0.01522×290 = 4.41; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01338×185 = 2.48; µ = -0.11815
-III ось: x = 125+185 см; kx = 0.01338×310 = 4.15; µ = 0.00489
-VI ось: x = 185+125+185 см; kx = 0.01338×495 = 6.62; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01338×175 = 2.34; µ = -0.13601
+III ось: x = 175+175 см; kx = 0.01338×350 = 4.68; µ = 0.00898
+VI ось: x = 175+175+0 см; kx = 0.01338×350 = 4.68; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01498×185 = 2.77; µ = -0.08099
-III ось: x = 125+185 см; kx = 0.01498×310 = 4.64; µ = 0.00894
-VI ось: x = 185+125+185 см; kx = 0.01498×495 = 7.42; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01421×175 = 2.49; µ = -0.11663
+III ось: x = 175+175 см; kx = 0.01421×350 = 4.97; µ = 0.00847
+VI ось: x = 175+175+0 см; kx = 0.01421×350 = 4.97; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01421×185 = 2.63; µ = -0.09828
-III ось: x = 125+185 см; kx = 0.01421×310 = 4.41; µ = 0.00795
-VI ось: x = 185+125+185 см; kx = 0.01421×495 = 7.03; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01386×175 = 2.43; µ = -0.12476
+III ось: x = 175+175 см; kx = 0.01386×350 = 4.85; µ = 0.00883
+VI ось: x = 175+175+0 см; kx = 0.01386×350 = 4.85; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01522×185 = 2.82; µ = -0.07588
-III ось: x = 125+185 см; kx = 0.01522×310 = 4.72; µ = 0.00898
-VI ось: x = 185+125+185 см; kx = 0.01522×495 = 7.53; µ = 0.00000</t>
+          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; µ = -0.09396
+III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; µ = 0.00677
+VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3700,66 +3700,66 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
+          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125+55 см; kx = 0.01338×180 = 2.41; η = -0.00664
-ηIV: x = 125+185+55; kx = 0.01338×365 = 4.88; η = -0.00617</t>
+ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
+</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3771,66 +3771,66 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
+          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 125 - 55 см; kx = 0.01338×70 = 0.94; η = 0.54799
-ηIV: x = 125 + 185-55; kx = 0.01338×255 = 4.08; η = -0.04059</t>
+ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
+</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3841,28 +3841,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H137" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3872,28 +3872,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="B138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="C138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="D138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="E138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="F138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="G138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="H138" t="n">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3934,28 +3934,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="B140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="C140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="D140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="E140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="F140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="G140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="H140" t="n">
-        <v>128.69</v>
+        <v>136.75</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3965,28 +3965,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="B141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="C141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="D141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="E141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="F141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="G141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="H141" t="n">
-        <v>160.33</v>
+        <v>162.33</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3996,28 +3996,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H142" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4027,28 +4027,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H143" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4058,28 +4058,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4089,28 +4089,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4120,28 +4120,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="B146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="C146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="D146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="E146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="F146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="G146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="H146" t="n">
-        <v>17.7</v>
+        <v>41.5</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4152,42 +4152,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>ВЛ15</t>
+          <t>ВЛ80</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6-осный</t>
+          <t>8-осный</t>
         </is>
       </c>
     </row>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="D2" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="H2" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="E4" t="n">
-        <v>13100</v>
+        <v>14800</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>3050</v>
+        <v>2760</v>
       </c>
       <c r="E6" t="n">
-        <v>1070</v>
+        <v>995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -653,28 +653,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="B11" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="C11" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="D11" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="E11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -715,51 +715,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+135+185</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+135+185</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+135+185</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>185+135+185</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>17.84</v>
+        <v>17.04</v>
       </c>
       <c r="E15" t="n">
-        <v>17.56</v>
+        <v>15.26</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1013,28 +1013,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="B25" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="C25" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="D25" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="E25" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="F25" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="G25" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="H25" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1044,132 +1044,132 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2033</v>
+        <v>1483</v>
       </c>
       <c r="B26" t="n">
-        <v>2033</v>
+        <v>1483</v>
       </c>
       <c r="C26" t="n">
-        <v>2033</v>
+        <v>1483</v>
       </c>
       <c r="D26" t="n">
-        <v>2033</v>
+        <v>1483</v>
       </c>
       <c r="E26" t="n">
-        <v>2568</v>
+        <v>2289</v>
       </c>
       <c r="F26" t="n">
-        <v>2568</v>
+        <v>2289</v>
       </c>
       <c r="G26" t="n">
-        <v>2568</v>
+        <v>2289</v>
       </c>
       <c r="H26" t="n">
-        <v>2568</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13533.25</v>
+        <v>13482.75</v>
       </c>
       <c r="B27" t="n">
-        <v>13533.25</v>
+        <v>13482.75</v>
       </c>
       <c r="C27" t="n">
-        <v>13533.25</v>
+        <v>13482.75</v>
       </c>
       <c r="D27" t="n">
-        <v>13533.25</v>
+        <v>13482.75</v>
       </c>
       <c r="E27" t="n">
-        <v>15668</v>
+        <v>17089</v>
       </c>
       <c r="F27" t="n">
-        <v>15668</v>
+        <v>17089</v>
       </c>
       <c r="G27" t="n">
-        <v>15668</v>
+        <v>17089</v>
       </c>
       <c r="H27" t="n">
-        <v>15668</v>
+        <v>17089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>216.88</v>
+        <v>158.16</v>
       </c>
       <c r="B28" t="n">
-        <v>216.88</v>
+        <v>158.16</v>
       </c>
       <c r="C28" t="n">
-        <v>216.88</v>
+        <v>158.16</v>
       </c>
       <c r="D28" t="n">
-        <v>216.88</v>
+        <v>158.16</v>
       </c>
       <c r="E28" t="n">
-        <v>273.92</v>
+        <v>244.16</v>
       </c>
       <c r="F28" t="n">
-        <v>273.92</v>
+        <v>244.16</v>
       </c>
       <c r="G28" t="n">
-        <v>273.92</v>
+        <v>244.16</v>
       </c>
       <c r="H28" t="n">
-        <v>273.92</v>
+        <v>244.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1408.62</v>
+        <v>1256.45</v>
       </c>
       <c r="B29" t="n">
-        <v>1674.06</v>
+        <v>1493.22</v>
       </c>
       <c r="C29" t="n">
-        <v>1346</v>
+        <v>1200.6</v>
       </c>
       <c r="D29" t="n">
-        <v>1549.11</v>
+        <v>1381.77</v>
       </c>
       <c r="E29" t="n">
-        <v>965.9400000000001</v>
+        <v>956.1799999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1147.95</v>
+        <v>1136.37</v>
       </c>
       <c r="G29" t="n">
-        <v>922.99</v>
+        <v>913.6799999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1062.27</v>
+        <v>1051.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>157.13</v>
+        <v>131.45</v>
       </c>
       <c r="B30" t="n">
-        <v>182.69</v>
+        <v>153.19</v>
       </c>
       <c r="C30" t="n">
-        <v>161.2</v>
+        <v>134.92</v>
       </c>
       <c r="D30" t="n">
-        <v>182.35</v>
+        <v>152.9</v>
       </c>
       <c r="E30" t="n">
-        <v>153.65</v>
+        <v>131.03</v>
       </c>
       <c r="F30" t="n">
-        <v>181.32</v>
+        <v>154.7</v>
       </c>
       <c r="G30" t="n">
-        <v>158.11</v>
+        <v>134.84</v>
       </c>
       <c r="H30" t="n">
-        <v>180.96</v>
+        <v>154.39</v>
       </c>
     </row>
     <row r="31">
@@ -1200,54 +1200,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1507.06</v>
+        <v>1355.22</v>
       </c>
       <c r="B32" t="n">
-        <v>1820.2</v>
+        <v>1645.88</v>
       </c>
       <c r="C32" t="n">
-        <v>1458.63</v>
+        <v>1314.5</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.92</v>
+        <v>1544.31</v>
       </c>
       <c r="E32" t="n">
-        <v>1212.64</v>
+        <v>1195.91</v>
       </c>
       <c r="F32" t="n">
-        <v>1517.16</v>
+        <v>1500.47</v>
       </c>
       <c r="G32" t="n">
-        <v>1202.85</v>
+        <v>1186.53</v>
       </c>
       <c r="H32" t="n">
-        <v>1450.89</v>
+        <v>1434.76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17300.9</v>
+        <v>16870.8</v>
       </c>
       <c r="B33" t="n">
-        <v>18083.75</v>
+        <v>17597.45</v>
       </c>
       <c r="C33" t="n">
-        <v>17179.82</v>
+        <v>16769</v>
       </c>
       <c r="D33" t="n">
-        <v>17795.55</v>
+        <v>17343.53</v>
       </c>
       <c r="E33" t="n">
-        <v>18699.6</v>
+        <v>20078.78</v>
       </c>
       <c r="F33" t="n">
-        <v>19460.9</v>
+        <v>20840.18</v>
       </c>
       <c r="G33" t="n">
-        <v>18675.12</v>
+        <v>20055.32</v>
       </c>
       <c r="H33" t="n">
-        <v>19295.22</v>
+        <v>20675.9</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1361,54 +1361,59 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17282</v>
+        <v>16901</v>
       </c>
       <c r="B38" t="n">
-        <v>18144</v>
+        <v>17686</v>
       </c>
       <c r="C38" t="n">
-        <v>17212</v>
+        <v>16837</v>
       </c>
       <c r="D38" t="n">
-        <v>17904</v>
+        <v>17462</v>
       </c>
       <c r="E38" t="n">
-        <v>16709</v>
+        <v>18184</v>
       </c>
       <c r="F38" t="n">
-        <v>17766</v>
+        <v>19308</v>
       </c>
       <c r="G38" t="n">
-        <v>16859</v>
+        <v>18376</v>
       </c>
       <c r="H38" t="n">
-        <v>17929</v>
+        <v>19523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.00137</v>
+        <v>0.00222</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00442</v>
+        <v>0.00657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00234</v>
+        <v>0.00506</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00801</v>
+        <v>0.00877</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.13601</v>
+        <v>-0.11815</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.11663</v>
+        <v>-0.09828000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.12476</v>
+        <v>-0.10653</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.09396</v>
+        <v>-0.07588</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Изгиб 2-ой оси</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1425,16 +1430,21 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00898</v>
+        <v>0.00679</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00847</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.008829999999999999</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00677</v>
+        <v>0.00878</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>изгиб 3 оси</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1462,83 +1472,98 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>изгиб 4 оси</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.00137</v>
+        <v>0.00222</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00442</v>
+        <v>0.00657</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00234</v>
+        <v>0.00506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00801</v>
+        <v>0.00877</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.12703</v>
+        <v>-0.11136</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.10816</v>
+        <v>-0.08957000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.11593</v>
+        <v>-0.09837</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.08719</v>
+        <v>-0.06710000000000001</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>сумма изгибов</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16906</v>
+        <v>16528</v>
       </c>
       <c r="B43" t="n">
-        <v>17779</v>
+        <v>17344</v>
       </c>
       <c r="C43" t="n">
-        <v>16837</v>
+        <v>16479</v>
       </c>
       <c r="D43" t="n">
-        <v>17591</v>
+        <v>17184</v>
       </c>
       <c r="E43" t="n">
-        <v>18762</v>
+        <v>21599</v>
       </c>
       <c r="F43" t="n">
-        <v>19144</v>
+        <v>21667</v>
       </c>
       <c r="G43" t="n">
-        <v>18435</v>
+        <v>21156</v>
       </c>
       <c r="H43" t="n">
-        <v>18810</v>
+        <v>20845</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.02917</v>
+        <v>-0.02545</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.02252</v>
+        <v>-0.0188</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0253</v>
+        <v>-0.02153</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01514</v>
+        <v>-0.01181</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002</v>
+        <v>-0.01414</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.01531</v>
+        <v>-0.02748</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.008659999999999999</v>
+        <v>-0.02247</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.02982</v>
+        <v>-0.03755</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Прогиб 2(I) или 1(II) оси</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1555,16 +1580,21 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002</v>
+        <v>0.1214</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0049</v>
+        <v>0.08805</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.00666</v>
+        <v>0.10152</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.00117</v>
+        <v>0.05381</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Прогиб 3(I) или 2(II) оси</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1581,42 +1611,52 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-0.01833</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.0122</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.01464</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.00637</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Прогиб 4(I) или 3(II) оси</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.02917</v>
+        <v>-0.02545</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.02252</v>
+        <v>-0.0188</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0253</v>
+        <v>-0.02153</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01514</v>
+        <v>-0.01181</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004</v>
+        <v>0.08893</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.02021</v>
+        <v>0.04837</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01532</v>
+        <v>0.06441</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.03099</v>
+        <v>0.009889999999999996</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Cумма прогибов</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1636,13 +1676,13 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1652,80 +1692,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>898.28</v>
+        <v>817.86</v>
       </c>
       <c r="B49" t="n">
-        <v>887.96</v>
+        <v>805.87</v>
       </c>
       <c r="C49" t="n">
-        <v>975.29</v>
+        <v>1012.34</v>
       </c>
       <c r="D49" t="n">
-        <v>923.87</v>
+        <v>956.08</v>
       </c>
       <c r="E49" t="n">
-        <v>846.02</v>
+        <v>961.45</v>
       </c>
       <c r="F49" t="n">
-        <v>847</v>
+        <v>961.21</v>
       </c>
       <c r="G49" t="n">
-        <v>1028.21</v>
+        <v>1108.81</v>
       </c>
       <c r="H49" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12.01</v>
+        <v>11.74</v>
       </c>
       <c r="B50" t="n">
-        <v>13.41</v>
+        <v>13.08</v>
       </c>
       <c r="C50" t="n">
-        <v>11.49</v>
+        <v>11.24</v>
       </c>
       <c r="D50" t="n">
-        <v>13.18</v>
+        <v>12.88</v>
       </c>
       <c r="E50" t="n">
-        <v>13.33</v>
+        <v>15.34</v>
       </c>
       <c r="F50" t="n">
-        <v>14.44</v>
+        <v>16.35</v>
       </c>
       <c r="G50" t="n">
-        <v>12.58</v>
+        <v>14.43</v>
       </c>
       <c r="H50" t="n">
-        <v>14.09</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="B51" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="C51" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="D51" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="E51" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="F51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G51" t="n">
         <v>2.42</v>
       </c>
-      <c r="G51" t="n">
-        <v>2.11</v>
-      </c>
       <c r="H51" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="52">
@@ -1818,54 +1858,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="B55" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="C55" t="n">
         <v>1.39</v>
       </c>
       <c r="D55" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E55" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="F55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.29</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.464</v>
+        <v>0.455</v>
       </c>
       <c r="B56" t="n">
-        <v>0.519</v>
+        <v>0.506</v>
       </c>
       <c r="C56" t="n">
-        <v>0.444</v>
+        <v>0.434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.51</v>
+        <v>0.499</v>
       </c>
       <c r="E56" t="n">
-        <v>0.515</v>
+        <v>0.592</v>
       </c>
       <c r="F56" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.5580000000000001</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.487</v>
-      </c>
       <c r="H56" t="n">
-        <v>0.544</v>
+        <v>0.604</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1937,28 +1977,28 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B59" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H59" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -1980,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F60" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="G60" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H60" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2011,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2030,28 +2070,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2102,28 +2142,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B67" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C67" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E67" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F67" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G67" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H67" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2169,10 +2209,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="D70" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2185,10 +2225,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="H70" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71">
@@ -2219,28 +2259,28 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B72" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C72" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D72" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H72" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73">
@@ -2257,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G73" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="H73" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74">
@@ -2283,21 +2323,21 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2307,7 +2347,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2317,7 +2357,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2327,7 +2367,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2337,7 +2377,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2347,7 +2387,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2369,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F81" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="G81" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="H81" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2388,28 +2428,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.0108</v>
+        <v>-0.008319999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.00589</v>
+        <v>-0.00399</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.00778</v>
+        <v>-0.00563</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.00181</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.15063</v>
+        <v>0.11875</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.04144</v>
+        <v>0.07545</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.04253</v>
+        <v>0.09273000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.03702</v>
+        <v>0.03303</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2419,28 +2459,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H83" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -2450,28 +2490,28 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -2667,28 +2707,28 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.04321</v>
+        <v>-0.04248</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.04174</v>
+        <v>-0.03926</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04268</v>
+        <v>-0.04087</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.03715</v>
+        <v>-0.0333</v>
       </c>
       <c r="E95" t="n">
-        <v>0.15063</v>
+        <v>0.38445</v>
       </c>
       <c r="F95" t="n">
-        <v>0.11316</v>
+        <v>0.35308</v>
       </c>
       <c r="G95" t="n">
-        <v>0.12811</v>
+        <v>0.36576</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0762</v>
+        <v>0.31985</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2698,28 +2738,28 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="B96" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="C96" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="D96" t="n">
-        <v>2711</v>
+        <v>1977</v>
       </c>
       <c r="E96" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="F96" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="G96" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="H96" t="n">
-        <v>3424</v>
+        <v>3052</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -2736,28 +2776,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11561.01</v>
+        <v>11303.96</v>
       </c>
       <c r="B100" t="n">
-        <v>11625.54</v>
+        <v>11336.68</v>
       </c>
       <c r="C100" t="n">
-        <v>11227.89</v>
+        <v>10986.27</v>
       </c>
       <c r="D100" t="n">
-        <v>10857.31</v>
+        <v>10597.31</v>
       </c>
       <c r="E100" t="n">
-        <v>15013.72</v>
+        <v>15616.23</v>
       </c>
       <c r="F100" t="n">
-        <v>11947.37</v>
+        <v>14778.8</v>
       </c>
       <c r="G100" t="n">
-        <v>11653.24</v>
+        <v>14814.76</v>
       </c>
       <c r="H100" t="n">
-        <v>11218.8</v>
+        <v>13207.56</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2767,28 +2807,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11122.4</v>
+        <v>10843.39</v>
       </c>
       <c r="B101" t="n">
-        <v>11140.37</v>
+        <v>10861.14</v>
       </c>
       <c r="C101" t="n">
-        <v>10755.58</v>
+        <v>10511.13</v>
       </c>
       <c r="D101" t="n">
-        <v>10379.04</v>
+        <v>10156.42</v>
       </c>
       <c r="E101" t="n">
-        <v>15013.72</v>
+        <v>20156.77</v>
       </c>
       <c r="F101" t="n">
-        <v>14369.64</v>
+        <v>19523.22</v>
       </c>
       <c r="G101" t="n">
-        <v>14326.83</v>
+        <v>19480.57</v>
       </c>
       <c r="H101" t="n">
-        <v>12992.74</v>
+        <v>18109.02</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2798,28 +2838,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="B102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="C102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="D102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="E102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="F102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="G102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="H102" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2829,28 +2869,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1217</v>
+        <v>0.1265</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2860,28 +2900,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="B104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="C104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="D104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="E104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="F104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="G104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="H104" t="n">
-        <v>1.787</v>
+        <v>2.399</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2891,28 +2931,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1215</v>
+        <v>0.1631</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2922,28 +2962,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="B106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="C106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="E106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="F106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="G106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="H106" t="n">
-        <v>0.758</v>
+        <v>0.882</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2959,10 +2999,10 @@
         <v>5830</v>
       </c>
       <c r="C107" t="n">
-        <v>3610</v>
+        <v>2982</v>
       </c>
       <c r="D107" t="n">
-        <v>3610</v>
+        <v>2982</v>
       </c>
       <c r="E107" t="n">
         <v>5830</v>
@@ -2971,10 +3011,10 @@
         <v>5830</v>
       </c>
       <c r="G107" t="n">
-        <v>3610</v>
+        <v>2982</v>
       </c>
       <c r="H107" t="n">
-        <v>3610</v>
+        <v>2982</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -2990,10 +3030,10 @@
         <v>0.585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.385</v>
+        <v>0.309</v>
       </c>
       <c r="D108" t="n">
-        <v>0.385</v>
+        <v>0.309</v>
       </c>
       <c r="E108" t="n">
         <v>0.585</v>
@@ -3002,10 +3042,10 @@
         <v>0.585</v>
       </c>
       <c r="G108" t="n">
-        <v>0.385</v>
+        <v>0.309</v>
       </c>
       <c r="H108" t="n">
-        <v>0.385</v>
+        <v>0.309</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3015,28 +3055,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H113" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3046,28 +3086,28 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="B114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="C114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="D114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="E114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="F114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="G114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="H114" t="n">
-        <v>4001.95</v>
+        <v>3989.7</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3077,28 +3117,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H115" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3108,28 +3148,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="B116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="C116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="D116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="E116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="F116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="G116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="H116" t="n">
-        <v>3990.93</v>
+        <v>3990.2</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -3139,28 +3179,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="B117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="C117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="D117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="E117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="F117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="G117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="H117" t="n">
-        <v>2847.6</v>
+        <v>2746.8</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -3170,28 +3210,28 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="B118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="C118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="D118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="E118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="F118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="G118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="H118" t="n">
-        <v>2696.4</v>
+        <v>2595.6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -3201,28 +3241,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="B121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="C121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="D121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="E121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="F121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="G121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="H121" t="n">
-        <v>887.96</v>
+        <v>956.08</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -3232,28 +3272,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="B122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="C122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="D122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="E122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="F122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="G122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="H122" t="n">
-        <v>995.79</v>
+        <v>1072.77</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -3263,28 +3303,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="B123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="C123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="D123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="E123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="F123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="G123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="H123" t="n">
-        <v>3602.85</v>
+        <v>2231.36</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -3294,28 +3334,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="B124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="C124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="D124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="E124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="F124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="G124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="H124" t="n">
-        <v>2413.63</v>
+        <v>2167.37</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -3325,28 +3365,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="B125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="C125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="D125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="E125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="F125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="G125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="H125" t="n">
-        <v>367388.46</v>
+        <v>227535.4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3356,28 +3396,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="B126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="C126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="D126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="E126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="F126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="G126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="H126" t="n">
-        <v>246121.76</v>
+        <v>221010.23</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3387,28 +3427,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="B127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="C127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="D127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="E127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="F127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="G127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="H127" t="n">
-        <v>244925.64</v>
+        <v>151690.27</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3418,28 +3458,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="B128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="C128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="D128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="E128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="F128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="G128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="H128" t="n">
-        <v>164081.17</v>
+        <v>147340.15</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3511,28 +3551,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H131" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -3542,28 +3582,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H132" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3574,58 +3614,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01338×290 = 3.88; η = -0.02917
-III ось: x = 0+290 см; kx = 0.01338×290 = 3.88; η = 0
-VI ось: x = 290+0+0 см; kx = 0.01338×290 = 3.88; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; η = -0.02545
+III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01421×290 = 4.12; η = -0.02252
-III ось: x = 0+290 см; kx = 0.01421×290 = 4.12; η = 0
-VI ось: x = 290+0+0 см; kx = 0.01421×290 = 4.12; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; η = -0.0188
+III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01386×290 = 4.02; η = -0.0253
-III ось: x = 0+290 см; kx = 0.01386×290 = 4.02; η = 0
-VI ось: x = 290+0+0 см; kx = 0.01386×290 = 4.02; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01386×300 = 4.16; η = -0.02153
+III ось: x = 0+300 см; kx = 0.01386×300 = 4.16; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01386×300 = 4.16; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01522×290 = 4.41; η = -0.01514
-III ось: x = 0+290 см; kx = 0.01522×290 = 4.41; η = 0
-VI ось: x = 290+0+0 см; kx = 0.01522×290 = 4.41; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; η = -0.01181
+III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I ось: x = 175 см; kx = 0.01338×175 = 2.34; η = 0.002
-III ось: x = 175 см; kx = 0.01338×175 = 2.34; η = 0.002
-VI ось: x = 175+0 см; kx = 0.01338×175 = 2.34; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01338×185 = 2.48; η = -0.01414
+III ось: x = 135 см; kx = 0.01338×135 = 1.81; η = 0.1214
+VI ось: x = 135+185 см; kx = 0.01338×320 = 4.28; η = -0.01833</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01421×175 = 2.49; η = -0.01531
-III ось: x = 175+175 см; kx = 0.01421×350 = 4.97; η = -0.0049
-VI ось: x = 175+175+0 см; kx = 0.01421×350 = 4.97; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01421×185 = 2.63; η = -0.02748
+III ось: x = 135 см; kx = 0.01421×135 = 1.92; η = 0.08805
+VI ось: x = 135+185 см; kx = 0.01421×320 = 4.55; η = -0.0122</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01386×175 = 2.43; η = -0.00866
-III ось: x = 175+175 см; kx = 0.01386×350 = 4.85; η = -0.00666
-VI ось: x = 175+175+0 см; kx = 0.01386×350 = 4.85; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01386×185 = 2.56; η = -0.02247
+III ось: x = 135 см; kx = 0.01386×135 = 1.87; η = 0.10152
+VI ось: x = 135+185 см; kx = 0.01386×320 = 4.44; η = -0.01464</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; η = -0.02982
-III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; η = -0.00117
-VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; η = 0</t>
+          <t>I ось: x = 185 см; kx = 0.01522×185 = 2.82; η = -0.03755
+III ось: x = 135 см; kx = 0.01522×135 = 2.05; η = 0.05381
+VI ось: x = 135+185 см; kx = 0.01522×320 = 4.87; η = -0.00637</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3637,58 +3677,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01338×290 = 3.88; µ = -0.00137
-III ось: x = 0+290 см; kx = 0.01338×290 = 3.88; µ = 0.00000
-VI ось: x = 290+0+0 см; kx = 0.01338×290 = 3.88; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; µ = 0.00222
+III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01421×290 = 4.12; µ = 0.00442
-III ось: x = 0+290 см; kx = 0.01421×290 = 4.12; µ = 0.00000
-VI ось: x = 290+0+0 см; kx = 0.01421×290 = 4.12; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; µ = 0.00657
+III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01386×290 = 4.02; µ = 0.00234
-III ось: x = 0+290 см; kx = 0.01386×290 = 4.02; µ = 0.00000
-VI ось: x = 290+0+0 см; kx = 0.01386×290 = 4.02; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01386×300 = 4.16; µ = 0.00506
+III ось: x = 0+300 см; kx = 0.01386×300 = 4.16; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01386×300 = 4.16; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 290 см; kx = 0.01522×290 = 4.41; µ = 0.00801
-III ось: x = 0+290 см; kx = 0.01522×290 = 4.41; µ = 0.00000
-VI ось: x = 290+0+0 см; kx = 0.01522×290 = 4.41; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; µ = 0.00877
+III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01338×175 = 2.34; µ = -0.13601
-III ось: x = 175+175 см; kx = 0.01338×350 = 4.68; µ = 0.00898
-VI ось: x = 175+175+0 см; kx = 0.01338×350 = 4.68; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01338×185 = 2.48; µ = -0.11815
+III ось: x = 135+185 см; kx = 0.01338×320 = 4.28; µ = 0.00679
+VI ось: x = 185+135+185 см; kx = 0.01338×505 = 6.76; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01421×175 = 2.49; µ = -0.11663
-III ось: x = 175+175 см; kx = 0.01421×350 = 4.97; µ = 0.00847
-VI ось: x = 175+175+0 см; kx = 0.01421×350 = 4.97; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01421×185 = 2.63; µ = -0.09828
+III ось: x = 135+185 см; kx = 0.01421×320 = 4.55; µ = 0.00871
+VI ось: x = 185+135+185 см; kx = 0.01421×505 = 7.18; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01386×175 = 2.43; µ = -0.12476
-III ось: x = 175+175 см; kx = 0.01386×350 = 4.85; µ = 0.00883
-VI ось: x = 175+175+0 см; kx = 0.01386×350 = 4.85; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01386×185 = 2.56; µ = -0.10653
+III ось: x = 135+185 см; kx = 0.01386×320 = 4.44; µ = 0.00816
+VI ось: x = 185+135+185 см; kx = 0.01386×505 = 7.00; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 175 см; kx = 0.01522×175 = 2.66; µ = -0.09396
-III ось: x = 175+175 см; kx = 0.01522×350 = 5.33; µ = 0.00677
-VI ось: x = 175+175+0 см; kx = 0.01522×350 = 5.33; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01522×185 = 2.82; µ = -0.07588
+III ось: x = 135+185 см; kx = 0.01522×320 = 4.87; µ = 0.00878
+VI ось: x = 185+135+185 см; kx = 0.01522×505 = 7.69; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3700,66 +3740,66 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 - 55 см; kx = 0.01338×120 = 1.61; η = 0.00200
+          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175+55 см; kx = 0.01338×230 = 57.34; η = -0.04303
-</t>
+ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
+ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3771,66 +3811,66 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 175 + 55 см; kx = 0.01338×230 = 3.08; η = -0.04303
+          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
 ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 175 - 55 см; kx = 0.01338×120 = -52.66; η = 0.19366
-</t>
+ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
+ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3841,28 +3881,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H137" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3872,28 +3912,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="B138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="C138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="D138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="E138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="F138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="G138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="H138" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3934,28 +3974,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="B140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="C140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="D140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="E140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="F140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="G140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="H140" t="n">
-        <v>136.75</v>
+        <v>128.69</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -3965,28 +4005,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="B141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="C141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="D141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="E141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="F141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="G141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="H141" t="n">
-        <v>162.33</v>
+        <v>135.75</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -3996,28 +4036,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H142" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4027,28 +4067,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4058,28 +4098,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="G144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="H144" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4089,28 +4129,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H145" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4120,28 +4160,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="B146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="C146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="D146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="E146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="F146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="G146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="H146" t="n">
-        <v>41.5</v>
+        <v>17.7</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4152,42 +4192,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,14 +426,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ВЛ80</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2ТЭ116</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>8-осный</t>
+          <t>4-осный</t>
         </is>
       </c>
     </row>
@@ -445,10 +449,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -461,10 +465,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="H2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +515,10 @@
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E4" t="n">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,7 +538,7 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2760</v>
+        <v>2230</v>
       </c>
       <c r="E6" t="n">
         <v>995</v>
@@ -547,7 +551,7 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
         <v>200</v>
@@ -560,7 +564,7 @@
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -588,10 +592,10 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -612,57 +616,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Р65</t>
+          <t>Р50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="B11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="D11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="E11" t="n">
         <v>1.18</v>
@@ -671,10 +675,10 @@
         <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -698,7 +702,7 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Электровоз</t>
+          <t>Тепловоз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -715,51 +719,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>185+185</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>185+135+185</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>185+135+185</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>185+135+185</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>185+135+185</t>
+          <t>185</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>17.04</v>
+        <v>13.02</v>
       </c>
       <c r="E15" t="n">
-        <v>15.26</v>
+        <v>20.24</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -842,28 +846,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01338</v>
+        <v>0.016</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01421</v>
+        <v>0.01725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01386</v>
+        <v>0.01638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01522</v>
+        <v>0.01753</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01338</v>
+        <v>0.016</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01421</v>
+        <v>0.01725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01386</v>
+        <v>0.01638</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01522</v>
+        <v>0.01753</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -873,7 +877,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.261</v>
+        <v>0.3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -883,28 +887,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="B20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="C20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="D20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="E20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="F20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="G20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="H20" t="n">
-        <v>417</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21">
@@ -1013,28 +1017,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1977</v>
+        <v>3244</v>
       </c>
       <c r="B25" t="n">
-        <v>1977</v>
+        <v>3244</v>
       </c>
       <c r="C25" t="n">
-        <v>1977</v>
+        <v>3244</v>
       </c>
       <c r="D25" t="n">
-        <v>1977</v>
+        <v>3244</v>
       </c>
       <c r="E25" t="n">
-        <v>3052</v>
+        <v>5549</v>
       </c>
       <c r="F25" t="n">
-        <v>3052</v>
+        <v>5549</v>
       </c>
       <c r="G25" t="n">
-        <v>3052</v>
+        <v>5549</v>
       </c>
       <c r="H25" t="n">
-        <v>3052</v>
+        <v>5549</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1044,210 +1048,210 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1483</v>
+        <v>2433</v>
       </c>
       <c r="B26" t="n">
-        <v>1483</v>
+        <v>2433</v>
       </c>
       <c r="C26" t="n">
-        <v>1483</v>
+        <v>2433</v>
       </c>
       <c r="D26" t="n">
-        <v>1483</v>
+        <v>2433</v>
       </c>
       <c r="E26" t="n">
-        <v>2289</v>
+        <v>4162</v>
       </c>
       <c r="F26" t="n">
-        <v>2289</v>
+        <v>4162</v>
       </c>
       <c r="G26" t="n">
-        <v>2289</v>
+        <v>4162</v>
       </c>
       <c r="H26" t="n">
-        <v>2289</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13482.75</v>
+        <v>13933</v>
       </c>
       <c r="B27" t="n">
-        <v>13482.75</v>
+        <v>13933</v>
       </c>
       <c r="C27" t="n">
-        <v>13482.75</v>
+        <v>13933</v>
       </c>
       <c r="D27" t="n">
-        <v>13482.75</v>
+        <v>13933</v>
       </c>
       <c r="E27" t="n">
-        <v>17089</v>
+        <v>18061.75</v>
       </c>
       <c r="F27" t="n">
-        <v>17089</v>
+        <v>18061.75</v>
       </c>
       <c r="G27" t="n">
-        <v>17089</v>
+        <v>18061.75</v>
       </c>
       <c r="H27" t="n">
-        <v>17089</v>
+        <v>18061.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>158.16</v>
+        <v>259.52</v>
       </c>
       <c r="B28" t="n">
-        <v>158.16</v>
+        <v>259.52</v>
       </c>
       <c r="C28" t="n">
-        <v>158.16</v>
+        <v>259.52</v>
       </c>
       <c r="D28" t="n">
-        <v>158.16</v>
+        <v>259.52</v>
       </c>
       <c r="E28" t="n">
-        <v>244.16</v>
+        <v>443.92</v>
       </c>
       <c r="F28" t="n">
-        <v>244.16</v>
+        <v>443.92</v>
       </c>
       <c r="G28" t="n">
-        <v>244.16</v>
+        <v>443.92</v>
       </c>
       <c r="H28" t="n">
-        <v>244.16</v>
+        <v>443.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1256.45</v>
+        <v>1226.76</v>
       </c>
       <c r="B29" t="n">
-        <v>1493.22</v>
+        <v>1447.01</v>
       </c>
       <c r="C29" t="n">
-        <v>1200.6</v>
+        <v>1179.14</v>
       </c>
       <c r="D29" t="n">
-        <v>1381.77</v>
+        <v>1374.66</v>
       </c>
       <c r="E29" t="n">
-        <v>956.1799999999999</v>
+        <v>1062.27</v>
       </c>
       <c r="F29" t="n">
-        <v>1136.37</v>
+        <v>1252.98</v>
       </c>
       <c r="G29" t="n">
-        <v>913.6799999999999</v>
+        <v>1021.03</v>
       </c>
       <c r="H29" t="n">
-        <v>1051.55</v>
+        <v>1190.34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131.45</v>
+        <v>152.78</v>
       </c>
       <c r="B30" t="n">
-        <v>153.19</v>
+        <v>176.96</v>
       </c>
       <c r="C30" t="n">
-        <v>134.92</v>
+        <v>157.65</v>
       </c>
       <c r="D30" t="n">
-        <v>152.9</v>
+        <v>180.91</v>
       </c>
       <c r="E30" t="n">
-        <v>131.03</v>
+        <v>120.36</v>
       </c>
       <c r="F30" t="n">
-        <v>154.7</v>
+        <v>140.88</v>
       </c>
       <c r="G30" t="n">
-        <v>134.84</v>
+        <v>124.52</v>
       </c>
       <c r="H30" t="n">
-        <v>154.39</v>
+        <v>144.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2080.96</v>
+        <v>1740.2</v>
       </c>
       <c r="B31" t="n">
-        <v>2939.12</v>
+        <v>2421.15</v>
       </c>
       <c r="C31" t="n">
-        <v>2209.78</v>
+        <v>1869.82</v>
       </c>
       <c r="D31" t="n">
-        <v>2927.02</v>
+        <v>2541.31</v>
       </c>
       <c r="E31" t="n">
-        <v>2966.48</v>
+        <v>2480.72</v>
       </c>
       <c r="F31" t="n">
-        <v>4189.81</v>
+        <v>3451.43</v>
       </c>
       <c r="G31" t="n">
-        <v>3150.12</v>
+        <v>2665.48</v>
       </c>
       <c r="H31" t="n">
-        <v>4172.56</v>
+        <v>3622.72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1355.22</v>
+        <v>1321.32</v>
       </c>
       <c r="B32" t="n">
-        <v>1645.88</v>
+        <v>1576.08</v>
       </c>
       <c r="C32" t="n">
-        <v>1314.5</v>
+        <v>1286.91</v>
       </c>
       <c r="D32" t="n">
-        <v>1544.31</v>
+        <v>1520.21</v>
       </c>
       <c r="E32" t="n">
-        <v>1195.91</v>
+        <v>1283.33</v>
       </c>
       <c r="F32" t="n">
-        <v>1500.47</v>
+        <v>1543.21</v>
       </c>
       <c r="G32" t="n">
-        <v>1186.53</v>
+        <v>1268.68</v>
       </c>
       <c r="H32" t="n">
-        <v>1434.76</v>
+        <v>1513.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16870.8</v>
+        <v>17236.3</v>
       </c>
       <c r="B33" t="n">
-        <v>17597.45</v>
+        <v>17873.2</v>
       </c>
       <c r="C33" t="n">
-        <v>16769</v>
+        <v>17150.28</v>
       </c>
       <c r="D33" t="n">
-        <v>17343.53</v>
+        <v>17733.53</v>
       </c>
       <c r="E33" t="n">
-        <v>20078.78</v>
+        <v>21270.08</v>
       </c>
       <c r="F33" t="n">
-        <v>20840.18</v>
+        <v>21919.78</v>
       </c>
       <c r="G33" t="n">
-        <v>20055.32</v>
+        <v>21233.45</v>
       </c>
       <c r="H33" t="n">
-        <v>20675.9</v>
+        <v>21844.88</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1257,158 +1261,158 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>58.67</v>
+        <v>49.06</v>
       </c>
       <c r="B34" t="n">
-        <v>55.24</v>
+        <v>45.51</v>
       </c>
       <c r="C34" t="n">
-        <v>56.64</v>
+        <v>47.92</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58</v>
+        <v>44.78</v>
       </c>
       <c r="E34" t="n">
-        <v>58.67</v>
+        <v>49.06</v>
       </c>
       <c r="F34" t="n">
-        <v>55.24</v>
+        <v>45.51</v>
       </c>
       <c r="G34" t="n">
-        <v>56.64</v>
+        <v>47.92</v>
       </c>
       <c r="H34" t="n">
-        <v>51.58</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>293.35</v>
+        <v>245.31</v>
       </c>
       <c r="B35" t="n">
-        <v>276.21</v>
+        <v>227.54</v>
       </c>
       <c r="C35" t="n">
-        <v>283.19</v>
+        <v>239.62</v>
       </c>
       <c r="D35" t="n">
-        <v>257.88</v>
+        <v>223.9</v>
       </c>
       <c r="E35" t="n">
-        <v>293.35</v>
+        <v>245.31</v>
       </c>
       <c r="F35" t="n">
-        <v>276.21</v>
+        <v>227.54</v>
       </c>
       <c r="G35" t="n">
-        <v>283.19</v>
+        <v>239.62</v>
       </c>
       <c r="H35" t="n">
-        <v>257.88</v>
+        <v>223.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>176.01</v>
+        <v>147.19</v>
       </c>
       <c r="B36" t="n">
-        <v>165.73</v>
+        <v>136.52</v>
       </c>
       <c r="C36" t="n">
-        <v>169.91</v>
+        <v>143.77</v>
       </c>
       <c r="D36" t="n">
-        <v>154.73</v>
+        <v>134.34</v>
       </c>
       <c r="E36" t="n">
-        <v>176.01</v>
+        <v>147.19</v>
       </c>
       <c r="F36" t="n">
-        <v>165.73</v>
+        <v>136.52</v>
       </c>
       <c r="G36" t="n">
-        <v>169.91</v>
+        <v>143.77</v>
       </c>
       <c r="H36" t="n">
-        <v>154.73</v>
+        <v>134.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>410.69</v>
+        <v>343.44</v>
       </c>
       <c r="B37" t="n">
-        <v>386.7</v>
+        <v>318.55</v>
       </c>
       <c r="C37" t="n">
-        <v>396.46</v>
+        <v>335.47</v>
       </c>
       <c r="D37" t="n">
-        <v>361.04</v>
+        <v>313.46</v>
       </c>
       <c r="E37" t="n">
-        <v>410.69</v>
+        <v>343.44</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7</v>
+        <v>318.55</v>
       </c>
       <c r="G37" t="n">
-        <v>396.46</v>
+        <v>335.47</v>
       </c>
       <c r="H37" t="n">
-        <v>361.04</v>
+        <v>313.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16901</v>
+        <v>17236</v>
       </c>
       <c r="B38" t="n">
-        <v>17686</v>
+        <v>17873</v>
       </c>
       <c r="C38" t="n">
-        <v>16837</v>
+        <v>17150</v>
       </c>
       <c r="D38" t="n">
-        <v>17462</v>
+        <v>17734</v>
       </c>
       <c r="E38" t="n">
-        <v>18184</v>
+        <v>21270</v>
       </c>
       <c r="F38" t="n">
-        <v>19308</v>
+        <v>21920</v>
       </c>
       <c r="G38" t="n">
-        <v>18376</v>
+        <v>21233</v>
       </c>
       <c r="H38" t="n">
-        <v>19523</v>
+        <v>21845</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.00222</v>
+        <v>-0.0603</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00657</v>
+        <v>-0.0391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00506</v>
+        <v>-0.0534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00877</v>
+        <v>-0.0351</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.11815</v>
+        <v>-0.0603</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.09828000000000001</v>
+        <v>-0.0391</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.10653</v>
+        <v>-0.0534</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.07588</v>
+        <v>-0.0351</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1430,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00679</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.008710000000000001</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.008160000000000001</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00878</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1480,28 +1484,28 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.00222</v>
+        <v>-0.0603</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00657</v>
+        <v>-0.0391</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00506</v>
+        <v>-0.0534</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00877</v>
+        <v>-0.0351</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.11136</v>
+        <v>-0.0603</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.08957000000000001</v>
+        <v>-0.0391</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.09837</v>
+        <v>-0.0534</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.06710000000000001</v>
+        <v>-0.0351</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1511,54 +1515,54 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16528</v>
+        <v>16655</v>
       </c>
       <c r="B43" t="n">
-        <v>17344</v>
+        <v>17273</v>
       </c>
       <c r="C43" t="n">
-        <v>16479</v>
+        <v>16558</v>
       </c>
       <c r="D43" t="n">
-        <v>17184</v>
+        <v>17137</v>
       </c>
       <c r="E43" t="n">
-        <v>21599</v>
+        <v>20517</v>
       </c>
       <c r="F43" t="n">
-        <v>21667</v>
+        <v>21141</v>
       </c>
       <c r="G43" t="n">
-        <v>21156</v>
+        <v>20466</v>
       </c>
       <c r="H43" t="n">
-        <v>20845</v>
+        <v>21072</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.02545</v>
+        <v>-0.0417</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0188</v>
+        <v>-0.0431</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.02153</v>
+        <v>-0.0425</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01181</v>
+        <v>-0.0428</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.01414</v>
+        <v>-0.0417</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02748</v>
+        <v>-0.0431</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02247</v>
+        <v>-0.0425</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03755</v>
+        <v>-0.0428</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1580,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1214</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08805</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.10152</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05381</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1611,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.01833</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0122</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01464</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.00637</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -1630,28 +1634,28 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.02545</v>
+        <v>-0.0417</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0188</v>
+        <v>-0.0431</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.02153</v>
+        <v>-0.0425</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01181</v>
+        <v>-0.0428</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08893</v>
+        <v>-0.0417</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04837</v>
+        <v>-0.0431</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06441</v>
+        <v>-0.0425</v>
       </c>
       <c r="H47" t="n">
-        <v>0.009889999999999996</v>
+        <v>-0.0428</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -1673,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -1692,80 +1696,80 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>817.86</v>
+        <v>1085.16</v>
       </c>
       <c r="B49" t="n">
-        <v>805.87</v>
+        <v>1043.72</v>
       </c>
       <c r="C49" t="n">
-        <v>1012.34</v>
+        <v>1371.11</v>
       </c>
       <c r="D49" t="n">
-        <v>956.08</v>
+        <v>1324.73</v>
       </c>
       <c r="E49" t="n">
-        <v>961.45</v>
+        <v>1436.51</v>
       </c>
       <c r="F49" t="n">
-        <v>961.21</v>
+        <v>1373.11</v>
       </c>
       <c r="G49" t="n">
-        <v>1108.81</v>
+        <v>1578.83</v>
       </c>
       <c r="H49" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.74</v>
+        <v>14.15</v>
       </c>
       <c r="B50" t="n">
-        <v>13.08</v>
+        <v>15.82</v>
       </c>
       <c r="C50" t="n">
-        <v>11.24</v>
+        <v>13.35</v>
       </c>
       <c r="D50" t="n">
-        <v>12.88</v>
+        <v>14.79</v>
       </c>
       <c r="E50" t="n">
-        <v>15.34</v>
+        <v>17.43</v>
       </c>
       <c r="F50" t="n">
-        <v>16.35</v>
+        <v>19.36</v>
       </c>
       <c r="G50" t="n">
-        <v>14.43</v>
+        <v>16.5</v>
       </c>
       <c r="H50" t="n">
-        <v>15.62</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.97</v>
+        <v>2.37</v>
       </c>
       <c r="B51" t="n">
-        <v>2.19</v>
+        <v>2.65</v>
       </c>
       <c r="C51" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="D51" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="E51" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="F51" t="n">
-        <v>2.74</v>
+        <v>3.24</v>
       </c>
       <c r="G51" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="H51" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="52">
@@ -1796,28 +1800,28 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6766799999999999</v>
+        <v>0.58397</v>
       </c>
       <c r="B53" t="n">
-        <v>0.64728</v>
+        <v>0.54033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.65968</v>
+        <v>0.57063</v>
       </c>
       <c r="D53" t="n">
-        <v>0.61149</v>
+        <v>0.53066</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6766799999999999</v>
+        <v>0.58397</v>
       </c>
       <c r="F53" t="n">
-        <v>0.64728</v>
+        <v>0.54033</v>
       </c>
       <c r="G53" t="n">
-        <v>0.65968</v>
+        <v>0.57063</v>
       </c>
       <c r="H53" t="n">
-        <v>0.61149</v>
+        <v>0.53066</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -1827,28 +1831,28 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="B54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="C54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="E54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="F54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="G54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="H54" t="n">
-        <v>3547</v>
+        <v>2018</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -1858,54 +1862,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="B55" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="C55" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="D55" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E55" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="F55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.23</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.29</v>
-      </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.455</v>
+        <v>0.502</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.434</v>
+        <v>0.474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.499</v>
+        <v>0.525</v>
       </c>
       <c r="E56" t="n">
-        <v>0.592</v>
+        <v>0.617</v>
       </c>
       <c r="F56" t="n">
-        <v>0.631</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.584</v>
       </c>
       <c r="H56" t="n">
-        <v>0.604</v>
+        <v>0.644</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1915,28 +1919,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="B57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="E57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="F57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="G57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="H57" t="n">
-        <v>0.272</v>
+        <v>0.295</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1946,28 +1950,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="B58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="E58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="F58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="G58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="H58" t="n">
-        <v>0.263</v>
+        <v>0.241</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1977,16 +1981,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="B59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="C59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E59" t="n">
         <v>185</v>
@@ -2008,28 +2012,28 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E60" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2051,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2101,7 +2105,7 @@
     </row>
     <row r="63">
       <c r="H63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2111,28 +2115,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="C64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="E64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="F64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="G64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="H64" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2142,28 +2146,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B67" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C67" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D67" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E67" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F67" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G67" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H67" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2209,10 +2213,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D70" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2225,10 +2229,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="H70" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71">
@@ -2259,16 +2263,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="B72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="C72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D72" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E72" t="n">
         <v>185</v>
@@ -2285,28 +2289,28 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="E73" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2323,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2397,28 +2401,28 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="E81" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -2428,28 +2432,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.008319999999999999</v>
+        <v>-0.0303</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.00399</v>
+        <v>-0.0223</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.00563</v>
+        <v>-0.0278</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0202</v>
       </c>
       <c r="E82" t="n">
-        <v>0.11875</v>
+        <v>-0.0303</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07545</v>
+        <v>-0.0223</v>
       </c>
       <c r="G82" t="n">
-        <v>0.09273000000000001</v>
+        <v>-0.0278</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03303</v>
+        <v>-0.0202</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2459,28 +2463,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="E83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="G83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H83" t="n">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -2552,28 +2556,28 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -2645,28 +2649,28 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -2676,28 +2680,28 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -2705,61 +2709,185 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Vag_[бкр]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57</v>
+      </c>
+      <c r="B92" t="n">
+        <v>57</v>
+      </c>
+      <c r="C92" t="n">
+        <v>57</v>
+      </c>
+      <c r="D92" t="n">
+        <v>57</v>
+      </c>
+      <c r="E92" t="n">
+        <v>57</v>
+      </c>
+      <c r="F92" t="n">
+        <v>57</v>
+      </c>
+      <c r="G92" t="n">
+        <v>57</v>
+      </c>
+      <c r="H92" t="n">
+        <v>57</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>ty из инструкции на прямой</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>48</v>
+      </c>
+      <c r="B93" t="n">
+        <v>48</v>
+      </c>
+      <c r="C93" t="n">
+        <v>48</v>
+      </c>
+      <c r="D93" t="n">
+        <v>48</v>
+      </c>
+      <c r="E93" t="n">
+        <v>48</v>
+      </c>
+      <c r="F93" t="n">
+        <v>48</v>
+      </c>
+      <c r="G93" t="n">
+        <v>48</v>
+      </c>
+      <c r="H93" t="n">
+        <v>48</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ty из инструкции на кривой</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[∆t_у_curve расчетное]</t>
+        </is>
+      </c>
+    </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>-0.04248</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.03926</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.04087</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.0333</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.38445</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.35308</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.36576</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.31985</v>
+      <c r="A95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>сигма тета 3 шпала</t>
+          <t>[∆t_уПрямая расчетное]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1977</v>
+        <v>1419</v>
       </c>
       <c r="B96" t="n">
-        <v>1977</v>
+        <v>1419</v>
       </c>
       <c r="C96" t="n">
-        <v>1977</v>
+        <v>1419</v>
       </c>
       <c r="D96" t="n">
-        <v>1977</v>
+        <v>1419</v>
       </c>
       <c r="E96" t="n">
-        <v>3052</v>
+        <v>4048</v>
       </c>
       <c r="F96" t="n">
-        <v>3052</v>
+        <v>4048</v>
       </c>
       <c r="G96" t="n">
-        <v>3052</v>
+        <v>4048</v>
       </c>
       <c r="H96" t="n">
-        <v>3052</v>
+        <v>4048</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -2768,6 +2896,30 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="n">
+        <v>3244</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3244</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3244</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3244</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5549</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5549</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5549</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5549</v>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>Pmax_p_kd</t>
@@ -2776,28 +2928,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11303.96</v>
+        <v>9643.83</v>
       </c>
       <c r="B100" t="n">
-        <v>11336.68</v>
+        <v>9333.67</v>
       </c>
       <c r="C100" t="n">
-        <v>10986.27</v>
+        <v>9408.9</v>
       </c>
       <c r="D100" t="n">
-        <v>10597.31</v>
+        <v>9175.84</v>
       </c>
       <c r="E100" t="n">
-        <v>15616.23</v>
+        <v>11874.46</v>
       </c>
       <c r="F100" t="n">
-        <v>14778.8</v>
+        <v>11425.14</v>
       </c>
       <c r="G100" t="n">
-        <v>14814.76</v>
+        <v>11626.43</v>
       </c>
       <c r="H100" t="n">
-        <v>13207.56</v>
+        <v>11285.03</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2807,28 +2959,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10843.39</v>
+        <v>10315.4</v>
       </c>
       <c r="B101" t="n">
-        <v>10861.14</v>
+        <v>9576.110000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>10511.13</v>
+        <v>9934.18</v>
       </c>
       <c r="D101" t="n">
-        <v>10156.42</v>
+        <v>9329.110000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>20156.77</v>
+        <v>13292.3</v>
       </c>
       <c r="F101" t="n">
-        <v>19523.22</v>
+        <v>12142.19</v>
       </c>
       <c r="G101" t="n">
-        <v>19480.57</v>
+        <v>12809.47</v>
       </c>
       <c r="H101" t="n">
-        <v>18109.02</v>
+        <v>11848.55</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2838,28 +2990,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="B102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="C102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="E102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="F102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="G102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="H102" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -2869,28 +3021,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1265</v>
+        <v>0.1246</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -2900,28 +3052,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="B104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="D104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="E104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="F104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="G104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="H104" t="n">
-        <v>2.399</v>
+        <v>1.892</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -2931,28 +3083,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1631</v>
+        <v>0.1395</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -2962,28 +3114,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="B106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="C106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="D106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="E106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="F106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="G106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="H106" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -2993,28 +3145,28 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="B107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="C107" t="n">
-        <v>2982</v>
+        <v>2950</v>
       </c>
       <c r="D107" t="n">
-        <v>2982</v>
+        <v>2950</v>
       </c>
       <c r="E107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="F107" t="n">
-        <v>5830</v>
+        <v>5170</v>
       </c>
       <c r="G107" t="n">
-        <v>2982</v>
+        <v>2950</v>
       </c>
       <c r="H107" t="n">
-        <v>2982</v>
+        <v>2950</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3024,28 +3176,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="B108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>0.309</v>
+        <v>0.365</v>
       </c>
       <c r="D108" t="n">
-        <v>0.309</v>
+        <v>0.365</v>
       </c>
       <c r="E108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="F108" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="G108" t="n">
-        <v>0.309</v>
+        <v>0.365</v>
       </c>
       <c r="H108" t="n">
-        <v>0.309</v>
+        <v>0.365</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3054,29 +3206,29 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>109</v>
-      </c>
-      <c r="B113" t="n">
-        <v>109</v>
-      </c>
-      <c r="C113" t="n">
-        <v>109</v>
-      </c>
-      <c r="D113" t="n">
-        <v>109</v>
-      </c>
-      <c r="E113" t="n">
-        <v>109</v>
-      </c>
-      <c r="F113" t="n">
-        <v>109</v>
-      </c>
-      <c r="G113" t="n">
-        <v>109</v>
-      </c>
-      <c r="H113" t="n">
-        <v>109</v>
+      <c r="A113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>88</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3085,29 +3237,29 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3989.7</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3989.7</v>
+      <c r="A114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>4000.04</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>4000.04</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3116,29 +3268,29 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>103</v>
-      </c>
-      <c r="B115" t="n">
-        <v>103</v>
-      </c>
-      <c r="C115" t="n">
-        <v>103</v>
-      </c>
-      <c r="D115" t="n">
-        <v>103</v>
-      </c>
-      <c r="E115" t="n">
-        <v>103</v>
-      </c>
-      <c r="F115" t="n">
-        <v>103</v>
-      </c>
-      <c r="G115" t="n">
-        <v>103</v>
-      </c>
-      <c r="H115" t="n">
-        <v>103</v>
+      <c r="A115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3147,29 +3299,29 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3990.2</v>
-      </c>
-      <c r="H116" t="n">
-        <v>3990.2</v>
+      <c r="A116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>3989.06</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>3989.06</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -3178,29 +3330,29 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2746.8</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2746.8</v>
+      <c r="A117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>2217.6</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -3209,29 +3361,29 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2595.6</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2595.6</v>
+      <c r="A118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -3241,28 +3393,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="B121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="C121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="D121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="E121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="F121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="G121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="H121" t="n">
-        <v>956.08</v>
+        <v>1371.11</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -3272,28 +3424,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="B122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="C122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="D122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="E122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="F122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="G122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="H122" t="n">
-        <v>1072.77</v>
+        <v>1517.74</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -3303,28 +3455,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="B123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="C123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="D123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="E123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="F123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="G123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="H123" t="n">
-        <v>2231.36</v>
+        <v>2123.37</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -3334,28 +3486,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="B124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="C124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="D124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="E124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="F124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="G124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="H124" t="n">
-        <v>2167.37</v>
+        <v>2016.18</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -3365,28 +3517,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="B125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="C125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="D125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="E125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="F125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="G125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="H125" t="n">
-        <v>227535.4</v>
+        <v>216523.48</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3396,28 +3548,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="B126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="C126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="D126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="E126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="F126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="G126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="H126" t="n">
-        <v>221010.23</v>
+        <v>205593.14</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3427,28 +3579,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="B127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="C127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="D127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="E127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="F127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="G127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="H127" t="n">
-        <v>151690.27</v>
+        <v>144348.99</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3458,28 +3610,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="B128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="C128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="D128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="E128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="F128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="G128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="H128" t="n">
-        <v>147340.15</v>
+        <v>137062.09</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3489,28 +3641,28 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>82.56</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -3520,28 +3672,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="B130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="C130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="D130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="E130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="F130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="G130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="H130" t="n">
-        <v>165.12</v>
+        <v>131.98</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -3550,122 +3702,122 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>37</v>
-      </c>
-      <c r="B131" t="n">
-        <v>37</v>
-      </c>
-      <c r="C131" t="n">
-        <v>37</v>
-      </c>
-      <c r="D131" t="n">
-        <v>37</v>
-      </c>
-      <c r="E131" t="n">
-        <v>37</v>
-      </c>
-      <c r="F131" t="n">
-        <v>37</v>
-      </c>
-      <c r="G131" t="n">
-        <v>37</v>
-      </c>
-      <c r="H131" t="n">
-        <v>37</v>
+      <c r="A131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[∆t_уПрямая]</t>
+          <t>[∆t_у_прямая выбранное]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>36</v>
-      </c>
-      <c r="B132" t="n">
-        <v>36</v>
-      </c>
-      <c r="C132" t="n">
-        <v>36</v>
-      </c>
-      <c r="D132" t="n">
-        <v>36</v>
-      </c>
-      <c r="E132" t="n">
-        <v>36</v>
-      </c>
-      <c r="F132" t="n">
-        <v>36</v>
-      </c>
-      <c r="G132" t="n">
-        <v>36</v>
-      </c>
-      <c r="H132" t="n">
-        <v>36</v>
+      <c r="A132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[∆t_у_curve]</t>
+          <t>[∆t_у_curve выбранное]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; η = -0.02545
-III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; η = -0.0417
+III ось: x = 185+185 см; kx = 0.016×370 = 5.92; η = 0
+VI ось: x = 185+185+0 см; kx = 0.016×370 = 5.92; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; η = -0.0188
-III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; η = -0.0431
+III ось: x = 185+185 см; kx = 0.01725×370 = 6.38; η = 0
+VI ось: x = 185+185+0 см; kx = 0.01725×370 = 6.38; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01386×300 = 4.16; η = -0.02153
-III ось: x = 0+300 см; kx = 0.01386×300 = 4.16; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01386×300 = 4.16; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; η = -0.0425
+III ось: x = 185+185 см; kx = 0.01638×370 = 6.06; η = 0
+VI ось: x = 185+185+0 см; kx = 0.01638×370 = 6.06; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; η = -0.01181
-III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; η = 0
-VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; η = -0.0428
+III ось: x = 185+185 см; kx = 0.01753×370 = 6.49; η = 0
+VI ось: x = 185+185+0 см; kx = 0.01753×370 = 6.49; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01338×185 = 2.48; η = -0.01414
-III ось: x = 135 см; kx = 0.01338×135 = 1.81; η = 0.1214
-VI ось: x = 135+185 см; kx = 0.01338×320 = 4.28; η = -0.01833</t>
+          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; η = -0.0417
+III ось: x = 0+185 см; kx = 0.016×185 = 2.96; η = 0
+VI ось: x = 185+0+0 см; kx = 0.016×185 = 2.96; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01421×185 = 2.63; η = -0.02748
-III ось: x = 135 см; kx = 0.01421×135 = 1.92; η = 0.08805
-VI ось: x = 135+185 см; kx = 0.01421×320 = 4.55; η = -0.0122</t>
+          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; η = -0.0431
+III ось: x = 0+185 см; kx = 0.01725×185 = 3.19; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01725×185 = 3.19; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01386×185 = 2.56; η = -0.02247
-III ось: x = 135 см; kx = 0.01386×135 = 1.87; η = 0.10152
-VI ось: x = 135+185 см; kx = 0.01386×320 = 4.44; η = -0.01464</t>
+          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; η = -0.0425
+III ось: x = 0+185 см; kx = 0.01638×185 = 3.03; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01638×185 = 3.03; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>I ось: x = 185 см; kx = 0.01522×185 = 2.82; η = -0.03755
-III ось: x = 135 см; kx = 0.01522×135 = 2.05; η = 0.05381
-VI ось: x = 135+185 см; kx = 0.01522×320 = 4.87; η = -0.00637</t>
+          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; η = -0.0428
+III ось: x = 0+185 см; kx = 0.01753×185 = 3.24; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01753×185 = 3.24; η = 0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3677,58 +3829,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01338×300 = 4.01; µ = 0.00222
-III ось: x = 0+300 см; kx = 0.01338×300 = 4.01; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01338×300 = 4.01; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; µ = -0.06030
+III ось: x = 185+185 см; kx = 0.016×370 = 5.92; µ = 0.00000
+VI ось: x = 185+185+0 см; kx = 0.016×370 = 5.92; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01421×300 = 4.26; µ = 0.00657
-III ось: x = 0+300 см; kx = 0.01421×300 = 4.26; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01421×300 = 4.26; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; µ = -0.03910
+III ось: x = 185+185 см; kx = 0.01725×370 = 6.38; µ = 0.00000
+VI ось: x = 185+185+0 см; kx = 0.01725×370 = 6.38; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01386×300 = 4.16; µ = 0.00506
-III ось: x = 0+300 см; kx = 0.01386×300 = 4.16; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01386×300 = 4.16; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; µ = -0.05340
+III ось: x = 185+185 см; kx = 0.01638×370 = 6.06; µ = 0.00000
+VI ось: x = 185+185+0 см; kx = 0.01638×370 = 6.06; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 300 см; kx = 0.01522×300 = 4.57; µ = 0.00877
-III ось: x = 0+300 см; kx = 0.01522×300 = 4.57; µ = 0.00000
-VI ось: x = 300+0+0 см; kx = 0.01522×300 = 4.57; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; µ = -0.03510
+III ось: x = 185+185 см; kx = 0.01753×370 = 6.49; µ = 0.00000
+VI ось: x = 185+185+0 см; kx = 0.01753×370 = 6.49; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01338×185 = 2.48; µ = -0.11815
-III ось: x = 135+185 см; kx = 0.01338×320 = 4.28; µ = 0.00679
-VI ось: x = 185+135+185 см; kx = 0.01338×505 = 6.76; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; µ = -0.06030
+III ось: x = 0+185 см; kx = 0.016×185 = 2.96; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.016×185 = 2.96; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01421×185 = 2.63; µ = -0.09828
-III ось: x = 135+185 см; kx = 0.01421×320 = 4.55; µ = 0.00871
-VI ось: x = 185+135+185 см; kx = 0.01421×505 = 7.18; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; µ = -0.03910
+III ось: x = 0+185 см; kx = 0.01725×185 = 3.19; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01725×185 = 3.19; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01386×185 = 2.56; µ = -0.10653
-III ось: x = 135+185 см; kx = 0.01386×320 = 4.44; µ = 0.00816
-VI ось: x = 185+135+185 см; kx = 0.01386×505 = 7.00; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; µ = -0.05340
+III ось: x = 0+185 см; kx = 0.01638×185 = 3.03; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01638×185 = 3.03; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01522×185 = 2.82; µ = -0.07588
-III ось: x = 135+185 см; kx = 0.01522×320 = 4.87; µ = 0.00878
-VI ось: x = 185+135+185 см; kx = 0.01522×505 = 7.69; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; µ = -0.03510
+III ось: x = 0+185 см; kx = 0.01753×185 = 3.24; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01753×185 = 3.24; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3738,68 +3890,60 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 - 55 см; kx = 0.01338×130 = 1.74; η = 0.14366
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135+55 см; kx = 0.01338×190 = 2.54; η = -0.02058
-ηIV: x = 135+185+55; kx = 0.01338×375 = 5.02; η = -0.00433</t>
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="F135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
+        </is>
+      </c>
+      <c r="H135" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
+ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -3809,68 +3953,60 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>ηI: x = 185 + 55 см; kx = 0.01338×240 = 3.21; η = -0.04301
-ηII: x = 55 см; kx = 0.01338×55 = 0.74; η = 0.67668
-ηIII: x = 135 - 55 см; kx = 0.01338×80 = 1.07; η = 0.46533
-ηIV: x = 135 + 185-55; kx = 0.01338×265 = 4.21; η = -0.03787</t>
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="F136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
+        </is>
+      </c>
+      <c r="H136" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
+ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -3880,29 +4016,29 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>59</v>
-      </c>
-      <c r="B137" t="n">
-        <v>59</v>
-      </c>
-      <c r="C137" t="n">
-        <v>59</v>
-      </c>
-      <c r="D137" t="n">
-        <v>59</v>
-      </c>
-      <c r="E137" t="n">
-        <v>59</v>
-      </c>
-      <c r="F137" t="n">
-        <v>59</v>
-      </c>
-      <c r="G137" t="n">
-        <v>59</v>
-      </c>
-      <c r="H137" t="n">
-        <v>59</v>
+      <c r="A137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -3911,29 +4047,29 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="C138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-47</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-47</v>
+      <c r="A138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>-46</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <v>-46</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -3943,28 +4079,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H139" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -3974,28 +4110,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="B140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="C140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="D140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="E140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="F140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="G140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="H140" t="n">
-        <v>128.69</v>
+        <v>111.54</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -4005,28 +4141,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="B141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="C141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="D141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="E141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="F141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="G141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="H141" t="n">
-        <v>135.75</v>
+        <v>121.75</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -4036,28 +4172,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H142" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4067,28 +4203,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H143" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4098,28 +4234,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H144" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4129,28 +4265,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H145" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4160,28 +4296,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="B146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="C146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="D146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="E146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="F146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="G146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="H146" t="n">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4192,42 +4328,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">

--- a/УЛЬТИМАТИВНАЯ_Формулы.xlsx
+++ b/УЛЬТИМАТИВНАЯ_Формулы.xlsx
@@ -428,7 +428,7 @@
     <row r="1">
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2ТЭ116</t>
+          <t>ВЛ10</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>11500</v>
       </c>
       <c r="E4" t="n">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>2230</v>
+        <v>3160</v>
       </c>
       <c r="E6" t="n">
         <v>995</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
         <v>200</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -657,16 +657,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="C11" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="D11" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="n">
         <v>1.18</v>
@@ -675,10 +675,10 @@
         <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Тепловоз</t>
+          <t>Электровоз</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -719,22 +719,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>185+185</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -760,7 +760,7 @@
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>13.02</v>
+        <v>17.04</v>
       </c>
       <c r="E15" t="n">
         <v>20.24</v>
@@ -774,69 +774,69 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Железобетон</t>
+          <t>Дерево</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="B17" t="n">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="C17" t="n">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="D17" t="n">
-        <v>1600</v>
+        <v>435</v>
       </c>
       <c r="E17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="G17" t="n">
-        <v>1100</v>
+        <v>290</v>
       </c>
       <c r="H17" t="n">
-        <v>1600</v>
+        <v>435</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -846,28 +846,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.016</v>
+        <v>0.01145</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01725</v>
+        <v>0.01232</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01638</v>
+        <v>0.01176</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01753</v>
+        <v>0.01256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016</v>
+        <v>0.01145</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01725</v>
+        <v>0.01232</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01638</v>
+        <v>0.01176</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01753</v>
+        <v>0.01256</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -913,132 +913,132 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="B21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="E21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="F21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="H21" t="n">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="G22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H22" t="n">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="B23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="C23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="D23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="E23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="F23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="G23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
       <c r="H23" t="n">
-        <v>3092</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3244</v>
+        <v>1977</v>
       </c>
       <c r="B25" t="n">
-        <v>3244</v>
+        <v>1977</v>
       </c>
       <c r="C25" t="n">
-        <v>3244</v>
+        <v>1977</v>
       </c>
       <c r="D25" t="n">
-        <v>3244</v>
+        <v>1977</v>
       </c>
       <c r="E25" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="F25" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="G25" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="H25" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1048,210 +1048,210 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2433</v>
+        <v>1483</v>
       </c>
       <c r="B26" t="n">
-        <v>2433</v>
+        <v>1483</v>
       </c>
       <c r="C26" t="n">
-        <v>2433</v>
+        <v>1483</v>
       </c>
       <c r="D26" t="n">
-        <v>2433</v>
+        <v>1483</v>
       </c>
       <c r="E26" t="n">
-        <v>4162</v>
+        <v>4258</v>
       </c>
       <c r="F26" t="n">
-        <v>4162</v>
+        <v>4258</v>
       </c>
       <c r="G26" t="n">
-        <v>4162</v>
+        <v>4258</v>
       </c>
       <c r="H26" t="n">
-        <v>4162</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13933</v>
+        <v>12982.75</v>
       </c>
       <c r="B27" t="n">
-        <v>13933</v>
+        <v>12982.75</v>
       </c>
       <c r="C27" t="n">
-        <v>13933</v>
+        <v>12982.75</v>
       </c>
       <c r="D27" t="n">
-        <v>13933</v>
+        <v>12982.75</v>
       </c>
       <c r="E27" t="n">
-        <v>18061.75</v>
+        <v>18458.5</v>
       </c>
       <c r="F27" t="n">
-        <v>18061.75</v>
+        <v>18458.5</v>
       </c>
       <c r="G27" t="n">
-        <v>18061.75</v>
+        <v>18458.5</v>
       </c>
       <c r="H27" t="n">
-        <v>18061.75</v>
+        <v>18458.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>259.52</v>
+        <v>158.16</v>
       </c>
       <c r="B28" t="n">
-        <v>259.52</v>
+        <v>158.16</v>
       </c>
       <c r="C28" t="n">
-        <v>259.52</v>
+        <v>158.16</v>
       </c>
       <c r="D28" t="n">
-        <v>259.52</v>
+        <v>158.16</v>
       </c>
       <c r="E28" t="n">
-        <v>443.92</v>
+        <v>454.24</v>
       </c>
       <c r="F28" t="n">
-        <v>443.92</v>
+        <v>454.24</v>
       </c>
       <c r="G28" t="n">
-        <v>443.92</v>
+        <v>454.24</v>
       </c>
       <c r="H28" t="n">
-        <v>443.92</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1226.76</v>
+        <v>2733.98</v>
       </c>
       <c r="B29" t="n">
-        <v>1447.01</v>
+        <v>3228.04</v>
       </c>
       <c r="C29" t="n">
-        <v>1179.14</v>
+        <v>2641.89</v>
       </c>
       <c r="D29" t="n">
-        <v>1374.66</v>
+        <v>3130.9</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.27</v>
+        <v>2181.19</v>
       </c>
       <c r="F29" t="n">
-        <v>1252.98</v>
+        <v>2575.35</v>
       </c>
       <c r="G29" t="n">
-        <v>1021.03</v>
+        <v>2107.72</v>
       </c>
       <c r="H29" t="n">
-        <v>1190.34</v>
+        <v>2497.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>152.78</v>
+        <v>105.69</v>
       </c>
       <c r="B30" t="n">
-        <v>176.96</v>
+        <v>112.31</v>
       </c>
       <c r="C30" t="n">
-        <v>157.65</v>
+        <v>106.69</v>
       </c>
       <c r="D30" t="n">
-        <v>180.91</v>
+        <v>115.11</v>
       </c>
       <c r="E30" t="n">
-        <v>120.36</v>
+        <v>81.98</v>
       </c>
       <c r="F30" t="n">
-        <v>140.88</v>
+        <v>94.59</v>
       </c>
       <c r="G30" t="n">
-        <v>124.52</v>
+        <v>84.87</v>
       </c>
       <c r="H30" t="n">
-        <v>144.2</v>
+        <v>98.45999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1740.2</v>
+        <v>679.3099999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2421.15</v>
+        <v>947.02</v>
       </c>
       <c r="C31" t="n">
-        <v>1869.82</v>
+        <v>737.72</v>
       </c>
       <c r="D31" t="n">
-        <v>2541.31</v>
+        <v>1036.1</v>
       </c>
       <c r="E31" t="n">
-        <v>2480.72</v>
+        <v>968.38</v>
       </c>
       <c r="F31" t="n">
-        <v>3451.43</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="n">
-        <v>2665.48</v>
+        <v>1051.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3622.72</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1321.32</v>
+        <v>2744.69</v>
       </c>
       <c r="B32" t="n">
-        <v>1576.08</v>
+        <v>3240.69</v>
       </c>
       <c r="C32" t="n">
-        <v>1286.91</v>
+        <v>2653.79</v>
       </c>
       <c r="D32" t="n">
-        <v>1520.21</v>
+        <v>3145.44</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.33</v>
+        <v>2239.91</v>
       </c>
       <c r="F32" t="n">
-        <v>1543.21</v>
+        <v>2634.08</v>
       </c>
       <c r="G32" t="n">
-        <v>1268.68</v>
+        <v>2170.47</v>
       </c>
       <c r="H32" t="n">
-        <v>1513.25</v>
+        <v>2562.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17236.3</v>
+        <v>19844.47</v>
       </c>
       <c r="B33" t="n">
-        <v>17873.2</v>
+        <v>21084.48</v>
       </c>
       <c r="C33" t="n">
-        <v>17150.28</v>
+        <v>19617.22</v>
       </c>
       <c r="D33" t="n">
-        <v>17733.53</v>
+        <v>20846.35</v>
       </c>
       <c r="E33" t="n">
-        <v>21270.08</v>
+        <v>24058.28</v>
       </c>
       <c r="F33" t="n">
-        <v>21919.78</v>
+        <v>25043.7</v>
       </c>
       <c r="G33" t="n">
-        <v>21233.45</v>
+        <v>23884.68</v>
       </c>
       <c r="H33" t="n">
-        <v>21844.88</v>
+        <v>24863.52</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1261,158 +1261,158 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>49.06</v>
+        <v>68.56</v>
       </c>
       <c r="B34" t="n">
-        <v>45.51</v>
+        <v>63.72</v>
       </c>
       <c r="C34" t="n">
-        <v>47.92</v>
+        <v>66.75</v>
       </c>
       <c r="D34" t="n">
-        <v>44.78</v>
+        <v>62.5</v>
       </c>
       <c r="E34" t="n">
-        <v>49.06</v>
+        <v>68.56</v>
       </c>
       <c r="F34" t="n">
-        <v>45.51</v>
+        <v>63.72</v>
       </c>
       <c r="G34" t="n">
-        <v>47.92</v>
+        <v>66.75</v>
       </c>
       <c r="H34" t="n">
-        <v>44.78</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245.31</v>
+        <v>342.79</v>
       </c>
       <c r="B35" t="n">
-        <v>227.54</v>
+        <v>318.59</v>
       </c>
       <c r="C35" t="n">
-        <v>239.62</v>
+        <v>333.76</v>
       </c>
       <c r="D35" t="n">
-        <v>223.9</v>
+        <v>312.5</v>
       </c>
       <c r="E35" t="n">
-        <v>245.31</v>
+        <v>342.79</v>
       </c>
       <c r="F35" t="n">
-        <v>227.54</v>
+        <v>318.59</v>
       </c>
       <c r="G35" t="n">
-        <v>239.62</v>
+        <v>333.76</v>
       </c>
       <c r="H35" t="n">
-        <v>223.9</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>147.19</v>
+        <v>205.68</v>
       </c>
       <c r="B36" t="n">
-        <v>136.52</v>
+        <v>191.15</v>
       </c>
       <c r="C36" t="n">
-        <v>143.77</v>
+        <v>200.26</v>
       </c>
       <c r="D36" t="n">
-        <v>134.34</v>
+        <v>187.5</v>
       </c>
       <c r="E36" t="n">
-        <v>147.19</v>
+        <v>205.68</v>
       </c>
       <c r="F36" t="n">
-        <v>136.52</v>
+        <v>191.15</v>
       </c>
       <c r="G36" t="n">
-        <v>143.77</v>
+        <v>200.26</v>
       </c>
       <c r="H36" t="n">
-        <v>134.34</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>343.44</v>
+        <v>479.91</v>
       </c>
       <c r="B37" t="n">
-        <v>318.55</v>
+        <v>446.02</v>
       </c>
       <c r="C37" t="n">
-        <v>335.47</v>
+        <v>467.26</v>
       </c>
       <c r="D37" t="n">
-        <v>313.46</v>
+        <v>437.5</v>
       </c>
       <c r="E37" t="n">
-        <v>343.44</v>
+        <v>479.91</v>
       </c>
       <c r="F37" t="n">
-        <v>318.55</v>
+        <v>446.02</v>
       </c>
       <c r="G37" t="n">
-        <v>335.47</v>
+        <v>467.26</v>
       </c>
       <c r="H37" t="n">
-        <v>313.46</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17236</v>
+        <v>19844</v>
       </c>
       <c r="B38" t="n">
-        <v>17873</v>
+        <v>21084</v>
       </c>
       <c r="C38" t="n">
-        <v>17150</v>
+        <v>19617</v>
       </c>
       <c r="D38" t="n">
-        <v>17734</v>
+        <v>20846</v>
       </c>
       <c r="E38" t="n">
-        <v>21270</v>
+        <v>24058</v>
       </c>
       <c r="F38" t="n">
-        <v>21920</v>
+        <v>25044</v>
       </c>
       <c r="G38" t="n">
-        <v>21233</v>
+        <v>23885</v>
       </c>
       <c r="H38" t="n">
-        <v>21845</v>
+        <v>24864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.0603</v>
+        <v>-0.0212</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0391</v>
+        <v>-0.007900000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0534</v>
+        <v>-0.016</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0351</v>
+        <v>-0.0051</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0603</v>
+        <v>-0.165</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0391</v>
+        <v>-0.1442</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0534</v>
+        <v>-0.1574</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0351</v>
+        <v>-0.1389</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1484,28 +1484,28 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.0603</v>
+        <v>-0.0212</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0391</v>
+        <v>-0.007900000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0534</v>
+        <v>-0.016</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0351</v>
+        <v>-0.0051</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0603</v>
+        <v>-0.165</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0391</v>
+        <v>-0.1442</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0534</v>
+        <v>-0.1574</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0351</v>
+        <v>-0.1389</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1515,54 +1515,54 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16655</v>
+        <v>19324</v>
       </c>
       <c r="B43" t="n">
-        <v>17273</v>
+        <v>20642</v>
       </c>
       <c r="C43" t="n">
-        <v>16558</v>
+        <v>19121</v>
       </c>
       <c r="D43" t="n">
-        <v>17137</v>
+        <v>20428</v>
       </c>
       <c r="E43" t="n">
-        <v>20517</v>
+        <v>24791</v>
       </c>
       <c r="F43" t="n">
-        <v>21141</v>
+        <v>25247</v>
       </c>
       <c r="G43" t="n">
-        <v>20466</v>
+        <v>24402</v>
       </c>
       <c r="H43" t="n">
-        <v>21072</v>
+        <v>24956</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.0417</v>
+        <v>-0.0401</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0431</v>
+        <v>-0.0341</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0425</v>
+        <v>-0.0382</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0428</v>
+        <v>-0.0322</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0417</v>
+        <v>0.0397</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0431</v>
+        <v>0.011</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0425</v>
+        <v>0.028</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0428</v>
+        <v>0.005</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1634,28 +1634,28 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.0417</v>
+        <v>-0.0401</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0431</v>
+        <v>-0.0341</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0425</v>
+        <v>-0.0382</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0428</v>
+        <v>-0.0322</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0417</v>
+        <v>0.0397</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0431</v>
+        <v>0.011</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0425</v>
+        <v>0.028</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0428</v>
+        <v>0.005</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -1696,132 +1696,132 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1085.16</v>
+        <v>1983.91</v>
       </c>
       <c r="B49" t="n">
-        <v>1043.72</v>
+        <v>1959.02</v>
       </c>
       <c r="C49" t="n">
-        <v>1371.11</v>
+        <v>1985.87</v>
       </c>
       <c r="D49" t="n">
-        <v>1324.73</v>
+        <v>1975.88</v>
       </c>
       <c r="E49" t="n">
-        <v>1436.51</v>
+        <v>2270.48</v>
       </c>
       <c r="F49" t="n">
-        <v>1373.11</v>
+        <v>2196.58</v>
       </c>
       <c r="G49" t="n">
-        <v>1578.83</v>
+        <v>2417.87</v>
       </c>
       <c r="H49" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14.15</v>
+        <v>11.55</v>
       </c>
       <c r="B50" t="n">
-        <v>15.82</v>
+        <v>13.27</v>
       </c>
       <c r="C50" t="n">
-        <v>13.35</v>
+        <v>10.88</v>
       </c>
       <c r="D50" t="n">
-        <v>14.79</v>
+        <v>12.42</v>
       </c>
       <c r="E50" t="n">
-        <v>17.43</v>
+        <v>14.81</v>
       </c>
       <c r="F50" t="n">
-        <v>19.36</v>
+        <v>16.23</v>
       </c>
       <c r="G50" t="n">
-        <v>16.5</v>
+        <v>13.89</v>
       </c>
       <c r="H50" t="n">
-        <v>18.18</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="B51" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D51" t="n">
         <v>2.65</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2.48</v>
-      </c>
       <c r="E51" t="n">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="F51" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.24</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.58397</v>
+        <v>0.7442800000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>0.54033</v>
+        <v>0.71402</v>
       </c>
       <c r="C53" t="n">
-        <v>0.57063</v>
+        <v>0.73355</v>
       </c>
       <c r="D53" t="n">
-        <v>0.53066</v>
+        <v>0.7056</v>
       </c>
       <c r="E53" t="n">
-        <v>0.58397</v>
+        <v>0.7442800000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.54033</v>
+        <v>0.71402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.57063</v>
+        <v>0.73355</v>
       </c>
       <c r="H53" t="n">
-        <v>0.53066</v>
+        <v>0.7056</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -1862,54 +1862,54 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C55" t="n">
         <v>1.3</v>
       </c>
-      <c r="B55" t="n">
+      <c r="D55" t="n">
         <v>1.24</v>
       </c>
-      <c r="C55" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.28</v>
-      </c>
       <c r="E55" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="F55" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.15</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.502</v>
+        <v>0.512</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.588</v>
       </c>
       <c r="C56" t="n">
-        <v>0.474</v>
+        <v>0.483</v>
       </c>
       <c r="D56" t="n">
-        <v>0.525</v>
+        <v>0.549</v>
       </c>
       <c r="E56" t="n">
-        <v>0.617</v>
+        <v>0.656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.718</v>
       </c>
       <c r="G56" t="n">
-        <v>0.584</v>
+        <v>0.615</v>
       </c>
       <c r="H56" t="n">
-        <v>0.644</v>
+        <v>0.671</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -1919,28 +1919,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="B57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="E57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="F57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="H57" t="n">
-        <v>0.295</v>
+        <v>0.248</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -1950,28 +1950,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="B58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="C58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="F58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="G58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="H58" t="n">
-        <v>0.241</v>
+        <v>0.206</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="B59" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="E59" t="n">
         <v>185</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2074,28 +2074,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2115,28 +2115,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="B64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.116</v>
+        <v>0.1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2146,28 +2146,28 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B67" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C67" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D67" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E67" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F67" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G67" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H67" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71">
@@ -2263,16 +2263,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="B72" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="C72" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D72" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="E72" t="n">
         <v>185</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2401,16 +2401,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2432,28 +2432,28 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.0303</v>
+        <v>-0.0242</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0223</v>
+        <v>-0.0162</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0278</v>
+        <v>-0.0212</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0202</v>
+        <v>-0.0141</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0303</v>
+        <v>-0.0347</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0223</v>
+        <v>-0.0417</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0278</v>
+        <v>-0.0377</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.0202</v>
+        <v>-0.0423</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -2463,28 +2463,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="H83" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -2525,28 +2525,28 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -2618,28 +2618,28 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.322</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -2649,28 +2649,28 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="B89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="C89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="E89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="G89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="H89" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -2711,28 +2711,28 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="B91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="C91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="D91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="E91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="F91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="H91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -2773,28 +2773,28 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H93" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -2804,28 +2804,28 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -2835,28 +2835,28 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1419</v>
+        <v>1977</v>
       </c>
       <c r="B96" t="n">
-        <v>1419</v>
+        <v>1977</v>
       </c>
       <c r="C96" t="n">
-        <v>1419</v>
+        <v>1977</v>
       </c>
       <c r="D96" t="n">
-        <v>1419</v>
+        <v>1977</v>
       </c>
       <c r="E96" t="n">
         <v>4048</v>
@@ -2897,28 +2897,28 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3244</v>
+        <v>1835</v>
       </c>
       <c r="B97" t="n">
-        <v>3244</v>
+        <v>1835</v>
       </c>
       <c r="C97" t="n">
-        <v>3244</v>
+        <v>1835</v>
       </c>
       <c r="D97" t="n">
-        <v>3244</v>
+        <v>1835</v>
       </c>
       <c r="E97" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="F97" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="G97" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="H97" t="n">
-        <v>5549</v>
+        <v>5678</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -2928,28 +2928,28 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9643.83</v>
+        <v>14452.09</v>
       </c>
       <c r="B100" t="n">
-        <v>9333.67</v>
+        <v>14812.37</v>
       </c>
       <c r="C100" t="n">
-        <v>9408.9</v>
+        <v>14074.76</v>
       </c>
       <c r="D100" t="n">
-        <v>9175.84</v>
+        <v>14536.55</v>
       </c>
       <c r="E100" t="n">
-        <v>11874.46</v>
+        <v>17261.26</v>
       </c>
       <c r="F100" t="n">
-        <v>11425.14</v>
+        <v>17073.92</v>
       </c>
       <c r="G100" t="n">
-        <v>11626.43</v>
+        <v>16775.76</v>
       </c>
       <c r="H100" t="n">
-        <v>11285.03</v>
+        <v>16775.34</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -2959,28 +2959,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10315.4</v>
+        <v>14282.01</v>
       </c>
       <c r="B101" t="n">
-        <v>9576.110000000001</v>
+        <v>14472.22</v>
       </c>
       <c r="C101" t="n">
-        <v>9934.18</v>
+        <v>13834.58</v>
       </c>
       <c r="D101" t="n">
-        <v>9329.110000000001</v>
+        <v>14161.35</v>
       </c>
       <c r="E101" t="n">
-        <v>13292.3</v>
+        <v>22385.34</v>
       </c>
       <c r="F101" t="n">
-        <v>12142.19</v>
+        <v>21459.66</v>
       </c>
       <c r="G101" t="n">
-        <v>12809.47</v>
+        <v>21628.5</v>
       </c>
       <c r="H101" t="n">
-        <v>11848.55</v>
+        <v>20952.5</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -2990,28 +2990,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="C102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="D102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="E102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="F102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="G102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -3021,28 +3021,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1246</v>
+        <v>0.1364</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -3052,28 +3052,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="B104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="C104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="D104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="E104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="F104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="G104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="H104" t="n">
-        <v>1.892</v>
+        <v>2.858</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3083,28 +3083,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1395</v>
+        <v>0.1772</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3114,28 +3114,28 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="B106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="C106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="D106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="E106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="F106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="G106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="H106" t="n">
-        <v>0.881</v>
+        <v>0.97</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3151,10 +3151,10 @@
         <v>5170</v>
       </c>
       <c r="C107" t="n">
-        <v>2950</v>
+        <v>3135</v>
       </c>
       <c r="D107" t="n">
-        <v>2950</v>
+        <v>3135</v>
       </c>
       <c r="E107" t="n">
         <v>5170</v>
@@ -3163,10 +3163,10 @@
         <v>5170</v>
       </c>
       <c r="G107" t="n">
-        <v>2950</v>
+        <v>3135</v>
       </c>
       <c r="H107" t="n">
-        <v>2950</v>
+        <v>3135</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3182,10 +3182,10 @@
         <v>0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>0.365</v>
+        <v>0.387</v>
       </c>
       <c r="D108" t="n">
-        <v>0.365</v>
+        <v>0.387</v>
       </c>
       <c r="E108" t="n">
         <v>0.6</v>
@@ -3194,10 +3194,10 @@
         <v>0.6</v>
       </c>
       <c r="G108" t="n">
-        <v>0.365</v>
+        <v>0.387</v>
       </c>
       <c r="H108" t="n">
-        <v>0.365</v>
+        <v>0.387</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3207,28 +3207,28 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="H113" s="1" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3238,28 +3238,28 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>4000.04</v>
+        <v>3989.55</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -3269,28 +3269,28 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H115" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3300,28 +3300,28 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="F116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="H116" s="1" t="n">
-        <v>3989.06</v>
+        <v>3996.03</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -3331,28 +3331,28 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="F117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>2217.6</v>
+        <v>1134</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -3362,28 +3362,28 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="F118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="H118" s="1" t="n">
-        <v>2016</v>
+        <v>932.4</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -3393,28 +3393,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="B121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="C121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="D121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="E121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="F121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="G121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="H121" t="n">
-        <v>1371.11</v>
+        <v>2196.58</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -3424,28 +3424,28 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="B122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="C122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="D122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="E122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="F122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="G122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="H122" t="n">
-        <v>1517.74</v>
+        <v>2356.64</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -3455,28 +3455,28 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="B123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="C123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="D123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="E123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="F123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="G123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="H123" t="n">
-        <v>2123.37</v>
+        <v>3161.93</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -3486,28 +3486,28 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="B124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="C124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="D124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="E124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="F124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="G124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="H124" t="n">
-        <v>2016.18</v>
+        <v>2091.45</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -3517,28 +3517,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="B125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="C125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="D125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="E125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="F125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="G125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="H125" t="n">
-        <v>216523.48</v>
+        <v>322427.13</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -3548,28 +3548,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="B126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="C126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="D126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="E126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="F126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="G126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="H126" t="n">
-        <v>205593.14</v>
+        <v>213268.55</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -3579,28 +3579,28 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="B127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="C127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="D127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="E127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="F127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="G127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="H127" t="n">
-        <v>144348.99</v>
+        <v>214951.42</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -3610,28 +3610,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="B128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="C128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="D128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="E128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="F128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="G128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="H128" t="n">
-        <v>137062.09</v>
+        <v>142179.03</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -3703,28 +3703,28 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H131" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -3734,28 +3734,28 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H132" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -3766,58 +3766,58 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; η = -0.0417
-III ось: x = 185+185 см; kx = 0.016×370 = 5.92; η = 0
-VI ось: x = 185+185+0 см; kx = 0.016×370 = 5.92; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; η = -0.0401
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; η = 0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; η = -0.0431
-III ось: x = 185+185 см; kx = 0.01725×370 = 6.38; η = 0
-VI ось: x = 185+185+0 см; kx = 0.01725×370 = 6.38; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01232×300 = 3.70; η = -0.0341
+III ось: x = 0+300 см; kx = 0.01232×300 = 3.70; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01232×300 = 3.70; η = 0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; η = -0.0425
-III ось: x = 185+185 см; kx = 0.01638×370 = 6.06; η = 0
-VI ось: x = 185+185+0 см; kx = 0.01638×370 = 6.06; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; η = -0.0382
+III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; η = 0</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; η = -0.0428
-III ось: x = 185+185 см; kx = 0.01753×370 = 6.49; η = 0
-VI ось: x = 185+185+0 см; kx = 0.01753×370 = 6.49; η = 0</t>
+          <t>II ось: x = 300 см; kx = 0.01256×300 = 3.77; η = -0.0322
+III ось: x = 0+300 см; kx = 0.01256×300 = 3.77; η = 0
+VI ось: x = 300+0+0 см; kx = 0.01256×300 = 3.77; η = 0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; η = -0.0417
-III ось: x = 0+185 см; kx = 0.016×185 = 2.96; η = 0
-VI ось: x = 185+0+0 см; kx = 0.016×185 = 2.96; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01145×185 = 2.12; η = 0.0397
+III ось: x = 0+185 см; kx = 0.01145×185 = 2.12; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01145×185 = 2.12; η = 0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; η = -0.0431
-III ось: x = 0+185 см; kx = 0.01725×185 = 3.19; η = 0
-VI ось: x = 185+0+0 см; kx = 0.01725×185 = 3.19; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01232×185 = 2.28; η = 0.011
+III ось: x = 0+185 см; kx = 0.01232×185 = 2.28; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01232×185 = 2.28; η = 0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; η = -0.0425
-III ось: x = 0+185 см; kx = 0.01638×185 = 3.03; η = 0
-VI ось: x = 185+0+0 см; kx = 0.01638×185 = 3.03; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01176×185 = 2.18; η = 0.028
+III ось: x = 0+185 см; kx = 0.01176×185 = 2.18; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01176×185 = 2.18; η = 0</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; η = -0.0428
-III ось: x = 0+185 см; kx = 0.01753×185 = 3.24; η = 0
-VI ось: x = 185+0+0 см; kx = 0.01753×185 = 3.24; η = 0</t>
+          <t>II ось: x = 185 см; kx = 0.01256×185 = 2.32; η = 0.005
+III ось: x = 0+185 см; kx = 0.01256×185 = 2.32; η = 0
+VI ось: x = 185+0+0 см; kx = 0.01256×185 = 2.32; η = 0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -3829,58 +3829,58 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; µ = -0.06030
-III ось: x = 185+185 см; kx = 0.016×370 = 5.92; µ = 0.00000
-VI ось: x = 185+185+0 см; kx = 0.016×370 = 5.92; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01145×300 = 3.44; µ = -0.02120
+III ось: x = 0+300 см; kx = 0.01145×300 = 3.44; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01145×300 = 3.44; µ = 0.00000</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; µ = -0.03910
-III ось: x = 185+185 см; kx = 0.01725×370 = 6.38; µ = 0.00000
-VI ось: x = 185+185+0 см; kx = 0.01725×370 = 6.38; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01232×300 = 3.70; µ = -0.00790
+III ось: x = 0+300 см; kx = 0.01232×300 = 3.70; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01232×300 = 3.70; µ = 0.00000</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; µ = -0.05340
-III ось: x = 185+185 см; kx = 0.01638×370 = 6.06; µ = 0.00000
-VI ось: x = 185+185+0 см; kx = 0.01638×370 = 6.06; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01176×300 = 3.53; µ = -0.01600
+III ось: x = 0+300 см; kx = 0.01176×300 = 3.53; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01176×300 = 3.53; µ = 0.00000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; µ = -0.03510
-III ось: x = 185+185 см; kx = 0.01753×370 = 6.49; µ = 0.00000
-VI ось: x = 185+185+0 см; kx = 0.01753×370 = 6.49; µ = 0.00000</t>
+          <t>II ось: x = 300 см; kx = 0.01256×300 = 3.77; µ = -0.00510
+III ось: x = 0+300 см; kx = 0.01256×300 = 3.77; µ = 0.00000
+VI ось: x = 300+0+0 см; kx = 0.01256×300 = 3.77; µ = 0.00000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.016×185 = 2.96; µ = -0.06030
-III ось: x = 0+185 см; kx = 0.016×185 = 2.96; µ = 0.00000
-VI ось: x = 185+0+0 см; kx = 0.016×185 = 2.96; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01145×185 = 2.12; µ = -0.16500
+III ось: x = 0+185 см; kx = 0.01145×185 = 2.12; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01145×185 = 2.12; µ = 0.00000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01725×185 = 3.19; µ = -0.03910
-III ось: x = 0+185 см; kx = 0.01725×185 = 3.19; µ = 0.00000
-VI ось: x = 185+0+0 см; kx = 0.01725×185 = 3.19; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01232×185 = 2.28; µ = -0.14420
+III ось: x = 0+185 см; kx = 0.01232×185 = 2.28; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01232×185 = 2.28; µ = 0.00000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01638×185 = 3.03; µ = -0.05340
-III ось: x = 0+185 см; kx = 0.01638×185 = 3.03; µ = 0.00000
-VI ось: x = 185+0+0 см; kx = 0.01638×185 = 3.03; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01176×185 = 2.18; µ = -0.15740
+III ось: x = 0+185 см; kx = 0.01176×185 = 2.18; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01176×185 = 2.18; µ = 0.00000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>II ось: x = 185 см; kx = 0.01753×185 = 3.24; µ = -0.03510
-III ось: x = 0+185 см; kx = 0.01753×185 = 3.24; µ = 0.00000
-VI ось: x = 185+0+0 см; kx = 0.01753×185 = 3.24; µ = 0.00000</t>
+          <t>II ось: x = 185 см; kx = 0.01256×185 = 2.32; µ = -0.13890
+III ось: x = 0+185 см; kx = 0.01256×185 = 2.32; µ = 0.00000
+VI ось: x = 185+0+0 см; kx = 0.01256×185 = 2.32; µ = 0.00000</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -3892,57 +3892,57 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="B135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="D135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="F135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="G135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
       <c r="H135" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016× 55 = 0.88; η = 0.58400
-ηII: x = 185 + 55 см; kx = 0.016 × 240 = 3.84; η = -0.03030
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145× 55 = 0.63; η = 0.74410
+ηII: x = 185 + 55 см; kx = 0.01145 × 240 = 2.75; η = -0.03470
 </t>
         </is>
       </c>
@@ -3955,57 +3955,57 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="F136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="G136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
       <c r="H136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">ηI: x = 55 см; kx = 0.016 × 55 = 0.88; η = 0.58400
-ηII: x = 185 - 55 см; kx = 0.016 × 130 = 2.08; η = 0.04820
+          <t xml:space="preserve">ηI: x = 55 см; kx = 0.01145 × 55 = 0.63; η = 0.74410
+ηII: x = 185 - 55 см; kx = 0.01145 × 130 = 1.49; η = 0.24290
 </t>
         </is>
       </c>
@@ -4048,28 +4048,28 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="H138" s="1" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -4079,28 +4079,28 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H139" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -4110,28 +4110,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="B140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="C140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="D140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="E140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="F140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="G140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="H140" t="n">
-        <v>111.54</v>
+        <v>70.09</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -4141,28 +4141,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="B141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="C141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="D141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="E141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="F141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="G141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="H141" t="n">
-        <v>121.75</v>
+        <v>100.15</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -4172,28 +4172,28 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -4203,28 +4203,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="B143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="D143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="E143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="F143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="G143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="H143" t="n">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -4234,28 +4234,28 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="B144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="F144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="G144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="H144" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -4265,28 +4265,28 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -4296,28 +4296,28 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="B146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="C146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="D146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="E146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="F146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="G146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="H146" t="n">
-        <v>21.6</v>
+        <v>30.2</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -4328,42 +4328,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Медвежья Гора</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
